--- a/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00200616</t>

--- a/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -67,12 +67,12 @@
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
+    <t>NCT00217347</t>
+  </si>
+  <si>
     <t>NCT00200616</t>
   </si>
   <si>
-    <t>NCT00217347</t>
-  </si>
-  <si>
     <t>NCT00200642</t>
   </si>
   <si>
@@ -82,43 +82,49 @@
     <t>NCT00200655</t>
   </si>
   <si>
+    <t>NCT00291538</t>
+  </si>
+  <si>
+    <t>NCT00561938</t>
+  </si>
+  <si>
+    <t>NCT00200681</t>
+  </si>
+  <si>
     <t>NCT00290576</t>
   </si>
   <si>
-    <t>NCT00561938</t>
-  </si>
-  <si>
-    <t>NCT00291538</t>
-  </si>
-  <si>
     <t>NCT00720031</t>
   </si>
   <si>
-    <t>NCT00200681</t>
+    <t>NCT00621400</t>
+  </si>
+  <si>
+    <t>NCT00200707</t>
+  </si>
+  <si>
+    <t>NCT00756080</t>
+  </si>
+  <si>
+    <t>NCT00707408</t>
+  </si>
+  <si>
+    <t>NCT00436514</t>
   </si>
   <si>
     <t>NCT00563303</t>
   </si>
   <si>
+    <t>NCT00965289</t>
+  </si>
+  <si>
     <t>NCT00491062</t>
   </si>
   <si>
-    <t>NCT00621400</t>
-  </si>
-  <si>
-    <t>NCT00756080</t>
-  </si>
-  <si>
-    <t>NCT00436514</t>
-  </si>
-  <si>
-    <t>NCT00200707</t>
-  </si>
-  <si>
-    <t>NCT00707408</t>
-  </si>
-  <si>
-    <t>NCT00965289</t>
+    <t>NCT00385710</t>
+  </si>
+  <si>
+    <t>NCT01061255</t>
   </si>
   <si>
     <t>NCT00200551</t>
@@ -127,10 +133,7 @@
     <t>NCT01136317</t>
   </si>
   <si>
-    <t>NCT01061255</t>
-  </si>
-  <si>
-    <t>NCT00385710</t>
+    <t>NCT00467506</t>
   </si>
   <si>
     <t>NCT01206673</t>
@@ -139,13 +142,22 @@
     <t>NCT01067937</t>
   </si>
   <si>
-    <t>NCT00467506</t>
+    <t>NCT00851513</t>
   </si>
   <si>
     <t>NCT01497990</t>
   </si>
   <si>
-    <t>NCT00851513</t>
+    <t>NCT00836732</t>
+  </si>
+  <si>
+    <t>NCT00200577</t>
+  </si>
+  <si>
+    <t>NCT01093261</t>
+  </si>
+  <si>
+    <t>NCT01353183</t>
   </si>
   <si>
     <t>NCT01331356</t>
@@ -154,205 +166,229 @@
     <t>NCT00841724</t>
   </si>
   <si>
-    <t>NCT00200577</t>
-  </si>
-  <si>
-    <t>NCT01353183</t>
-  </si>
-  <si>
-    <t>NCT01093261</t>
-  </si>
-  <si>
-    <t>NCT00836732</t>
+    <t>NCT01745653</t>
+  </si>
+  <si>
+    <t>NCT01309334</t>
+  </si>
+  <si>
+    <t>NCT00561379</t>
   </si>
   <si>
     <t>NCT00863148</t>
   </si>
   <si>
-    <t>NCT00561379</t>
+    <t>NCT00435864</t>
+  </si>
+  <si>
+    <t>NCT01747109</t>
+  </si>
+  <si>
+    <t>NCT00422006</t>
   </si>
   <si>
     <t>NCT01785238</t>
   </si>
   <si>
-    <t>NCT01747109</t>
-  </si>
-  <si>
-    <t>NCT01309334</t>
-  </si>
-  <si>
-    <t>NCT01745653</t>
-  </si>
-  <si>
-    <t>NCT00422006</t>
-  </si>
-  <si>
-    <t>NCT00435864</t>
+    <t>NCT01240772</t>
+  </si>
+  <si>
+    <t>NCT01135641</t>
+  </si>
+  <si>
+    <t>NCT01832844</t>
+  </si>
+  <si>
+    <t>NCT01485705</t>
+  </si>
+  <si>
+    <t>NCT01810146</t>
   </si>
   <si>
     <t>NCT01279694</t>
   </si>
   <si>
+    <t>NCT01761357</t>
+  </si>
+  <si>
+    <t>NCT01042301</t>
+  </si>
+  <si>
+    <t>NCT01496040</t>
+  </si>
+  <si>
+    <t>NCT01188174</t>
+  </si>
+  <si>
+    <t>NCT01480856</t>
+  </si>
+  <si>
     <t>NCT01426295</t>
   </si>
   <si>
-    <t>NCT01042301</t>
-  </si>
-  <si>
-    <t>NCT01810146</t>
-  </si>
-  <si>
-    <t>NCT01496040</t>
-  </si>
-  <si>
-    <t>NCT01135641</t>
-  </si>
-  <si>
-    <t>NCT01240772</t>
-  </si>
-  <si>
-    <t>NCT01761357</t>
-  </si>
-  <si>
-    <t>NCT01480856</t>
-  </si>
-  <si>
-    <t>NCT01832844</t>
-  </si>
-  <si>
-    <t>NCT01188174</t>
-  </si>
-  <si>
-    <t>NCT01485705</t>
+    <t>NCT01617252</t>
+  </si>
+  <si>
+    <t>NCT01546272</t>
+  </si>
+  <si>
+    <t>NCT02907450</t>
   </si>
   <si>
     <t>NCT01353651</t>
   </si>
   <si>
+    <t>NCT01485679</t>
+  </si>
+  <si>
+    <t>NCT01745679</t>
+  </si>
+  <si>
+    <t>NCT01541280</t>
+  </si>
+  <si>
+    <t>NCT01386034</t>
+  </si>
+  <si>
+    <t>NCT02198612</t>
+  </si>
+  <si>
     <t>NCT02018952</t>
   </si>
   <si>
-    <t>NCT01617252</t>
-  </si>
-  <si>
-    <t>NCT01745679</t>
-  </si>
-  <si>
-    <t>NCT01485679</t>
+    <t>NCT01948115</t>
+  </si>
+  <si>
+    <t>NCT02067767</t>
+  </si>
+  <si>
+    <t>NCT01971658</t>
   </si>
   <si>
     <t>NCT01537380</t>
   </si>
   <si>
-    <t>NCT01948115</t>
-  </si>
-  <si>
-    <t>NCT01971658</t>
-  </si>
-  <si>
-    <t>NCT01541280</t>
-  </si>
-  <si>
-    <t>NCT02907450</t>
-  </si>
-  <si>
-    <t>NCT02067767</t>
-  </si>
-  <si>
-    <t>NCT01546272</t>
-  </si>
-  <si>
-    <t>NCT02198612</t>
-  </si>
-  <si>
-    <t>NCT01386034</t>
+    <t>NCT01890668</t>
+  </si>
+  <si>
+    <t>NCT02819258</t>
+  </si>
+  <si>
+    <t>NCT01219816</t>
   </si>
   <si>
     <t>NCT01888458</t>
   </si>
   <si>
+    <t>NCT01851135</t>
+  </si>
+  <si>
+    <t>NCT01147315</t>
+  </si>
+  <si>
+    <t>NCT01207674</t>
+  </si>
+  <si>
+    <t>NCT01747096</t>
+  </si>
+  <si>
+    <t>NCT01566656</t>
+  </si>
+  <si>
+    <t>NCT00860639</t>
+  </si>
+  <si>
+    <t>NCT02262182</t>
+  </si>
+  <si>
+    <t>NCT01967524</t>
+  </si>
+  <si>
+    <t>NCT01879046</t>
+  </si>
+  <si>
     <t>NCT01748409</t>
   </si>
   <si>
-    <t>NCT01879046</t>
-  </si>
-  <si>
-    <t>NCT01566656</t>
-  </si>
-  <si>
     <t>NCT01730638</t>
   </si>
   <si>
-    <t>NCT02819258</t>
-  </si>
-  <si>
-    <t>NCT01147315</t>
-  </si>
-  <si>
-    <t>NCT00860639</t>
-  </si>
-  <si>
-    <t>NCT01851135</t>
-  </si>
-  <si>
-    <t>NCT02262182</t>
-  </si>
-  <si>
-    <t>NCT01747096</t>
-  </si>
-  <si>
-    <t>NCT01967524</t>
-  </si>
-  <si>
-    <t>NCT01890668</t>
-  </si>
-  <si>
-    <t>NCT01207674</t>
-  </si>
-  <si>
-    <t>NCT01219816</t>
+    <t>NCT01710930</t>
+  </si>
+  <si>
+    <t>NCT01572181</t>
+  </si>
+  <si>
+    <t>NCT01432509</t>
+  </si>
+  <si>
+    <t>NCT02581150</t>
   </si>
   <si>
     <t>NCT02587247</t>
   </si>
   <si>
+    <t>NCT02403856</t>
+  </si>
+  <si>
+    <t>NCT01733199</t>
+  </si>
+  <si>
+    <t>NCT02381639</t>
+  </si>
+  <si>
+    <t>NCT01730612</t>
+  </si>
+  <si>
+    <t>NCT02538939</t>
+  </si>
+  <si>
     <t>NCT03210857</t>
   </si>
   <si>
-    <t>NCT02581150</t>
-  </si>
-  <si>
-    <t>NCT01710930</t>
-  </si>
-  <si>
-    <t>NCT01432509</t>
-  </si>
-  <si>
-    <t>NCT01730612</t>
-  </si>
-  <si>
-    <t>NCT01733199</t>
-  </si>
-  <si>
-    <t>NCT02403856</t>
-  </si>
-  <si>
-    <t>NCT01572181</t>
-  </si>
-  <si>
     <t>NCT01723644</t>
   </si>
   <si>
-    <t>NCT02381639</t>
-  </si>
-  <si>
-    <t>NCT02538939</t>
+    <t>NCT02236260</t>
   </si>
   <si>
     <t>NCT02700321</t>
   </si>
   <si>
-    <t>NCT02236260</t>
+    <t>NCT03106441</t>
+  </si>
+  <si>
+    <t>NCT02244450</t>
+  </si>
+  <si>
+    <t>NCT03220555</t>
+  </si>
+  <si>
+    <t>NCT02078141</t>
+  </si>
+  <si>
+    <t>NCT01300143</t>
+  </si>
+  <si>
+    <t>NCT02252055</t>
+  </si>
+  <si>
+    <t>NCT02023970</t>
+  </si>
+  <si>
+    <t>NCT01610531</t>
+  </si>
+  <si>
+    <t>NCT02181439</t>
+  </si>
+  <si>
+    <t>NCT01541176</t>
+  </si>
+  <si>
+    <t>NCT02719496</t>
+  </si>
+  <si>
+    <t>NCT02911207</t>
   </si>
   <si>
     <t>NCT03387254</t>
@@ -361,238 +397,232 @@
     <t>NCT02707354</t>
   </si>
   <si>
-    <t>NCT02078141</t>
-  </si>
-  <si>
-    <t>NCT01610531</t>
-  </si>
-  <si>
-    <t>NCT02023970</t>
+    <t>NCT01964911</t>
+  </si>
+  <si>
+    <t>NCT03137511</t>
   </si>
   <si>
     <t>NCT01682265</t>
   </si>
   <si>
-    <t>NCT02252055</t>
-  </si>
-  <si>
-    <t>NCT01300143</t>
-  </si>
-  <si>
-    <t>NCT03220555</t>
-  </si>
-  <si>
-    <t>NCT02911207</t>
-  </si>
-  <si>
-    <t>NCT02181439</t>
-  </si>
-  <si>
-    <t>NCT01541176</t>
-  </si>
-  <si>
-    <t>NCT03137511</t>
-  </si>
-  <si>
-    <t>NCT02719496</t>
-  </si>
-  <si>
-    <t>NCT01964911</t>
-  </si>
-  <si>
-    <t>NCT03106441</t>
-  </si>
-  <si>
-    <t>NCT02244450</t>
+    <t>NCT02624271</t>
+  </si>
+  <si>
+    <t>NCT01630278</t>
   </si>
   <si>
     <t>NCT03192033</t>
   </si>
   <si>
+    <t>NCT02574403</t>
+  </si>
+  <si>
+    <t>NCT02376491</t>
+  </si>
+  <si>
     <t>NCT03099993</t>
   </si>
   <si>
+    <t>NCT02859233</t>
+  </si>
+  <si>
+    <t>NCT03020277</t>
+  </si>
+  <si>
+    <t>NCT03218553</t>
+  </si>
+  <si>
+    <t>NCT02723383</t>
+  </si>
+  <si>
+    <t>NCT02345681</t>
+  </si>
+  <si>
+    <t>NCT03185052</t>
+  </si>
+  <si>
     <t>NCT02424916</t>
   </si>
   <si>
-    <t>NCT03020277</t>
-  </si>
-  <si>
-    <t>NCT01630278</t>
-  </si>
-  <si>
-    <t>NCT02345681</t>
-  </si>
-  <si>
-    <t>NCT02624271</t>
+    <t>NCT03015818</t>
+  </si>
+  <si>
+    <t>NCT03330379</t>
   </si>
   <si>
     <t>NCT03337412</t>
   </si>
   <si>
-    <t>NCT02574403</t>
-  </si>
-  <si>
-    <t>NCT03218553</t>
-  </si>
-  <si>
-    <t>NCT03330379</t>
-  </si>
-  <si>
-    <t>NCT02723383</t>
-  </si>
-  <si>
-    <t>NCT02859233</t>
-  </si>
-  <si>
-    <t>NCT03185052</t>
-  </si>
-  <si>
-    <t>NCT02376491</t>
-  </si>
-  <si>
-    <t>NCT03015818</t>
-  </si>
-  <si>
     <t>NCT02202291</t>
   </si>
   <si>
+    <t>NCT02748590</t>
+  </si>
+  <si>
+    <t>NCT03143751</t>
+  </si>
+  <si>
+    <t>NCT03195452</t>
+  </si>
+  <si>
+    <t>NCT01615900</t>
+  </si>
+  <si>
+    <t>NCT02972684</t>
+  </si>
+  <si>
+    <t>NCT03369171</t>
+  </si>
+  <si>
+    <t>NCT02801695</t>
+  </si>
+  <si>
+    <t>NCT01936532</t>
+  </si>
+  <si>
+    <t>NCT03915041</t>
+  </si>
+  <si>
+    <t>NCT03307135</t>
+  </si>
+  <si>
+    <t>NCT04005560</t>
+  </si>
+  <si>
+    <t>NCT02988557</t>
+  </si>
+  <si>
+    <t>NCT01834417</t>
+  </si>
+  <si>
     <t>NCT04024176</t>
   </si>
   <si>
-    <t>NCT04005560</t>
-  </si>
-  <si>
-    <t>NCT02988557</t>
-  </si>
-  <si>
-    <t>NCT03143751</t>
-  </si>
-  <si>
-    <t>NCT02801695</t>
-  </si>
-  <si>
-    <t>NCT02748590</t>
-  </si>
-  <si>
-    <t>NCT03307135</t>
-  </si>
-  <si>
-    <t>NCT03915041</t>
-  </si>
-  <si>
-    <t>NCT01834417</t>
-  </si>
-  <si>
-    <t>NCT03369171</t>
-  </si>
-  <si>
-    <t>NCT01615900</t>
-  </si>
-  <si>
-    <t>NCT02972684</t>
-  </si>
-  <si>
-    <t>NCT01936532</t>
-  </si>
-  <si>
-    <t>NCT03195452</t>
+    <t>NCT04611425</t>
+  </si>
+  <si>
+    <t>NCT03604120</t>
+  </si>
+  <si>
+    <t>NCT03607162</t>
+  </si>
+  <si>
+    <t>NCT03960801</t>
+  </si>
+  <si>
+    <t>NCT04028830</t>
+  </si>
+  <si>
+    <t>NCT02556424</t>
+  </si>
+  <si>
+    <t>NCT04255823</t>
+  </si>
+  <si>
+    <t>NCT04453384</t>
+  </si>
+  <si>
+    <t>NCT03549637</t>
+  </si>
+  <si>
+    <t>NCT02590211</t>
+  </si>
+  <si>
+    <t>NCT03889353</t>
+  </si>
+  <si>
+    <t>NCT02544711</t>
+  </si>
+  <si>
+    <t>NCT04536883</t>
+  </si>
+  <si>
+    <t>NCT03925571</t>
+  </si>
+  <si>
+    <t>NCT04247048</t>
   </si>
   <si>
     <t>NCT03573739</t>
   </si>
   <si>
-    <t>NCT04611425</t>
-  </si>
-  <si>
-    <t>NCT04453384</t>
-  </si>
-  <si>
-    <t>NCT04536883</t>
-  </si>
-  <si>
-    <t>NCT04255823</t>
-  </si>
-  <si>
     <t>NCT03234127</t>
   </si>
   <si>
-    <t>NCT03604120</t>
-  </si>
-  <si>
-    <t>NCT03607162</t>
-  </si>
-  <si>
-    <t>NCT03889353</t>
-  </si>
-  <si>
-    <t>NCT04247048</t>
-  </si>
-  <si>
-    <t>NCT03549637</t>
-  </si>
-  <si>
-    <t>NCT04028830</t>
-  </si>
-  <si>
-    <t>NCT03925571</t>
-  </si>
-  <si>
-    <t>NCT03960801</t>
-  </si>
-  <si>
-    <t>NCT02544711</t>
-  </si>
-  <si>
-    <t>NCT02590211</t>
-  </si>
-  <si>
-    <t>NCT02556424</t>
+    <t>NCT03802305</t>
+  </si>
+  <si>
+    <t>NCT05185102</t>
+  </si>
+  <si>
+    <t>NCT04046120</t>
+  </si>
+  <si>
+    <t>NCT03098706</t>
+  </si>
+  <si>
+    <t>NCT03190577</t>
+  </si>
+  <si>
+    <t>NCT04572009</t>
+  </si>
+  <si>
+    <t>NCT01720407</t>
+  </si>
+  <si>
+    <t>NCT04139486</t>
+  </si>
+  <si>
+    <t>NCT03344692</t>
+  </si>
+  <si>
+    <t>NCT02146144</t>
   </si>
   <si>
     <t>NCT04310189</t>
   </si>
   <si>
-    <t>NCT03190577</t>
-  </si>
-  <si>
-    <t>NCT03802305</t>
-  </si>
-  <si>
-    <t>NCT03344692</t>
-  </si>
-  <si>
-    <t>NCT04046120</t>
-  </si>
-  <si>
-    <t>NCT03098706</t>
-  </si>
-  <si>
-    <t>NCT01720407</t>
+    <t>NCT04295239</t>
   </si>
   <si>
     <t>NCT02566746</t>
   </si>
   <si>
-    <t>NCT04295239</t>
-  </si>
-  <si>
-    <t>NCT04572009</t>
-  </si>
-  <si>
-    <t>NCT04139486</t>
-  </si>
-  <si>
-    <t>NCT05185102</t>
-  </si>
-  <si>
-    <t>NCT02146144</t>
+    <t>NCT04513834</t>
+  </si>
+  <si>
+    <t>NCT05005169</t>
+  </si>
+  <si>
+    <t>NCT04547062</t>
+  </si>
+  <si>
+    <t>NCT05000658</t>
+  </si>
+  <si>
+    <t>NCT04496401</t>
+  </si>
+  <si>
+    <t>NCT03862833</t>
+  </si>
+  <si>
+    <t>NCT05335954</t>
+  </si>
+  <si>
+    <t>NCT03961802</t>
+  </si>
+  <si>
+    <t>NCT04112693</t>
+  </si>
+  <si>
+    <t>NCT04600479</t>
   </si>
   <si>
     <t>NCT04717141</t>
   </si>
   <si>
-    <t>NCT04547062</t>
+    <t>NCT03334682</t>
   </si>
   <si>
     <t>NCT03325088</t>
@@ -601,34 +631,19 @@
     <t>NCT02564172</t>
   </si>
   <si>
-    <t>NCT03862833</t>
-  </si>
-  <si>
-    <t>NCT03961802</t>
-  </si>
-  <si>
-    <t>NCT04600479</t>
-  </si>
-  <si>
-    <t>NCT05000658</t>
-  </si>
-  <si>
-    <t>NCT04496401</t>
-  </si>
-  <si>
-    <t>NCT04112693</t>
-  </si>
-  <si>
-    <t>NCT03334682</t>
-  </si>
-  <si>
-    <t>NCT04513834</t>
-  </si>
-  <si>
-    <t>NCT05005169</t>
-  </si>
-  <si>
-    <t>NCT05335954</t>
+    <t>NCT05042479</t>
+  </si>
+  <si>
+    <t>NCT04270656</t>
+  </si>
+  <si>
+    <t>NCT03643081</t>
+  </si>
+  <si>
+    <t>NCT04108728</t>
+  </si>
+  <si>
+    <t>NCT03197194</t>
   </si>
   <si>
     <t>NCT03430076</t>
@@ -643,21 +658,6 @@
     <t>NCT05867862</t>
   </si>
   <si>
-    <t>NCT03643081</t>
-  </si>
-  <si>
-    <t>NCT04270656</t>
-  </si>
-  <si>
-    <t>NCT05042479</t>
-  </si>
-  <si>
-    <t>NCT03197194</t>
-  </si>
-  <si>
-    <t>NCT04108728</t>
-  </si>
-  <si>
     <t>NCT00422721</t>
   </si>
   <si>
@@ -676,12 +676,12 @@
     <t>2010-019462-92</t>
   </si>
   <si>
+    <t>2013-003197-27</t>
+  </si>
+  <si>
     <t>2013-003174-27</t>
   </si>
   <si>
-    <t>2013-003197-27</t>
-  </si>
-  <si>
     <t>2007-001209-64</t>
   </si>
   <si>
@@ -706,24 +706,24 @@
     <t>2013-001443-31</t>
   </si>
   <si>
+    <t>2015-000468-33</t>
+  </si>
+  <si>
     <t>2020-003689-37</t>
   </si>
   <si>
     <t>2019-000753-31</t>
   </si>
   <si>
-    <t>2015-000468-33</t>
-  </si>
-  <si>
     <t>2016-003997-41</t>
   </si>
   <si>
+    <t>2018-003218-42</t>
+  </si>
+  <si>
     <t>2017-002061-22</t>
   </si>
   <si>
-    <t>2018-003218-42</t>
-  </si>
-  <si>
     <t>2021-001571-17</t>
   </si>
   <si>
@@ -796,52 +796,55 @@
     <t>Safety and Efficacy of Pravastatin in Relapsing-remitting MS: a Double Blind Placebo Controlled Study</t>
   </si>
   <si>
+    <t>Comparison of Pharmacokinetics and Pharmacodynamics of Subcutaneous Versus Intravenous Administration of Bortezomib in Patients With Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>Confocal Laser Endomicroscopy in the Digestive Tract: A Multicentre French Pilot Study.</t>
+  </si>
+  <si>
+    <t>Etude Multicentrique Ouverte Randomisée de Phase III Comparant l'Association de VELCADE®-Dexaméthasone à la Chimiothérapie de Type VAD Pour le Traitement Des Patients Porteurs de Myélome Multiple de Novo Jusqu'à l'âge de 65 Ans</t>
+  </si>
+  <si>
     <t>Digestive and Nutritional Effects of Probiotics (Bifidobacterium Longum and Lactobacillus GG) Supplementation in Premature Newborns</t>
   </si>
   <si>
-    <t>Confocal Laser Endomicroscopy in the Digestive Tract: A Multicentre French Pilot Study.</t>
-  </si>
-  <si>
-    <t>Comparison of Pharmacokinetics and Pharmacodynamics of Subcutaneous Versus Intravenous Administration of Bortezomib in Patients With Multiple Myeloma</t>
-  </si>
-  <si>
     <t>Treatment of Metastatic Melanoma With Autologous Melan-A/MART-1 Specific CTL Clones</t>
   </si>
   <si>
-    <t>Etude Multicentrique Ouverte Randomisée de Phase III Comparant l'Association de VELCADE®-Dexaméthasone à la Chimiothérapie de Type VAD Pour le Traitement Des Patients Porteurs de Myélome Multiple de Novo Jusqu'à l'âge de 65 Ans</t>
+    <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Combination With Melphalan and Dexamethasone in Subjects With Newly-diagnosed Light-chain (AL)-Amyloidosis</t>
+  </si>
+  <si>
+    <t>Intracoronary Injection of Autologous Bone Marrow Mononuclear Cells for Severe Myocardial Infarction</t>
+  </si>
+  <si>
+    <t>"Effects of Oral Citrulline on Protein Metabolism in Healthy Humans: a Prospective, Randomized, Double-blind , Cross-over Study"</t>
+  </si>
+  <si>
+    <t>A Phase II Trial Evaluating the Safety and the Efficacy of High-Dose Imatinib in Relapsed/Refractory c-Kit Positive and BCR-Abl Negative AML Patients</t>
+  </si>
+  <si>
+    <t>Colonoscopy by Videocapsuls Versus Standard Colonoscopy. Intra-individual Comparison for the Subject With a Medium or High Risk of Colorectal Cancer.</t>
   </si>
   <si>
     <t>Interest of Treatment of Polytraumatisms With Corticoids (Hydrocortisone) for Patient With Relative Adrenocortical Insufficiency</t>
   </si>
   <si>
+    <t>Front-line High-dose Chemotherapy (HDT) Combined With Rituximab for Adults With Aggressive Large B-cell Lymphoma (DLBCL) : Goelams 074 Trial.</t>
+  </si>
+  <si>
     <t>Analysis of Dopamine Neuronal Cell Loss Within the Enteric Nervous System in Parkinson's Disease</t>
   </si>
   <si>
-    <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Combination With Melphalan and Dexamethasone in Subjects With Newly-diagnosed Light-chain (AL)-Amyloidosis</t>
-  </si>
-  <si>
-    <t>"Effects of Oral Citrulline on Protein Metabolism in Healthy Humans: a Prospective, Randomized, Double-blind , Cross-over Study"</t>
-  </si>
-  <si>
-    <t>Colonoscopy by Videocapsuls Versus Standard Colonoscopy. Intra-individual Comparison for the Subject With a Medium or High Risk of Colorectal Cancer.</t>
-  </si>
-  <si>
-    <t>Intracoronary Injection of Autologous Bone Marrow Mononuclear Cells for Severe Myocardial Infarction</t>
-  </si>
-  <si>
-    <t>A Phase II Trial Evaluating the Safety and the Efficacy of High-Dose Imatinib in Relapsed/Refractory c-Kit Positive and BCR-Abl Negative AML Patients</t>
-  </si>
-  <si>
-    <t>Front-line High-dose Chemotherapy (HDT) Combined With Rituximab for Adults With Aggressive Large B-cell Lymphoma (DLBCL) : Goelams 074 Trial.</t>
+    <t>Randomized Placebo-controlled Trial of Valproic Acid in Patients With Progressive Supranuclear Palsy</t>
+  </si>
+  <si>
+    <t>Physiological and Psychological Responses to Stress in Year 6 Medical Students Faced to Ambulatory Symptomatic Patients</t>
   </si>
   <si>
     <t>A Prospective, Randomized, Open, Multicentric Study Intended to Evaluate the Efficacy and Tolerability of Sequential Treatment Based on Rabbit Anti-T-lymphocyte Serum, of Mycophenolate Mofetil and of Cyclosporin, Without Concomitant Corticosteroids, After a First Cadaveric Renal Transplant</t>
   </si>
   <si>
-    <t>Physiological and Psychological Responses to Stress in Year 6 Medical Students Faced to Ambulatory Symptomatic Patients</t>
-  </si>
-  <si>
-    <t>Randomized Placebo-controlled Trial of Valproic Acid in Patients With Progressive Supranuclear Palsy</t>
+    <t>Phase II Two-step Radioimmunotherapy Clinical Study in Medullary Thyroid Carcinoma</t>
   </si>
   <si>
     <t>Evaluation of Macrophagic Activation and Immunophenotypic Profile of Patients With Gaucher's Disease.</t>
@@ -850,214 +853,247 @@
     <t>Multicenter Prospective Study for a Rational Management of Appendicitis in Children</t>
   </si>
   <si>
-    <t>Phase II Two-step Radioimmunotherapy Clinical Study in Medullary Thyroid Carcinoma</t>
-  </si>
-  <si>
     <t>Pharmacokinetics of Ertapenem When Used in Empiric Treatment in Burn Patients. Prospective Open Label Study.</t>
   </si>
   <si>
+    <t>MESenchymal Stem Cells: Alterations in GEnome</t>
+  </si>
+  <si>
+    <t>TIL (Tumor Infiltrating Lymphocytes) and IL2 (Interleukin 2) Versus Abstention as Adjuvant Treatment in Melanoma With Only One Invaded Lymphnode After Lymphnodes Excision</t>
+  </si>
+  <si>
+    <t>Phase 3 Study of Hydrocortisone and Fludrocortisone in Glucocorticoid Insufficiency Related to Traumatic Brain Injury</t>
+  </si>
+  <si>
+    <t>Analysis of the Enteric Nervous System Using Colonic Biopsies: a Useful Biomarker for the Differential Diagnosis of Parkinsonian Syndromes?</t>
+  </si>
+  <si>
     <t>Prospective Multicenter Pilot Study Evaluating the Analgesic Effect of an Injection of Botulinum Toxin Type A in the Ganglion Impar in Patients With Chronic Proctalgia According to the Criteria of Rome III</t>
   </si>
   <si>
     <t>Phase II Study of a Reduced-toxicity " Submyeloablative " Conditioning Regimen Prior to Allogeneic Stem Cell Transplantation in Patients With Hematological Malignancies</t>
   </si>
   <si>
-    <t>TIL (Tumor Infiltrating Lymphocytes) and IL2 (Interleukin 2) Versus Abstention as Adjuvant Treatment in Melanoma With Only One Invaded Lymphnode After Lymphnodes Excision</t>
-  </si>
-  <si>
-    <t>Analysis of the Enteric Nervous System Using Colonic Biopsies: a Useful Biomarker for the Differential Diagnosis of Parkinsonian Syndromes?</t>
-  </si>
-  <si>
-    <t>Phase 3 Study of Hydrocortisone and Fludrocortisone in Glucocorticoid Insufficiency Related to Traumatic Brain Injury</t>
-  </si>
-  <si>
-    <t>MESenchymal Stem Cells: Alterations in GEnome</t>
+    <t>Monocentric, Randomized, Single Blinded Study Designed to Evaluate the Effect of Low Level Laser Therapy on Pain Occurring After Insertion of an Orthodontic Device : the "Quadhelix"</t>
+  </si>
+  <si>
+    <t>Pharmacoeconomic and Clinical Prospective Comparison of PET-scan and MRI in Patients With de Novo Multiple Myeloma Less Than 65 Years of Age Treated According to IFM/DFCI 2009 Clinical Trial.</t>
+  </si>
+  <si>
+    <t>Frontline Therapy of Diffuse Large B Cell Lymphoma of the Adult ( 18 to 60 Years Old): Randomization Between High Dose Chemotherapy With Rituximab and CHOP 14 -Rituximab. Multicentric Randomized Prospective Trial.</t>
   </si>
   <si>
     <t>A Phase II Open-label, Multicenter, Non Randomized Study Evaluating the Efficacy and the Safety of Clofarabine in Combination With IV Busulfan and Thymoglobulin (CBT) as a Reduced Intensity Conditioning Regimen Prior to Allogeneic Stem Cell Transplantation in Adult Patients With High-risk AML, MDS or ALL.</t>
   </si>
   <si>
-    <t>Frontline Therapy of Diffuse Large B Cell Lymphoma of the Adult ( 18 to 60 Years Old): Randomization Between High Dose Chemotherapy With Rituximab and CHOP 14 -Rituximab. Multicentric Randomized Prospective Trial.</t>
+    <t>Pilot, Multicenter and Prospective Study of the Natural Killer Index From Hematopoietic Stem Cell Graft at a Genotypic, Phenotypic and Functional Level</t>
+  </si>
+  <si>
+    <t>A Prospective, Multicenter, Randomized, Controlled, Parallel-group, Open Label Trial Evaluating Benefits of Nasal High Flow Therapy (HFT) in Preoxygenation Before Tracheal Intubation in Acute Hypoxemic Respiratory Failure</t>
+  </si>
+  <si>
+    <t>Study of the Role of PCSK9 and FXR in the Physiopathology of the Joint Dyslipidemia Associated to the Human Immunoresistance</t>
   </si>
   <si>
     <t>Renal Prognosis of Former Preterm Infants 3 to 10 Years After Neonatal Acute Renal Failure</t>
   </si>
   <si>
-    <t>A Prospective, Multicenter, Randomized, Controlled, Parallel-group, Open Label Trial Evaluating Benefits of Nasal High Flow Therapy (HFT) in Preoxygenation Before Tracheal Intubation in Acute Hypoxemic Respiratory Failure</t>
-  </si>
-  <si>
-    <t>Pharmacoeconomic and Clinical Prospective Comparison of PET-scan and MRI in Patients With de Novo Multiple Myeloma Less Than 65 Years of Age Treated According to IFM/DFCI 2009 Clinical Trial.</t>
-  </si>
-  <si>
-    <t>Monocentric, Randomized, Single Blinded Study Designed to Evaluate the Effect of Low Level Laser Therapy on Pain Occurring After Insertion of an Orthodontic Device : the "Quadhelix"</t>
-  </si>
-  <si>
-    <t>Study of the Role of PCSK9 and FXR in the Physiopathology of the Joint Dyslipidemia Associated to the Human Immunoresistance</t>
-  </si>
-  <si>
-    <t>Pilot, Multicenter and Prospective Study of the Natural Killer Index From Hematopoietic Stem Cell Graft at a Genotypic, Phenotypic and Functional Level</t>
+    <t>Cost-effectiveness of New Surgical Treatments for Haemorrhoidal Disease - Randomized Controlled Trial Comparing Transanal Doppler-guided Arterial Ligation With Mucopexy and Stapled Haemorrhoidopexy (Longo's Technique)</t>
+  </si>
+  <si>
+    <t>Phase II Study of First Line Treatment of Chronic Graft Versus Host Disease With the Association of Ciclosporine, Corticosteroids and Rituximab</t>
+  </si>
+  <si>
+    <t>Effects of Scan Control for Presumed Difficult Epidural Infiltrations: a Monocentric, Prospective, Randomized, Controlled, Simple Blind Trial</t>
+  </si>
+  <si>
+    <t>Frequency, Consequences and Determinants of Sub-optimal Care in the Initial Care of Severe Bacterial Infections of the Child</t>
+  </si>
+  <si>
+    <t>Characterization of the Digestive Functions and the Enteric Nervous System in Obesity. Investigations of Relationships With Metabolism Disorders(EnteroNeurObesity)</t>
   </si>
   <si>
     <t>Phase I/II Trial of Carfilzomib Plus Melphalan and Prednisone in Elderly Untreated Patients With Multiple Myeloma.</t>
   </si>
   <si>
+    <t>Impact of Burden of Comorbidities on Health Related Quality of Life Six Months After Transcatheter Aortic Valve Implantation in Patients Aged 75 Years and Older.</t>
+  </si>
+  <si>
+    <t>Profiling of Original Cellular and Humoral Biomarkers of Type 1 Diabetes</t>
+  </si>
+  <si>
+    <t>Prospective Monocentric Open Label Non Randomized Uncontrolled Phase I/II Clinical Gene Therapy Protocol for the Treatment of Retinal Dystrophy Caused by Defects in RPE65</t>
+  </si>
+  <si>
+    <t>Clofarabine/Ara-C Treatment Combined With Reduced-intensity Conditioning Allogeneic Stem Cell Transplantation for Acute Myeloid Leukemia in Primary Treatment Failure</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Cobedding in Daily Weight Gain of Neonate Twins</t>
+  </si>
+  <si>
     <t>Pharmaco-economic Cost-effective Prospective Randomized Trial Evaluating the Open Interest Caphosol ® Mouthwashes in the Prevention and Treatment of Severe Oral Mucositis in Patients Receiving High-dose Chemotherapy in Hematology</t>
   </si>
   <si>
-    <t>Profiling of Original Cellular and Humoral Biomarkers of Type 1 Diabetes</t>
-  </si>
-  <si>
-    <t>Characterization of the Digestive Functions and the Enteric Nervous System in Obesity. Investigations of Relationships With Metabolism Disorders(EnteroNeurObesity)</t>
-  </si>
-  <si>
-    <t>Prospective Monocentric Open Label Non Randomized Uncontrolled Phase I/II Clinical Gene Therapy Protocol for the Treatment of Retinal Dystrophy Caused by Defects in RPE65</t>
-  </si>
-  <si>
-    <t>Phase II Study of First Line Treatment of Chronic Graft Versus Host Disease With the Association of Ciclosporine, Corticosteroids and Rituximab</t>
-  </si>
-  <si>
-    <t>Cost-effectiveness of New Surgical Treatments for Haemorrhoidal Disease - Randomized Controlled Trial Comparing Transanal Doppler-guided Arterial Ligation With Mucopexy and Stapled Haemorrhoidopexy (Longo's Technique)</t>
-  </si>
-  <si>
-    <t>Impact of Burden of Comorbidities on Health Related Quality of Life Six Months After Transcatheter Aortic Valve Implantation in Patients Aged 75 Years and Older.</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of Cobedding in Daily Weight Gain of Neonate Twins</t>
-  </si>
-  <si>
-    <t>Effects of Scan Control for Presumed Difficult Epidural Infiltrations: a Monocentric, Prospective, Randomized, Controlled, Simple Blind Trial</t>
-  </si>
-  <si>
-    <t>Clofarabine/Ara-C Treatment Combined With Reduced-intensity Conditioning Allogeneic Stem Cell Transplantation for Acute Myeloid Leukemia in Primary Treatment Failure</t>
-  </si>
-  <si>
-    <t>Frequency, Consequences and Determinants of Sub-optimal Care in the Initial Care of Severe Bacterial Infections of the Child</t>
+    <t>High Flow Nasal Oxygen Therapy for Hypoxemy After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Medico-economic Evaluation of Subcutaneous Automatic Resorbable Staples Device</t>
   </si>
   <si>
     <t>Endovascular Versus Open Repair of the Common Femoral Artery: a Randomized Trial (TECCO)</t>
   </si>
   <si>
+    <t>Evaluation of 18 Fluoro-deoxy-glucose Positrons Emission Tomography Combined With Computed Tomography (18-FDG TEP-CT ) in the Diagnosis of the Degeneration of Intraductal Papillary Mucinous Tumor of the Pancreas</t>
+  </si>
+  <si>
+    <t>Therapeutic Monitoring of Ceftriaxone, Prescribed at High Doses, in the Treatment of Meningitis and Others Neurological Infections.</t>
+  </si>
+  <si>
+    <t>Pre-emptive Azacitidine and Donor Lymphocyte Infusions Following Allogeneic Hematopoietic Stem Cell Transplantation for High Risk Acute Myeloid Leukemia and Myelodysplastic Syndrome</t>
+  </si>
+  <si>
+    <t>Effects of Oral Citrulline on Protein Metabolism in Patients With Intestinal Failure : a Prospective, Randomized, Double-blind, Cross-over Study</t>
+  </si>
+  <si>
+    <t>FREEDOM: "Pilot Study of the Feasibility and Safety of Resuming Early Walking After Manual Compression in Patients Treated for Peripheral Artery Disease by Endovascular Technique Involving Retrograde Femoral Puncture"</t>
+  </si>
+  <si>
     <t>Ultrasonography Assessment of Septic Arthritis on Native Joint: a Descriptive, Exploratory, Prospective, Multicentric Trial</t>
   </si>
   <si>
-    <t>High Flow Nasal Oxygen Therapy for Hypoxemy After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Therapeutic Monitoring of Ceftriaxone, Prescribed at High Doses, in the Treatment of Meningitis and Others Neurological Infections.</t>
-  </si>
-  <si>
-    <t>Evaluation of 18 Fluoro-deoxy-glucose Positrons Emission Tomography Combined With Computed Tomography (18-FDG TEP-CT ) in the Diagnosis of the Degeneration of Intraductal Papillary Mucinous Tumor of the Pancreas</t>
+    <t>Prospective Randomized Controlled Trial to Evaluate the Efficacy and Safety of an Equimolar Mixture of Oxygen and Nitrous Oxide in External Cephalic Version (ECV) in Singleton Pregnancy in Breech Presentation at Term</t>
+  </si>
+  <si>
+    <t>Phase 2 Multicentric Open-label Study of Switch From Abacavir/Lamivudine Fixed Dose Combination Plus Nevirapine to Abacavir/Lamivudine/Dolutegravir in Virologically Suppressed HIV-1 Infected Adults</t>
+  </si>
+  <si>
+    <t>A PHASE III STUDY OF VELCADE (BORTEZOMIB) THALIDOMIDE DEXAMETHASONE (VTD) VERSUS VELCADE (BORTEZOMIB) CYCLOPHOSPHAMIDE DEXAMETHASONE (VCD) AS AN INDUCTION TREATMENT PRIOR TO AUTOLOGOUS STEM CELL TRANSPLANTATION IN PATIENTS WITH NEWLY DIAGNOSED MULTIPLE MYELOMA."</t>
   </si>
   <si>
     <t>Tissue and Plasma Pharmacokinetics of Cefazolin in Antibiotic Prophylaxis in Bariatric Surgery, an Open Label, Prospective, Single Center Trial</t>
   </si>
   <si>
-    <t>Prospective Randomized Controlled Trial to Evaluate the Efficacy and Safety of an Equimolar Mixture of Oxygen and Nitrous Oxide in External Cephalic Version (ECV) in Singleton Pregnancy in Breech Presentation at Term</t>
-  </si>
-  <si>
-    <t>A PHASE III STUDY OF VELCADE (BORTEZOMIB) THALIDOMIDE DEXAMETHASONE (VTD) VERSUS VELCADE (BORTEZOMIB) CYCLOPHOSPHAMIDE DEXAMETHASONE (VCD) AS AN INDUCTION TREATMENT PRIOR TO AUTOLOGOUS STEM CELL TRANSPLANTATION IN PATIENTS WITH NEWLY DIAGNOSED MULTIPLE MYELOMA."</t>
-  </si>
-  <si>
-    <t>Pre-emptive Azacitidine and Donor Lymphocyte Infusions Following Allogeneic Hematopoietic Stem Cell Transplantation for High Risk Acute Myeloid Leukemia and Myelodysplastic Syndrome</t>
-  </si>
-  <si>
-    <t>Phase 2 Multicentric Open-label Study of Switch From Abacavir/Lamivudine Fixed Dose Combination Plus Nevirapine to Abacavir/Lamivudine/Dolutegravir in Virologically Suppressed HIV-1 Infected Adults</t>
-  </si>
-  <si>
-    <t>Medico-economic Evaluation of Subcutaneous Automatic Resorbable Staples Device</t>
-  </si>
-  <si>
-    <t>FREEDOM: "Pilot Study of the Feasibility and Safety of Resuming Early Walking After Manual Compression in Patients Treated for Peripheral Artery Disease by Endovascular Technique Involving Retrograde Femoral Puncture"</t>
-  </si>
-  <si>
-    <t>Effects of Oral Citrulline on Protein Metabolism in Patients With Intestinal Failure : a Prospective, Randomized, Double-blind, Cross-over Study</t>
+    <t>Efficacy Assessment of Early Osteopathic Manipulative Treatment (OMT) in the Management of Suboptimal Breastfeeding Behaviour in Healthy Newborns. A Prospective Monocentric Randomized Double-blinded Study.</t>
+  </si>
+  <si>
+    <t>Monocentric Study and Prognostic of Treatments Endodontics of Teeth With Periapical Pathology Realized CSERD (Nantes University Hospital)</t>
+  </si>
+  <si>
+    <t>Phase II, Multicenter, Open Label, Prospective to Evaluate Efficacy and Tolerance of a Chemoimmunotherapy With HyperCVAD or Vincristine/Dexamethasone Plus the Anti-CD22 Monovlonal Antobody Epratuzumab for the Treatment of Adult Relapsed/Refractory CD22+ B-Acute Lymphoblastic Leukaemia Patients : CHEPRALL Study, a GRAALL Study.</t>
   </si>
   <si>
     <t>Antifungal Prophylaxis With Micafungin After Cord Blood Allogeneic Stem Cell Transplantation</t>
   </si>
   <si>
+    <t>Neuropsychological Impairment and Quality of Life in Neurofibromatosis Type 1</t>
+  </si>
+  <si>
+    <t>10 Patients Bicentric Prospective Study of Hybrid Bone Substitution With Calcium-phosphate Ceramic Biomaterial and Autologous Bone Marrow for Mandibular Osteoradionecrosis (ORN) Treatment</t>
+  </si>
+  <si>
+    <t>Transversal Multiaxial Evaluation and 5-year Follow-up of a Cohort of French Gamblers.</t>
+  </si>
+  <si>
+    <t>Diagnostic, Prospective, Comparative, Multicentric Study of the PET / CT With 68Ga-DOTANOC Versus Conventional Imaging Procedures (octréoscan ® Scintigraphy and CT / MRI) in the Assessment of in Gastroenteropancreatic Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Allogeneic Hematopoietic Stem Cell Transplantation Using a Non-myeloablative Preparative Regimen of Total Lymphoid Irradiation and Anti-thymocyte Globulin for Older Patients With Relapsed Lymphoid Malignancies</t>
+  </si>
+  <si>
+    <t>Randomized Open Phase III Trial Testing Efficacy of Gemtuzumab Ozogamycin (MYLOTARG) Associated to Intensive Chemotherapy for Patients Aged Between 18-60 Years and Presenting an Acute Myeloid Leukemia (AML) With Intermediate Risk</t>
+  </si>
+  <si>
+    <t>Evaluation of the Interest of Positive Expiratory Pressure (PEP) Delivery by EzPAP® Device Associated With Respiratory Physiotherapy in the Treatment of Postoperative Pulmonary Atelectasis in Patients After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Multicenter Randomized Double-blind Study Evaluating the Effects of Botulinum Toxin A Associated With ropivacaïne Versus ropivacaïne Alone in the Treatment of the Myofascial Pelviperineal Pain</t>
+  </si>
+  <si>
+    <t>Regenerative Medicine of Articular Cartilage: Characterization and Comparison of Chondrogenic Potential and Immunomodulatory Adult Mesenchymal Stem Cells</t>
+  </si>
+  <si>
     <t>Physiopathological Study of Autonomic Failure in Parkinson's Disease : a Monocentric Study</t>
   </si>
   <si>
-    <t>Regenerative Medicine of Articular Cartilage: Characterization and Comparison of Chondrogenic Potential and Immunomodulatory Adult Mesenchymal Stem Cells</t>
-  </si>
-  <si>
-    <t>Allogeneic Hematopoietic Stem Cell Transplantation Using a Non-myeloablative Preparative Regimen of Total Lymphoid Irradiation and Anti-thymocyte Globulin for Older Patients With Relapsed Lymphoid Malignancies</t>
-  </si>
-  <si>
     <t>Pharmacokinetic and Imaging Optimization Study of Pretargeted Immuno-PET Using the Anti-CEA x Anti-HSG TF2 Bispecific Antibody and 68Ga-IMP-288 Peptide in Patients With Recurrences of Medullary Thyroid Carcinoma.</t>
   </si>
   <si>
-    <t>Monocentric Study and Prognostic of Treatments Endodontics of Teeth With Periapical Pathology Realized CSERD (Nantes University Hospital)</t>
-  </si>
-  <si>
-    <t>10 Patients Bicentric Prospective Study of Hybrid Bone Substitution With Calcium-phosphate Ceramic Biomaterial and Autologous Bone Marrow for Mandibular Osteoradionecrosis (ORN) Treatment</t>
-  </si>
-  <si>
-    <t>Randomized Open Phase III Trial Testing Efficacy of Gemtuzumab Ozogamycin (MYLOTARG) Associated to Intensive Chemotherapy for Patients Aged Between 18-60 Years and Presenting an Acute Myeloid Leukemia (AML) With Intermediate Risk</t>
-  </si>
-  <si>
-    <t>Neuropsychological Impairment and Quality of Life in Neurofibromatosis Type 1</t>
-  </si>
-  <si>
-    <t>Evaluation of the Interest of Positive Expiratory Pressure (PEP) Delivery by EzPAP® Device Associated With Respiratory Physiotherapy in the Treatment of Postoperative Pulmonary Atelectasis in Patients After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Diagnostic, Prospective, Comparative, Multicentric Study of the PET / CT With 68Ga-DOTANOC Versus Conventional Imaging Procedures (octréoscan ® Scintigraphy and CT / MRI) in the Assessment of in Gastroenteropancreatic Neuroendocrine Tumors</t>
-  </si>
-  <si>
-    <t>Multicenter Randomized Double-blind Study Evaluating the Effects of Botulinum Toxin A Associated With ropivacaïne Versus ropivacaïne Alone in the Treatment of the Myofascial Pelviperineal Pain</t>
-  </si>
-  <si>
-    <t>Efficacy Assessment of Early Osteopathic Manipulative Treatment (OMT) in the Management of Suboptimal Breastfeeding Behaviour in Healthy Newborns. A Prospective Monocentric Randomized Double-blinded Study.</t>
-  </si>
-  <si>
-    <t>Transversal Multiaxial Evaluation and 5-year Follow-up of a Cohort of French Gamblers.</t>
-  </si>
-  <si>
-    <t>Phase II, Multicenter, Open Label, Prospective to Evaluate Efficacy and Tolerance of a Chemoimmunotherapy With HyperCVAD or Vincristine/Dexamethasone Plus the Anti-CD22 Monovlonal Antobody Epratuzumab for the Treatment of Adult Relapsed/Refractory CD22+ B-Acute Lymphoblastic Leukaemia Patients : CHEPRALL Study, a GRAALL Study.</t>
+    <t>Interest of TARC Serum Marker for Follow-up of Patients With Allergic Broncho-Pulmonary Aspergillosis (ABPA), Excluding Cystic Fibrosis</t>
+  </si>
+  <si>
+    <t>Phase 2 Study of a Reduced-toxicity Myeloablative Conditionning Regimen Using Fludarabine and Full Doses of iv Busulfan in Pediatric Patients Not Eligible for Standard Myeloablative Conditioning Regimens</t>
+  </si>
+  <si>
+    <t>DiabeNord: A 5-year Prospective Follow-up Cohort Study in Pre-diabetic Subjects for the Identification of New Biomarkers</t>
+  </si>
+  <si>
+    <t>Cost-utility Analysis of the Outpatient Hospitalization Versus Conventional Hospitalization in Endovascular Treatment of Occlusive Arterial Disease</t>
   </si>
   <si>
     <t>Apport de l'Immuno-TEP préciblée Avec l'Anticorps bispécifique Anti-ACE x Anti-HSG TF2 et le Peptide IMP-288 marqué au Gallium-68 Pour l'Imagerie Des Patients Potentiellement Candidats à Une Chirurgie d'exérèse et/ou Thermoablation Locale d'Une ou Plusieurs métastases, au Diagnostic ou Lors de la Rechute de Cancers Colo-rectaux (CCR) Exprimant l'antigène Carcino-embryonnaire (ACE): Comparaison au Bilan Conventionnel</t>
   </si>
   <si>
+    <t>Efficacy and Tolerance of Ultrasound-guided Needling and Lavage of Calcific Tendinitis of the Rotator Cuff Performed With or Without Subacromial Corticosteroid Injection: A Double Blind Controlled Study</t>
+  </si>
+  <si>
+    <t>Behavioural Addictions Occurring During a Dopaminergic Treatment Prescribe Under Parkinson's Disease: Study of the Psychopathological, Neurological, Pharmacokinetic and Genetic Profiles.</t>
+  </si>
+  <si>
+    <t>Impairment of Central Coherence in Restrictive Anorexia Nervosa: Single-center and Case-control Study</t>
+  </si>
+  <si>
+    <t>Pilot Study for Optimization of Immuno-PET Pretargeted With Anti-CEA Bispecific Antibody X Anti-HSG TF2 and the Peptide IMP-288 Radiolabeled With Gallium-68 -Pharmacokinetic and Imaging for Patients With a Recurrence of HER2 Negative Breast Carcinoma Expressing CEA</t>
+  </si>
+  <si>
+    <t>Efficacy and Tolerance of Sodium Thiosulfate Injection After Ultrasound-guided Percutaneous Irrigation of Calcific Tendinopathy of the Rotator Cuff</t>
+  </si>
+  <si>
     <t>Effect of Voluntary Neck Extension in the Occurrence of an Increase in the Pulsatility Index of Right Internal Carotid Artery in the Amateur Diver, Performing an Apnoea of Two Minutes or More: a Prospective, Monocentric, Open Interventional Study</t>
   </si>
   <si>
-    <t>Cost-utility Analysis of the Outpatient Hospitalization Versus Conventional Hospitalization in Endovascular Treatment of Occlusive Arterial Disease</t>
-  </si>
-  <si>
-    <t>Interest of TARC Serum Marker for Follow-up of Patients With Allergic Broncho-Pulmonary Aspergillosis (ABPA), Excluding Cystic Fibrosis</t>
-  </si>
-  <si>
-    <t>DiabeNord: A 5-year Prospective Follow-up Cohort Study in Pre-diabetic Subjects for the Identification of New Biomarkers</t>
-  </si>
-  <si>
-    <t>Pilot Study for Optimization of Immuno-PET Pretargeted With Anti-CEA Bispecific Antibody X Anti-HSG TF2 and the Peptide IMP-288 Radiolabeled With Gallium-68 -Pharmacokinetic and Imaging for Patients With a Recurrence of HER2 Negative Breast Carcinoma Expressing CEA</t>
-  </si>
-  <si>
-    <t>Behavioural Addictions Occurring During a Dopaminergic Treatment Prescribe Under Parkinson's Disease: Study of the Psychopathological, Neurological, Pharmacokinetic and Genetic Profiles.</t>
-  </si>
-  <si>
-    <t>Efficacy and Tolerance of Ultrasound-guided Needling and Lavage of Calcific Tendinitis of the Rotator Cuff Performed With or Without Subacromial Corticosteroid Injection: A Double Blind Controlled Study</t>
-  </si>
-  <si>
-    <t>Phase 2 Study of a Reduced-toxicity Myeloablative Conditionning Regimen Using Fludarabine and Full Doses of iv Busulfan in Pediatric Patients Not Eligible for Standard Myeloablative Conditioning Regimens</t>
-  </si>
-  <si>
     <t>CLINPCT Study: Clinical Reassessment Versus Procalcitonin-guided Algorithm in Order to Reduce Antibiotic Consumption in Community-acquired Pneumonia</t>
   </si>
   <si>
-    <t>Impairment of Central Coherence in Restrictive Anorexia Nervosa: Single-center and Case-control Study</t>
-  </si>
-  <si>
-    <t>Efficacy and Tolerance of Sodium Thiosulfate Injection After Ultrasound-guided Percutaneous Irrigation of Calcific Tendinopathy of the Rotator Cuff</t>
+    <t>Evaluation of the Benefit Provided by the Addition of Acupunctural Analgesia With Electrostimulation to Conventional Local Anesthesia Compared to Conventional Local Anesthesia Alone in Surgery of Deep Brain Stimulation for Movement Disorders.</t>
   </si>
   <si>
     <t>A Prospective , Multicenter , Randomized, Controlled, Parallel-group , Open-label Trial Evaluating Benefits of High Flow Nasal Cannula (HFNC) Oxygen for Preoxygenation During Intubation in Non Severely Hypoxemic Patients</t>
   </si>
   <si>
-    <t>Evaluation of the Benefit Provided by the Addition of Acupunctural Analgesia With Electrostimulation to Conventional Local Anesthesia Compared to Conventional Local Anesthesia Alone in Surgery of Deep Brain Stimulation for Movement Disorders.</t>
+    <t>PREOPTI-POOP: Preoxygenation Optimisation in Obese Patients: High-flow Nasal Cannula Oxygen Versus Non-invasive Ventilation : A Single-centre Randomized Controlled Study. "</t>
+  </si>
+  <si>
+    <t>Evaluation of the Clinical Utility and Cost Effectiveness Ratio of Generalized Neonatal Screening for Severe Combined Immunodeficiencies (SCID) by Quantification of TRECs on Guthrie Cards</t>
+  </si>
+  <si>
+    <t>Efficacy of a Cold, Vibration, and Distraction Based Medical Device on the Prevention of Health Care Induced Pediatric Pain: a Comparative, Controlled, Randomized and Multicentric Study</t>
+  </si>
+  <si>
+    <t>Monocentric, Prospective, Uncontrolled Pilot Study of Extra Cardiomyocytary Fixation Profile in 18F-fluorodeoxyglucose (FDG) Positron Emission Tomography in Patients With Dilated Cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Association of Conformational High-dose Radiotherapy and of Hyperselective Transarterial Chemoembolization in the Treatment of Hepatocellular Carcinoma</t>
+  </si>
+  <si>
+    <t>A Phase I/II Monocentric Trial of Cellular Immunotherapy Based on Autologous Tolerogenic Dendritic Cells (ATDCs) Administration in Patients With Renal Insufficiency Receiving as First Transplantation a Kidney Transplant From a Living-donor.</t>
+  </si>
+  <si>
+    <t>TRANSLINK: A Prospective, Multi-center, Multi-national, Non Randomized, Open, Study to Defining the Role of Xeno-directed and Immune Events (SVD) in Patients Receiving Animal-derived Bioprosthetic Heart Valves.</t>
+  </si>
+  <si>
+    <t>COPARIME: Pilot Study of a Target Detection of Malignant Melanoma</t>
+  </si>
+  <si>
+    <t>Single-center, Controlled, Randomized and Double-blind Study Evaluating the Laser Diode Effect on the Kinetics of Orthodontic Tooth Movement.</t>
+  </si>
+  <si>
+    <t>Impact of the Absence of Steroids on the Evolution of Renal Function and on the Progression of Graft Fibrosis, Quantified by Numerical Method, in Patients With Renal Transplant</t>
+  </si>
+  <si>
+    <t>Prove of Concept Study, to Evaluate the Efficacy, Safety, and Tolerability of IBEROGAST in the Treatment of Bowel Troubles in Patients With Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>Evaluation of Emotion Management Skill Strengthening in Chronically Ill Patients, Benefiting From Creative and Physical Activities</t>
   </si>
   <si>
     <t>Virtual Reality and Brain Stimulation, an Experiential Approach</t>
@@ -1066,241 +1102,235 @@
     <t>Early Detection of Mucosal Abnormalities in Graft-versus-host Disease</t>
   </si>
   <si>
-    <t>Monocentric, Prospective, Uncontrolled Pilot Study of Extra Cardiomyocytary Fixation Profile in 18F-fluorodeoxyglucose (FDG) Positron Emission Tomography in Patients With Dilated Cardiomyopathy.</t>
-  </si>
-  <si>
-    <t>COPARIME: Pilot Study of a Target Detection of Malignant Melanoma</t>
-  </si>
-  <si>
-    <t>TRANSLINK: A Prospective, Multi-center, Multi-national, Non Randomized, Open, Study to Defining the Role of Xeno-directed and Immune Events (SVD) in Patients Receiving Animal-derived Bioprosthetic Heart Valves.</t>
+    <t>Monocentric Prospective Study, in Order to Assess Analgesia Provided by Continuous Sciatic Nerve Block, in Patients With Hypertensive Leg Ulcer.</t>
+  </si>
+  <si>
+    <t>Optimizing Access to Care Through New Technologies: a Randomized Study Evaluating the Impact of Telephone Contact and the Sending by the General Practitioner of Suspicious Lesions Melanoma Photographs Taken With a Smartphone, on the Time Limit to the Consultation With a Dermatologist</t>
   </si>
   <si>
     <t>Stretta In Reflux Uncontrolled by Intake of Inhibitors of Protons Pump (IPP).- The SIRUP Trial- Multicentric, Randomized, Double Blind, Prospective Study</t>
   </si>
   <si>
-    <t>A Phase I/II Monocentric Trial of Cellular Immunotherapy Based on Autologous Tolerogenic Dendritic Cells (ATDCs) Administration in Patients With Renal Insufficiency Receiving as First Transplantation a Kidney Transplant From a Living-donor.</t>
-  </si>
-  <si>
-    <t>Association of Conformational High-dose Radiotherapy and of Hyperselective Transarterial Chemoembolization in the Treatment of Hepatocellular Carcinoma</t>
-  </si>
-  <si>
-    <t>Efficacy of a Cold, Vibration, and Distraction Based Medical Device on the Prevention of Health Care Induced Pediatric Pain: a Comparative, Controlled, Randomized and Multicentric Study</t>
-  </si>
-  <si>
-    <t>Evaluation of Emotion Management Skill Strengthening in Chronically Ill Patients, Benefiting From Creative and Physical Activities</t>
-  </si>
-  <si>
-    <t>Single-center, Controlled, Randomized and Double-blind Study Evaluating the Laser Diode Effect on the Kinetics of Orthodontic Tooth Movement.</t>
-  </si>
-  <si>
-    <t>Impact of the Absence of Steroids on the Evolution of Renal Function and on the Progression of Graft Fibrosis, Quantified by Numerical Method, in Patients With Renal Transplant</t>
-  </si>
-  <si>
-    <t>Optimizing Access to Care Through New Technologies: a Randomized Study Evaluating the Impact of Telephone Contact and the Sending by the General Practitioner of Suspicious Lesions Melanoma Photographs Taken With a Smartphone, on the Time Limit to the Consultation With a Dermatologist</t>
-  </si>
-  <si>
-    <t>Prove of Concept Study, to Evaluate the Efficacy, Safety, and Tolerability of IBEROGAST in the Treatment of Bowel Troubles in Patients With Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Monocentric Prospective Study, in Order to Assess Analgesia Provided by Continuous Sciatic Nerve Block, in Patients With Hypertensive Leg Ulcer.</t>
-  </si>
-  <si>
-    <t>PREOPTI-POOP: Preoxygenation Optimisation in Obese Patients: High-flow Nasal Cannula Oxygen Versus Non-invasive Ventilation : A Single-centre Randomized Controlled Study. "</t>
-  </si>
-  <si>
-    <t>Evaluation of the Clinical Utility and Cost Effectiveness Ratio of Generalized Neonatal Screening for Severe Combined Immunodeficiencies (SCID) by Quantification of TRECs on Guthrie Cards</t>
+    <t>Non Invasive Diagnosis of Gastric Precancerous Lesions by GastroPanel Blood Test in Patients With Increased Gastric Cancer Risk : a French Multicenter Study</t>
+  </si>
+  <si>
+    <t>Impact of Early Targeted Ibuprofene Treatment of Patent Ductus Arteriosus (PDA) on Long Term Neurodevelopmental Outcome in Very Premature Infants (TRIOCAPI)</t>
   </si>
   <si>
     <t>STEP: Proglide® Versus Femoseal®: A Randomized Controlled Trial to Compare the Efficacy of Arterial Closure Devices Following Endovascular Peripheral Arterial Procedures</t>
   </si>
   <si>
+    <t>Multicentric, Prospective Open-label Study Assessing an Algorithm-based Strategy of Eculizumab Discontinuation in Children and Adults With Atypical Hemolytic Uremic Syndrome (aHUS)</t>
+  </si>
+  <si>
+    <t>Efficacy of Intermittent ThetaBurst Stimulation Compared to 10 Hz Stimulation on Dorsolateral Prefrontal Cortex in Treatment Resistant Major Depressive Disorder: a Double-blind Randomized Study</t>
+  </si>
+  <si>
     <t>Quantified Analysis of the Movements of the Upper Limb of Children With Hemiparesis Participating in the Stress Induced Therapy Program</t>
   </si>
   <si>
+    <t>Role of Prophylaxis by Oral Fluid Supplementation in Prevention of Postdural Puncture Headache: A Non-inferiority Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Use of a Smartphone© Application to Study Autism Spectrum Disorders (ASD)</t>
+  </si>
+  <si>
+    <t>Effects of Perioperative Administration of Dexamethasone on Postoperative Complications and Mortality After Non-cardiac Major Surgery : a Randomized, Multicentre, Double Blind, Study</t>
+  </si>
+  <si>
+    <t>Baclofen to Prevent Agitation in Alcohol Addicted Patients in ICU: Study Protocol for a Randomised Controlled Against Placebo Trial</t>
+  </si>
+  <si>
+    <t>Impact of Rational Control of Fluid Balance in the Intensive Care Unit.IRIHS-REA</t>
+  </si>
+  <si>
+    <t>Feasibility of Outpatient Care After Manual Compression in Patients Treated for Peripheral Arterial Disease by Endovascular Technique With 5F Sheath Femoral Approach</t>
+  </si>
+  <si>
     <t>Adoptive Transfer of CD8+ T Cells, Sorted With HLA-peptide Multimers and Specific for Melan-A and MELOE-1 Melanoma Antigens, to Metastatic Melanoma Patients. A Phase I/II, Non-randomized, Open Monocentric Study</t>
   </si>
   <si>
-    <t>Use of a Smartphone© Application to Study Autism Spectrum Disorders (ASD)</t>
-  </si>
-  <si>
-    <t>Impact of Early Targeted Ibuprofene Treatment of Patent Ductus Arteriosus (PDA) on Long Term Neurodevelopmental Outcome in Very Premature Infants (TRIOCAPI)</t>
-  </si>
-  <si>
-    <t>Impact of Rational Control of Fluid Balance in the Intensive Care Unit.IRIHS-REA</t>
-  </si>
-  <si>
-    <t>Non Invasive Diagnosis of Gastric Precancerous Lesions by GastroPanel Blood Test in Patients With Increased Gastric Cancer Risk : a French Multicenter Study</t>
+    <t>Assessment of Osteoblastic Activity With 18F-Fluoride in Aortic Bioprosthesis Structural Valve Dysfunction (SVD)</t>
+  </si>
+  <si>
+    <t>Comparison of Two Strategies for the Prevention of Endotracheal Tube Cuff Underinflation During Invasive Mechanical Ventilation: Intermittent Versus Continuous Cuff Pressure Control - A Randomised Controlled Study</t>
   </si>
   <si>
     <t>Therapeutic Care and Education in Endocrinology-Diabetes-Nutrition: Evaluation of the Interest of the APA Educator (Adapted Physical Activity Educator) for the Establishment of Physical Activities in the Management and Prevention of Overweight and Obesity</t>
   </si>
   <si>
-    <t>Multicentric, Prospective Open-label Study Assessing an Algorithm-based Strategy of Eculizumab Discontinuation in Children and Adults With Atypical Hemolytic Uremic Syndrome (aHUS)</t>
-  </si>
-  <si>
-    <t>Effects of Perioperative Administration of Dexamethasone on Postoperative Complications and Mortality After Non-cardiac Major Surgery : a Randomized, Multicentre, Double Blind, Study</t>
-  </si>
-  <si>
-    <t>Comparison of Two Strategies for the Prevention of Endotracheal Tube Cuff Underinflation During Invasive Mechanical Ventilation: Intermittent Versus Continuous Cuff Pressure Control - A Randomised Controlled Study</t>
-  </si>
-  <si>
-    <t>Baclofen to Prevent Agitation in Alcohol Addicted Patients in ICU: Study Protocol for a Randomised Controlled Against Placebo Trial</t>
-  </si>
-  <si>
-    <t>Role of Prophylaxis by Oral Fluid Supplementation in Prevention of Postdural Puncture Headache: A Non-inferiority Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Feasibility of Outpatient Care After Manual Compression in Patients Treated for Peripheral Arterial Disease by Endovascular Technique With 5F Sheath Femoral Approach</t>
-  </si>
-  <si>
-    <t>Efficacy of Intermittent ThetaBurst Stimulation Compared to 10 Hz Stimulation on Dorsolateral Prefrontal Cortex in Treatment Resistant Major Depressive Disorder: a Double-blind Randomized Study</t>
-  </si>
-  <si>
-    <t>Assessment of Osteoblastic Activity With 18F-Fluoride in Aortic Bioprosthesis Structural Valve Dysfunction (SVD)</t>
-  </si>
-  <si>
     <t>Prospective Multicenter Study on the Identification of Genetic Abnormalities Predisposing to Vasospasm From a Privileged Model: the Primary Raynaud's Phenomenon</t>
   </si>
   <si>
+    <t>Evaluation of Sacral Neuromodulation (SNM) in the Treatment of Active Ulcerative Colitis</t>
+  </si>
+  <si>
+    <t>Continuous Hyperosomolar Therapy for Traumatic Brain-injured Patients Study Protocol for a Multicenter Randomized Open-label Trial With Blinded Adjudication of Primary Outcome</t>
+  </si>
+  <si>
+    <t>QD Isentress as Switch Strategy in Virologically Suppressed HIV-1 Infected-Patient</t>
+  </si>
+  <si>
+    <t>Randomized Open Label Study Evaluating the Coverage by Teleconsultation Versus Standard Follow-up of Renal Transplant Patients According to a Risk Score of Early Graft Failure (KTFS)</t>
+  </si>
+  <si>
+    <t>Cost-Utility Analysis of Management of Peri Operative Haemorrhage Following Cardiac Surgery Using Conventional Blood Coagulation Tests or Thrombo-elastographic Point of Care Test - IMOTEC</t>
+  </si>
+  <si>
+    <t>Wearable Biosensor to Track and Quantify Limb Dysfunction in Multiple Sclerosis Patients</t>
+  </si>
+  <si>
+    <t>Evaluation de l’efficacité d’une supplémentation en Citrulline sur le délai d’accouchement de femmes hospitalisées dans le cadre de pré-éclampsies modérées ou sévères</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Citrulline Supplementation on the Delay of Delivery for Women Hospitalized for Pre-eclampsia (CITRUPE)</t>
+  </si>
+  <si>
+    <t>Phase II Trial Studying the Efficacy of a Triplet Combination of MLN9708, Lenalidomide and Dexamethasone as Induction Prior to, and as Consolidation After High-dose Therapy With Peripheral Stem Cell Transplantation Followed by MLN9708 Maintenance in the Initial Management of Multiple Myeloma in Patients Younger Than 66 Years</t>
+  </si>
+  <si>
+    <t>Effects of tDCS Combined With Virtual Reality on Anxious Ruminations in Healthy Subjects With a Vulnerability to Rumination</t>
+  </si>
+  <si>
+    <t>Medical Spastic Patient Machine Interface MSPMI : Biomechanical and Electrophysiological Assessment of the Triceps Surae Spasticity</t>
+  </si>
+  <si>
+    <t>Patient's Quality of Life Assessment 5 to 10 Years After Hospitalization in Intensive Care Unit for a Severe Bacterial Infection</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of an Inclined Plane on the Walking of Children With Cerebral Palsy: What Are the Paths for Rehabilitation?</t>
+  </si>
+  <si>
+    <t>Preliminary Study Leading to Prevention of Pressure Ulcers by the Use of an On-board Device : Ergonomic Assessment of Wheelchair-seat Pressures in Spinal Cord Injured (SCI) Patients</t>
+  </si>
+  <si>
     <t>Study of the Parameters of Quantified Gait Analysis in Moderate Hemophiliac Patients (AQM-Hemophile)</t>
   </si>
   <si>
-    <t>Patient's Quality of Life Assessment 5 to 10 Years After Hospitalization in Intensive Care Unit for a Severe Bacterial Infection</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of an Inclined Plane on the Walking of Children With Cerebral Palsy: What Are the Paths for Rehabilitation?</t>
-  </si>
-  <si>
-    <t>Continuous Hyperosomolar Therapy for Traumatic Brain-injured Patients Study Protocol for a Multicenter Randomized Open-label Trial With Blinded Adjudication of Primary Outcome</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of Citrulline Supplementation on the Delay of Delivery for Women Hospitalized for Pre-eclampsia (CITRUPE)</t>
-  </si>
-  <si>
-    <t>Evaluation of Sacral Neuromodulation (SNM) in the Treatment of Active Ulcerative Colitis</t>
-  </si>
-  <si>
-    <t>Medical Spastic Patient Machine Interface MSPMI : Biomechanical and Electrophysiological Assessment of the Triceps Surae Spasticity</t>
-  </si>
-  <si>
-    <t>Evaluation de l’efficacité d’une supplémentation en Citrulline sur le délai d’accouchement de femmes hospitalisées dans le cadre de pré-éclampsies modérées ou sévères</t>
-  </si>
-  <si>
-    <t>Effects of tDCS Combined With Virtual Reality on Anxious Ruminations in Healthy Subjects With a Vulnerability to Rumination</t>
-  </si>
-  <si>
-    <t>Preliminary Study Leading to Prevention of Pressure Ulcers by the Use of an On-board Device : Ergonomic Assessment of Wheelchair-seat Pressures in Spinal Cord Injured (SCI) Patients</t>
-  </si>
-  <si>
-    <t>Wearable Biosensor to Track and Quantify Limb Dysfunction in Multiple Sclerosis Patients</t>
-  </si>
-  <si>
-    <t>Randomized Open Label Study Evaluating the Coverage by Teleconsultation Versus Standard Follow-up of Renal Transplant Patients According to a Risk Score of Early Graft Failure (KTFS)</t>
-  </si>
-  <si>
-    <t>Cost-Utility Analysis of Management of Peri Operative Haemorrhage Following Cardiac Surgery Using Conventional Blood Coagulation Tests or Thrombo-elastographic Point of Care Test - IMOTEC</t>
-  </si>
-  <si>
-    <t>Phase II Trial Studying the Efficacy of a Triplet Combination of MLN9708, Lenalidomide and Dexamethasone as Induction Prior to, and as Consolidation After High-dose Therapy With Peripheral Stem Cell Transplantation Followed by MLN9708 Maintenance in the Initial Management of Multiple Myeloma in Patients Younger Than 66 Years</t>
-  </si>
-  <si>
-    <t>QD Isentress as Switch Strategy in Virologically Suppressed HIV-1 Infected-Patient</t>
+    <t>Comparaison de l’efficacité et de la tolérance d’une injection sous-conjonctivale de triamcinolone et d’un implant intravitréen de dexaméthasone sur l’œdème maculaire inflammatoire</t>
+  </si>
+  <si>
+    <t>REmimazolam Infusion in the Context of Hypnotic Shortage in the Critical Care Unit During the Pandemic of COVID-19. The Non-randomized, Non-controlled, Pilot, Open, Mono-centric REHSCU Study</t>
+  </si>
+  <si>
+    <t>PREOPTI-DAM: High-flow Nasal Cannula Oxygen Versus Standard Oxygenation During Intubation for Patient at Risk of Difficult Intubation: A Randomized Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Impact of a New Sequential Approach on Antimicrobial Use in Young Children With Fever Without Source in Emergency Department</t>
+  </si>
+  <si>
+    <t>Assessment of Remifentanil for Rapid Sequence Induction and Intubation in Full Stomach Patient Compared to Muscle Relaxant. A Non-inferiority Simple Blind Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Impact on Antibiotic Prescriptions of a Bundle Intervention Conducted by Medical Representatives in General Practitioner Facilities, Based on Operational Demonstration of an Internet Decision Support Tool: Antibioclic</t>
+  </si>
+  <si>
+    <t>Efficacy and Tolerance Comparison Between Subconjunctival Injection of Triamcinolone and Intravitreal Implant of Dexamethasone for the Treatment of Inflammatory Macular Edema</t>
+  </si>
+  <si>
+    <t>Efficacy of a Multi-faceted Intervention to Deprescribe Proton Pump Inhibitors (PPI) in Primary Care: a Population-based, Pragmatic, Cluster-randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>A Randomized, Double-blind, Placebo-controlled Phase 2 (2a and 2b) Study to Evaluate the Safety and Efficacy of XAV-19 in Patients With COVID-19 Induced Moderate Pneumonia</t>
+  </si>
+  <si>
+    <t>Prevalence of fAmilial hypobetalipopRoTeinemIa in psychiaTrIc pOpulatioN</t>
+  </si>
+  <si>
+    <t>Poker, Skills and Associated Problems (PERHAPS). Controlled Experimental Single Centre Study of Poker Players: Study of the Cognitive Mechanisms Underlying Poker Skills and of the Specificity of Poker-related Problems</t>
+  </si>
+  <si>
+    <t>Is Mental Motor Imagery Training Using "GHOST", a Novel BCI-VR Feedback System (Brain Computer Interface and Virtual Reality) Efficient and Safe for Pain Relief in Phantom Limb Pain After Upper Limb Amputation or Brachial Plexus Lesion</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness Evaluation of the Use of a Patient Specific Instrument for Surgical Resection of Malignant Bone Tumor Within the Pelvis Versus the Conventional Surgical Treatment</t>
+  </si>
+  <si>
+    <t>Contribution of Confocal Microscopy in the Diagnosis of Acute Cell Rejection ACR in Lung Transplantation: Pilot Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of Musicotherapy in Reducing Peroperative Anxiety and Post-surgical Pain in Dental Care</t>
+  </si>
+  <si>
+    <t>A Kinetic Study of Lipoprotein in Humans for a Better Understanding of Lipoprotein(a) Metabolism Under PCSK9 Variations (Hu-La-u-P Study)</t>
   </si>
   <si>
     <t>Impact of Early Low-Calorie Low-Protein Versus Standard-Calorie Standard-Protein Feeding on Outcomes of Ventilated Adults With Shock: a Randomised, Controlled, Multicentre, Open-label, Parallel-group Study (NUTRIREA-3)</t>
   </si>
   <si>
-    <t>REmimazolam Infusion in the Context of Hypnotic Shortage in the Critical Care Unit During the Pandemic of COVID-19. The Non-randomized, Non-controlled, Pilot, Open, Mono-centric REHSCU Study</t>
-  </si>
-  <si>
-    <t>A Randomized, Double-blind, Placebo-controlled Phase 2 (2a and 2b) Study to Evaluate the Safety and Efficacy of XAV-19 in Patients With COVID-19 Induced Moderate Pneumonia</t>
-  </si>
-  <si>
-    <t>Contribution of Confocal Microscopy in the Diagnosis of Acute Cell Rejection ACR in Lung Transplantation: Pilot Study</t>
-  </si>
-  <si>
-    <t>Efficacy of a Multi-faceted Intervention to Deprescribe Proton Pump Inhibitors (PPI) in Primary Care: a Population-based, Pragmatic, Cluster-randomized Controlled Trial.</t>
-  </si>
-  <si>
     <t>Study of cardiovAscular Contrasted Phenotypes in Patients With FamIliaI hypercholesteRolemia</t>
   </si>
   <si>
-    <t>PREOPTI-DAM: High-flow Nasal Cannula Oxygen Versus Standard Oxygenation During Intubation for Patient at Risk of Difficult Intubation: A Randomized Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Impact of a New Sequential Approach on Antimicrobial Use in Young Children With Fever Without Source in Emergency Department</t>
-  </si>
-  <si>
-    <t>Is Mental Motor Imagery Training Using "GHOST", a Novel BCI-VR Feedback System (Brain Computer Interface and Virtual Reality) Efficient and Safe for Pain Relief in Phantom Limb Pain After Upper Limb Amputation or Brachial Plexus Lesion</t>
-  </si>
-  <si>
-    <t>A Kinetic Study of Lipoprotein in Humans for a Better Understanding of Lipoprotein(a) Metabolism Under PCSK9 Variations (Hu-La-u-P Study)</t>
-  </si>
-  <si>
-    <t>Prevalence of fAmilial hypobetalipopRoTeinemIa in psychiaTrIc pOpulatioN</t>
-  </si>
-  <si>
-    <t>Impact on Antibiotic Prescriptions of a Bundle Intervention Conducted by Medical Representatives in General Practitioner Facilities, Based on Operational Demonstration of an Internet Decision Support Tool: Antibioclic</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of Musicotherapy in Reducing Peroperative Anxiety and Post-surgical Pain in Dental Care</t>
-  </si>
-  <si>
-    <t>Assessment of Remifentanil for Rapid Sequence Induction and Intubation in Full Stomach Patient Compared to Muscle Relaxant. A Non-inferiority Simple Blind Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Cost-effectiveness Evaluation of the Use of a Patient Specific Instrument for Surgical Resection of Malignant Bone Tumor Within the Pelvis Versus the Conventional Surgical Treatment</t>
-  </si>
-  <si>
-    <t>Poker, Skills and Associated Problems (PERHAPS). Controlled Experimental Single Centre Study of Poker Players: Study of the Cognitive Mechanisms Underlying Poker Skills and of the Specificity of Poker-related Problems</t>
-  </si>
-  <si>
-    <t>Comparaison de l’efficacité et de la tolérance d’une injection sous-conjonctivale de triamcinolone et d’un implant intravitréen de dexaméthasone sur l’œdème maculaire inflammatoire</t>
-  </si>
-  <si>
-    <t>Efficacy and Tolerance Comparison Between Subconjunctival Injection of Triamcinolone and Intravitreal Implant of Dexamethasone for the Treatment of Inflammatory Macular Edema</t>
+    <t>Comparison of the Variations of the Cardiovascular Parameters and the Efficiency of the Osteocentral Anesthesia (Quicksleeper™) and the Locoregional Anesthesia in the Case of Mandibular Pulpitis</t>
+  </si>
+  <si>
+    <t>Modeling Variation of the Objective Mental Workload for Tasks Requiring Different Cognitive Functions.</t>
+  </si>
+  <si>
+    <t>Comparison of the Effectiveness of Two Medical Compression Bandage Application Techniques by Measuring Interface Pressures Depending on Whether or Not the Heel is Included in Patients With Open Venous Ulcers: Non-inferiority, Controlled, Randomized Trial</t>
+  </si>
+  <si>
+    <t>Impact of Therapeutic Hypothermia in Expanded Criteria Brain-dead Donors on Kidney-graft Function in the Kidney-transplant Recipients: Multicenter Randomized Controlled Trial" HYPOREME</t>
+  </si>
+  <si>
+    <t>Assessment of the Prevalence of TTR Amyloid Neuropathy in a Population of Patients With Neuropathy of Unknown Aetiology</t>
+  </si>
+  <si>
+    <t>Validation of a Biomathematical Model to Help Identify the Parameters of Flexible Insulin Therapy: Monocentric, Controlled, Randomized and Prospective Pilot Clinical Study in Patients With Type 1 Diabetes.</t>
+  </si>
+  <si>
+    <t>Relevance of Imiquimod as Neo-adjuvant Treatment to Reduce Excision Size and the Risk of Intralesional Excision in Lentigo Malignant of the Face</t>
+  </si>
+  <si>
+    <t>adaptatiVe Endovascular Strategy to the CloT MRI in Large Intracranial Vessel Occlusion</t>
+  </si>
+  <si>
+    <t>Effect of Alirocumab on Postprandial Hyperlipemia in Patients With Type 2 Diabetes : a Randomized, Double-blind, Placebo-controlled, Cross-over Trial"</t>
+  </si>
+  <si>
+    <t>Prospective, Randomized, Controlled and Single-blind Study Assessing the Benefit/Risk Ratio of Internal Limiting Membrane (ILM) Peeling During Epimacular Membrane (EMM) Surgery</t>
   </si>
   <si>
     <t>The Role of IL-22/IL-22BP Axis in Atopic Dermatitis. A Cross Sectional Monocentric Pilot Study</t>
   </si>
   <si>
-    <t>Assessment of the Prevalence of TTR Amyloid Neuropathy in a Population of Patients With Neuropathy of Unknown Aetiology</t>
-  </si>
-  <si>
-    <t>Comparison of the Variations of the Cardiovascular Parameters and the Efficiency of the Osteocentral Anesthesia (Quicksleeper™) and the Locoregional Anesthesia in the Case of Mandibular Pulpitis</t>
-  </si>
-  <si>
-    <t>Effect of Alirocumab on Postprandial Hyperlipemia in Patients With Type 2 Diabetes : a Randomized, Double-blind, Placebo-controlled, Cross-over Trial"</t>
-  </si>
-  <si>
-    <t>Comparison of the Effectiveness of Two Medical Compression Bandage Application Techniques by Measuring Interface Pressures Depending on Whether or Not the Heel is Included in Patients With Open Venous Ulcers: Non-inferiority, Controlled, Randomized Trial</t>
-  </si>
-  <si>
-    <t>Impact of Therapeutic Hypothermia in Expanded Criteria Brain-dead Donors on Kidney-graft Function in the Kidney-transplant Recipients: Multicenter Randomized Controlled Trial" HYPOREME</t>
-  </si>
-  <si>
-    <t>Relevance of Imiquimod as Neo-adjuvant Treatment to Reduce Excision Size and the Risk of Intralesional Excision in Lentigo Malignant of the Face</t>
-  </si>
-  <si>
     <t>Non-invasive Monitoring of Cerebral Autoregulation in Perioperative Neonatal Cardiac Surgery</t>
   </si>
   <si>
-    <t>Validation of a Biomathematical Model to Help Identify the Parameters of Flexible Insulin Therapy: Monocentric, Controlled, Randomized and Prospective Pilot Clinical Study in Patients With Type 1 Diabetes.</t>
-  </si>
-  <si>
-    <t>adaptatiVe Endovascular Strategy to the CloT MRI in Large Intracranial Vessel Occlusion</t>
-  </si>
-  <si>
-    <t>Modeling Variation of the Objective Mental Workload for Tasks Requiring Different Cognitive Functions.</t>
-  </si>
-  <si>
-    <t>Prospective, Randomized, Controlled and Single-blind Study Assessing the Benefit/Risk Ratio of Internal Limiting Membrane (ILM) Peeling During Epimacular Membrane (EMM) Surgery</t>
+    <t>Efficacy of a Multi-faceted Intervention Combining an Educational Outreach Visit to General Practitioners and Patient Education Material to Deprescribe Proton Pump Inhibitors (PPI): a Population-based, Pragmatic, Cluster-randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Cost-consequence Analysis of Intrapartum Streptococcal B Detection by PCR Versus Antenatal Culture at 35-38 SA in the Optimization of Intrapartum Antibiotic Prophylaxis</t>
+  </si>
+  <si>
+    <t>Monocentric Phase 1 Study With Escalation of Doses of Tocilizumab in Combination With Chemotherapy (Idarubicin and Cytarabine) in Patients With Acute Myeloblastic Leukemia (AML) With Poor Prognosis: TOCILAM"</t>
+  </si>
+  <si>
+    <t>Efficacy of Soluble Dexamethasone by Echo-guided Infiltration Through the Sacrococcygeal Hiatus in Refractory Sciatica: a Prospective Randomised Double-blind Study Versus Placebo</t>
+  </si>
+  <si>
+    <t>Comparison of Pharmacokinetic (PK) Levels Before and After Conversion From Twice-daily Tacrolimus to Once-daily Extended-release Tacrolimus (LCPT) in Diabetic Transplant récipients</t>
+  </si>
+  <si>
+    <t>Phase 1 Dose Escalation of Early Infusion of Zoledronic Acid in Combination With Increasing Low-dose of Interleukin-2 in Order to Expand Vγ9Vδ2 T Cells After T-replete Haplo-identical Allogeneic Stem Cell Transplantation (SCT)</t>
+  </si>
+  <si>
+    <t>Phase 3 Therapeutic Interventional Study Evaluating the Efficacy of Noradrenaline in the Prevention of Hypotension Related to Intubation for Cardiac or Thoracic Surgery - Single-centre Prospective Randomised Controlled Study With Blinded Assessment of the Primary Endpoint</t>
+  </si>
+  <si>
+    <t>Early and Systematic Shoulder Rehabilitation Following Cervical Lymph Node Dissection</t>
+  </si>
+  <si>
+    <t>Assessment of the Neuro-glio-epithelial Unit (NGEU) in Biopsies Taken During Peroral Endoscopic Myotomy (POEM) for Achalasia: a Feasibility and Safety Study.</t>
+  </si>
+  <si>
+    <t>Study on the Prevalence of Hepatitis C In a psychiatRic Population</t>
   </si>
   <si>
     <t>Biomechanical and Neurophysiological Evaluation of the Effect of a Motor Block and an Injection of Botulinum Toxin on the Stiffness of the Paretic Sural Triceps Muscle</t>
   </si>
   <si>
-    <t>Monocentric Phase 1 Study With Escalation of Doses of Tocilizumab in Combination With Chemotherapy (Idarubicin and Cytarabine) in Patients With Acute Myeloblastic Leukemia (AML) With Poor Prognosis: TOCILAM"</t>
+    <t>Randomized Double-blind Study on the Benefit of Spironolactone for Treating Acne of Adult Woman.</t>
   </si>
   <si>
     <t>Assessing the Expression and the Activity of Rac1 Protein in the Airway Smooth Muscle of</t>
@@ -1309,74 +1339,47 @@
     <t>Conus Medullaris Stimulation With 5 Columns Lead Versus Medical Treatment in Refractory Pudendal Neuralgia: a Randomized, Open, Controlled, Multicenter Trial.</t>
   </si>
   <si>
-    <t>Phase 1 Dose Escalation of Early Infusion of Zoledronic Acid in Combination With Increasing Low-dose of Interleukin-2 in Order to Expand Vγ9Vδ2 T Cells After T-replete Haplo-identical Allogeneic Stem Cell Transplantation (SCT)</t>
-  </si>
-  <si>
-    <t>Early and Systematic Shoulder Rehabilitation Following Cervical Lymph Node Dissection</t>
-  </si>
-  <si>
-    <t>Study on the Prevalence of Hepatitis C In a psychiatRic Population</t>
-  </si>
-  <si>
-    <t>Efficacy of Soluble Dexamethasone by Echo-guided Infiltration Through the Sacrococcygeal Hiatus in Refractory Sciatica: a Prospective Randomised Double-blind Study Versus Placebo</t>
-  </si>
-  <si>
-    <t>Comparison of Pharmacokinetic (PK) Levels Before and After Conversion From Twice-daily Tacrolimus to Once-daily Extended-release Tacrolimus (LCPT) in Diabetic Transplant récipients</t>
-  </si>
-  <si>
-    <t>Assessment of the Neuro-glio-epithelial Unit (NGEU) in Biopsies Taken During Peroral Endoscopic Myotomy (POEM) for Achalasia: a Feasibility and Safety Study.</t>
-  </si>
-  <si>
-    <t>Randomized Double-blind Study on the Benefit of Spironolactone for Treating Acne of Adult Woman.</t>
-  </si>
-  <si>
-    <t>Efficacy of a Multi-faceted Intervention Combining an Educational Outreach Visit to General Practitioners and Patient Education Material to Deprescribe Proton Pump Inhibitors (PPI): a Population-based, Pragmatic, Cluster-randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Cost-consequence Analysis of Intrapartum Streptococcal B Detection by PCR Versus Antenatal Culture at 35-38 SA in the Optimization of Intrapartum Antibiotic Prophylaxis</t>
-  </si>
-  <si>
-    <t>Phase 3 Therapeutic Interventional Study Evaluating the Efficacy of Noradrenaline in the Prevention of Hypotension Related to Intubation for Cardiac or Thoracic Surgery - Single-centre Prospective Randomised Controlled Study With Blinded Assessment of the Primary Endpoint</t>
+    <t>Using of Virtual Reality to Relieve Procedural Pain in Pediatric Oncology.</t>
+  </si>
+  <si>
+    <t>Liver and Metabolic Effects of Insulin Pump Therapy in a Population of Type 2 Diabetics with Non-alcoholic Hepatic Steatosis</t>
+  </si>
+  <si>
+    <t>Evaluation of the Interest of the Medical Device Called "Fluobeam" in the Localization, Visualization of the Parathyroid Glands for Patients With Mild Primary Hyperparathyroidism. A Randomized Controled Prospective Open -Labeled Monocentric Study.</t>
   </si>
   <si>
     <t>Controlled and double blind comparison of a traditional dressing versus a biologic dressing composed of fetal fibroblasts and keratinocytes in association with a collagen matrix on skin donor sites 
  Pansement biologique composé de fibroblastes et de kératinocytes fœtaux en association avec une matrice de collagène</t>
   </si>
   <si>
-    <t>A phase III randomized, blind, double dummy, multicenter study assessing the efficacy and safety of IV thrombolysis (alteplase) in patients with acute central retinal artery occlusion</t>
-  </si>
-  <si>
-    <t>Polytetrafluoroethylen (PTFE) Vascular Prostheses With Heparin Bonded Luminal Surfaces vs Crude ePTFE in the Treatment of Critical Limb Ischemia Lesions in the Absence of a Suitable Autologous Vein</t>
-  </si>
-  <si>
-    <t>Feasibility Study of the Instrumented Evaluation of Eccentric Strengthening in Paresis Patients</t>
-  </si>
-  <si>
-    <t>Simplified Bowel Preparation Versus Standard Bowel Preparation Before Capsule Endoscopy in Patients With Crohn's Disease: a Prospective Randomized Controlled Multicenter Study</t>
-  </si>
-  <si>
-    <t>Implementation of a Program to Strengthen Oral Hygiene in Patient With Cleft Deformities : HBD-Fentes</t>
-  </si>
-  <si>
-    <t>Evaluation of the Interest of the Medical Device Called "Fluobeam" in the Localization, Visualization of the Parathyroid Glands for Patients With Mild Primary Hyperparathyroidism. A Randomized Controled Prospective Open -Labeled Monocentric Study.</t>
-  </si>
-  <si>
-    <t>Liver and Metabolic Effects of Insulin Pump Therapy in a Population of Type 2 Diabetics with Non-alcoholic Hepatic Steatosis</t>
-  </si>
-  <si>
-    <t>Using of Virtual Reality to Relieve Procedural Pain in Pediatric Oncology.</t>
-  </si>
-  <si>
-    <t>A Phase III Randomized, Blind, Double Dummy, Multicenter Study Assessing the Efficacy and Safety of IV THrombolysis (Alteplase) in Patients With acutE Central retInal Artery Occlusion</t>
-  </si>
-  <si>
-    <t>Neuropsychological Development and Executive Functioning of Children Born to HIV- Infected Mothers</t>
-  </si>
-  <si>
     <t>Phase 2 study evaluating MEchanisms of resistance on tumor tissue and Liquid biopsy in patients with EGFR mutated nonpretreated advanced Lung cancer Receiving OSimErtinib until and beyond radiological progression : the MELROSE trial 
  Étude de phase 2 évaluant les mécanismes de résistance sur le tissu tumoral et sur les biopsies liquides chez des patients avec un cancer du poumon avancé non prétraité, EGFR muté, recevant un traitement par OSIMERTINIB jusqu'à et au-delà de la progression radiologique</t>
   </si>
   <si>
+    <t>A phase III randomized, blind, double dummy, multicenter study assessing the efficacy and safety of IV thrombolysis (alteplase) in patients with acute central retinal artery occlusion</t>
+  </si>
+  <si>
+    <t>Neuropsychological Development and Executive Functioning of Children Born to HIV- Infected Mothers</t>
+  </si>
+  <si>
+    <t>A Phase III Randomized, Blind, Double Dummy, Multicenter Study Assessing the Efficacy and Safety of IV THrombolysis (Alteplase) in Patients With acutE Central retInal Artery Occlusion</t>
+  </si>
+  <si>
+    <t>Polytetrafluoroethylen (PTFE) Vascular Prostheses With Heparin Bonded Luminal Surfaces vs Crude ePTFE in the Treatment of Critical Limb Ischemia Lesions in the Absence of a Suitable Autologous Vein</t>
+  </si>
+  <si>
+    <t>Feasibility Study of the Instrumented Evaluation of Eccentric Strengthening in Paresis Patients</t>
+  </si>
+  <si>
+    <t>Simplified Bowel Preparation Versus Standard Bowel Preparation Before Capsule Endoscopy in Patients With Crohn's Disease: a Prospective Randomized Controlled Multicenter Study</t>
+  </si>
+  <si>
+    <t>Implementation of a Program to Strengthen Oral Hygiene in Patient With Cleft Deformities : HBD-Fentes</t>
+  </si>
+  <si>
+    <t>Efficacité de la Dexaméthasone soluble par infiltrations échoguidées par le hiatus sacro-coccygien dans les sciatiques rebelles : étude prospective randomisée en double aveugle versus placebo</t>
+  </si>
+  <si>
     <t>Genetical, Multi-center, Prospective Study of Phenotyping and Genotyping of Patients Suffering From Congenital Amaurosis of Leber or From an Early Severe Retinal Dystrophy in the Aim of the Realisation of a Clinical Trial of Gene Therapy</t>
   </si>
   <si>
@@ -1389,9 +1392,6 @@
     <t>AML 2001: a Phase III Prospective Randomized Study Comparing One or Two High Dose Chemotherapy Regimen Followed by Autologous Stem Cell Transplantation (ASCT) as Consolidation Strategy for Adults Aged 15 to 60 With Acute Myeloid Leukemia (AML) in First Complete Remission (CR).rémission complète d'Une Leucémie Aiguë Myéloblastique</t>
   </si>
   <si>
-    <t>Efficacité de la Dexaméthasone soluble par infiltrations échoguidées par le hiatus sacro-coccygien dans les sciatiques rebelles : étude prospective randomisée en double aveugle versus placebo</t>
-  </si>
-  <si>
     <t>Hypolyte</t>
   </si>
   <si>
@@ -1401,196 +1401,226 @@
     <t>Oberab</t>
   </si>
   <si>
+    <t>RIT in MTC</t>
+  </si>
+  <si>
     <t>Gaucher</t>
   </si>
   <si>
     <t>ALGAP</t>
   </si>
   <si>
-    <t>RIT in MTC</t>
-  </si>
-  <si>
     <t>INFILTHERA</t>
   </si>
   <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>TIL</t>
+  </si>
+  <si>
+    <t>Corti-TC</t>
+  </si>
+  <si>
+    <t>ColoBioParker</t>
+  </si>
+  <si>
     <t>Impartox</t>
   </si>
   <si>
     <t>ITT 08-01</t>
   </si>
   <si>
-    <t>TIL</t>
-  </si>
-  <si>
-    <t>ColoBioParker</t>
-  </si>
-  <si>
-    <t>Corti-TC</t>
-  </si>
-  <si>
-    <t>MESSAGE</t>
+    <t>Ortholaser</t>
+  </si>
+  <si>
+    <t>IMAJEM</t>
   </si>
   <si>
     <t>Cloric</t>
   </si>
   <si>
+    <t>PREOXYFLOW</t>
+  </si>
+  <si>
     <t>IRENEO</t>
   </si>
   <si>
-    <t>PREOXYFLOW</t>
-  </si>
-  <si>
-    <t>IMAJEM</t>
-  </si>
-  <si>
-    <t>Ortholaser</t>
+    <t>LIGALONGO</t>
+  </si>
+  <si>
+    <t>R-GVHD</t>
+  </si>
+  <si>
+    <t>ECHORACHIS</t>
+  </si>
+  <si>
+    <t>Diabact</t>
   </si>
   <si>
     <t>CARMYSAP</t>
   </si>
   <si>
+    <t>TAVIQUAL</t>
+  </si>
+  <si>
+    <t>Lymphoscreen</t>
+  </si>
+  <si>
+    <t>RPE65</t>
+  </si>
+  <si>
+    <t>setric</t>
+  </si>
+  <si>
+    <t>Cobedding</t>
+  </si>
+  <si>
     <t>Caphosol</t>
   </si>
   <si>
-    <t>Lymphoscreen</t>
-  </si>
-  <si>
-    <t>RPE65</t>
-  </si>
-  <si>
-    <t>R-GVHD</t>
-  </si>
-  <si>
-    <t>LIGALONGO</t>
-  </si>
-  <si>
-    <t>TAVIQUAL</t>
-  </si>
-  <si>
-    <t>Cobedding</t>
-  </si>
-  <si>
-    <t>ECHORACHIS</t>
-  </si>
-  <si>
-    <t>setric</t>
-  </si>
-  <si>
-    <t>Diabact</t>
+    <t>Optiflow</t>
+  </si>
+  <si>
+    <t>S2CARA</t>
+  </si>
+  <si>
+    <t>TolTwiCare</t>
   </si>
   <si>
     <t>TECCO</t>
   </si>
   <si>
+    <t>VIDAZA-DLI</t>
+  </si>
+  <si>
+    <t>CITRUGRELE 2</t>
+  </si>
+  <si>
+    <t>FREEDOM</t>
+  </si>
+  <si>
     <t>SEPT'ECHO</t>
   </si>
   <si>
-    <t>Optiflow</t>
+    <t>MEOREV</t>
+  </si>
+  <si>
+    <t>SWAD</t>
+  </si>
+  <si>
+    <t>IFM2013-04</t>
   </si>
   <si>
     <t>Cefasleeve</t>
   </si>
   <si>
-    <t>MEOREV</t>
-  </si>
-  <si>
-    <t>IFM2013-04</t>
-  </si>
-  <si>
-    <t>VIDAZA-DLI</t>
-  </si>
-  <si>
-    <t>TolTwiCare</t>
-  </si>
-  <si>
-    <t>SWAD</t>
-  </si>
-  <si>
-    <t>S2CARA</t>
-  </si>
-  <si>
-    <t>FREEDOM</t>
-  </si>
-  <si>
-    <t>CITRUGRELE 2</t>
+    <t>NEOSTEO</t>
+  </si>
+  <si>
+    <t>CHEPRALL</t>
   </si>
   <si>
     <t>MycaCOORD</t>
   </si>
   <si>
+    <t>NF1-QDV</t>
+  </si>
+  <si>
+    <t>ORN</t>
+  </si>
+  <si>
+    <t>68-DOTANOC-GEP</t>
+  </si>
+  <si>
+    <t>TLI-ATG</t>
+  </si>
+  <si>
+    <t>LAM2006IR</t>
+  </si>
+  <si>
+    <t>PEPKIN</t>
+  </si>
+  <si>
+    <t>MYOTOX</t>
+  </si>
+  <si>
+    <t>ARTHROSTEM</t>
+  </si>
+  <si>
     <t>SYNAPark</t>
   </si>
   <si>
-    <t>ARTHROSTEM</t>
-  </si>
-  <si>
-    <t>TLI-ATG</t>
-  </si>
-  <si>
     <t>iTEP-CMT</t>
   </si>
   <si>
-    <t>ORN</t>
-  </si>
-  <si>
-    <t>LAM2006IR</t>
-  </si>
-  <si>
-    <t>NF1-QDV</t>
-  </si>
-  <si>
-    <t>PEPKIN</t>
-  </si>
-  <si>
-    <t>68-DOTANOC-GEP</t>
-  </si>
-  <si>
-    <t>MYOTOX</t>
-  </si>
-  <si>
-    <t>NEOSTEO</t>
-  </si>
-  <si>
-    <t>CHEPRALL</t>
+    <t>FB4-PEDIA</t>
+  </si>
+  <si>
+    <t>DiabeNord</t>
+  </si>
+  <si>
+    <t>AMBUVASC</t>
   </si>
   <si>
     <t>iTEP Colon</t>
   </si>
   <si>
+    <t>CALCECHO</t>
+  </si>
+  <si>
+    <t>PARKADD</t>
+  </si>
+  <si>
+    <t>CoCA</t>
+  </si>
+  <si>
+    <t>iTEPsein</t>
+  </si>
+  <si>
+    <t>THIOCAL</t>
+  </si>
+  <si>
     <t>APNECK</t>
   </si>
   <si>
-    <t>AMBUVASC</t>
-  </si>
-  <si>
-    <t>DiabeNord</t>
-  </si>
-  <si>
-    <t>iTEPsein</t>
-  </si>
-  <si>
-    <t>PARKADD</t>
-  </si>
-  <si>
-    <t>CALCECHO</t>
-  </si>
-  <si>
-    <t>FB4-PEDIA</t>
-  </si>
-  <si>
     <t>CLINPCT</t>
   </si>
   <si>
-    <t>CoCA</t>
-  </si>
-  <si>
-    <t>THIOCAL</t>
+    <t>ACUplus</t>
   </si>
   <si>
     <t>PROTRACH</t>
   </si>
   <si>
-    <t>ACUplus</t>
+    <t>PREOPTI-POOP</t>
+  </si>
+  <si>
+    <t>DEPISTREC</t>
+  </si>
+  <si>
+    <t>DOLVAX</t>
+  </si>
+  <si>
+    <t>TACERTE</t>
+  </si>
+  <si>
+    <t>ONEatDC</t>
+  </si>
+  <si>
+    <t>TRANSLINK</t>
+  </si>
+  <si>
+    <t>CINELASER</t>
+  </si>
+  <si>
+    <t>Astronef</t>
+  </si>
+  <si>
+    <t>PHYTOPARK</t>
+  </si>
+  <si>
+    <t>EvAd</t>
   </si>
   <si>
     <t>REVISTIM-X</t>
@@ -1599,217 +1629,217 @@
     <t>E-mage</t>
   </si>
   <si>
-    <t>TRANSLINK</t>
+    <t>ANGIOCATH</t>
+  </si>
+  <si>
+    <t>OASE Melanome</t>
   </si>
   <si>
     <t>SIRUP</t>
   </si>
   <si>
-    <t>ONEatDC</t>
-  </si>
-  <si>
-    <t>TACERTE</t>
-  </si>
-  <si>
-    <t>DOLVAX</t>
-  </si>
-  <si>
-    <t>EvAd</t>
-  </si>
-  <si>
-    <t>CINELASER</t>
-  </si>
-  <si>
-    <t>Astronef</t>
-  </si>
-  <si>
-    <t>OASE Melanome</t>
-  </si>
-  <si>
-    <t>PHYTOPARK</t>
-  </si>
-  <si>
-    <t>ANGIOCATH</t>
-  </si>
-  <si>
-    <t>PREOPTI-POOP</t>
-  </si>
-  <si>
-    <t>DEPISTREC</t>
+    <t>GASTRO-PRA</t>
+  </si>
+  <si>
+    <t>TRIOCAPI</t>
   </si>
   <si>
     <t>STEP</t>
   </si>
   <si>
+    <t>STOPECU</t>
+  </si>
+  <si>
+    <t>THETA-DEP</t>
+  </si>
+  <si>
     <t>MouvsupTCIHemi</t>
   </si>
   <si>
+    <t>PROPHYDRA</t>
+  </si>
+  <si>
+    <t>SMARTAUTISM</t>
+  </si>
+  <si>
+    <t>PACMAN</t>
+  </si>
+  <si>
+    <t>BACLOREA</t>
+  </si>
+  <si>
+    <t>IRIHS-REA</t>
+  </si>
+  <si>
+    <t>FREEDOM OP</t>
+  </si>
+  <si>
     <t>MelSort</t>
   </si>
   <si>
-    <t>SMARTAUTISM</t>
-  </si>
-  <si>
-    <t>TRIOCAPI</t>
-  </si>
-  <si>
-    <t>IRIHS-REA</t>
-  </si>
-  <si>
-    <t>GASTRO-PRA</t>
+    <t>TEP-SVD</t>
+  </si>
+  <si>
+    <t>CONTIPRESS</t>
   </si>
   <si>
     <t>APA</t>
   </si>
   <si>
-    <t>STOPECU</t>
-  </si>
-  <si>
-    <t>PACMAN</t>
-  </si>
-  <si>
-    <t>CONTIPRESS</t>
-  </si>
-  <si>
-    <t>BACLOREA</t>
-  </si>
-  <si>
-    <t>PROPHYDRA</t>
-  </si>
-  <si>
-    <t>FREEDOM OP</t>
-  </si>
-  <si>
-    <t>THETA-DEP</t>
-  </si>
-  <si>
-    <t>TEP-SVD</t>
-  </si>
-  <si>
     <t>RAY-GENE</t>
   </si>
   <si>
+    <t>PRIMICISTIM</t>
+  </si>
+  <si>
     <t>COBI</t>
   </si>
   <si>
+    <t>QDISS</t>
+  </si>
+  <si>
+    <t>TELEGRAFT</t>
+  </si>
+  <si>
+    <t>IMOTEC</t>
+  </si>
+  <si>
+    <t>MYO</t>
+  </si>
+  <si>
     <t>CITRUPE</t>
   </si>
   <si>
-    <t>PRIMICISTIM</t>
+    <t>IFM2013-06</t>
+  </si>
+  <si>
+    <t>REVISTIM-XX</t>
   </si>
   <si>
     <t>MSPMI</t>
   </si>
   <si>
-    <t>REVISTIM-XX</t>
-  </si>
-  <si>
     <t>PRESDIE</t>
   </si>
   <si>
-    <t>MYO</t>
-  </si>
-  <si>
-    <t>TELEGRAFT</t>
-  </si>
-  <si>
-    <t>IMOTEC</t>
-  </si>
-  <si>
-    <t>IFM2013-06</t>
-  </si>
-  <si>
-    <t>QDISS</t>
+    <t>TRIOZ</t>
+  </si>
+  <si>
+    <t>REHSCU</t>
+  </si>
+  <si>
+    <t>PREOPTI-DAM</t>
+  </si>
+  <si>
+    <t>DIAFEVER</t>
+  </si>
+  <si>
+    <t>REMICRUSH</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>DeprescrIPP</t>
+  </si>
+  <si>
+    <t>POLYCOR</t>
+  </si>
+  <si>
+    <t>PERHAPS</t>
+  </si>
+  <si>
+    <t>GHOST</t>
+  </si>
+  <si>
+    <t>MARGIC</t>
+  </si>
+  <si>
+    <t>MICRA</t>
+  </si>
+  <si>
+    <t>MUSANX</t>
+  </si>
+  <si>
+    <t>HuLaUP</t>
   </si>
   <si>
     <t>NUTRIREA3</t>
   </si>
   <si>
-    <t>REHSCU</t>
-  </si>
-  <si>
-    <t>POLYCOR</t>
-  </si>
-  <si>
-    <t>MICRA</t>
-  </si>
-  <si>
-    <t>DeprescrIPP</t>
-  </si>
-  <si>
     <t>SAFIR</t>
   </si>
   <si>
-    <t>PREOPTI-DAM</t>
-  </si>
-  <si>
-    <t>DIAFEVER</t>
-  </si>
-  <si>
-    <t>GHOST</t>
-  </si>
-  <si>
-    <t>HuLaUP</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>MUSANX</t>
-  </si>
-  <si>
-    <t>REMICRUSH</t>
-  </si>
-  <si>
-    <t>MARGIC</t>
-  </si>
-  <si>
-    <t>PERHAPS</t>
-  </si>
-  <si>
-    <t>TRIOZ</t>
+    <t>COQ</t>
+  </si>
+  <si>
+    <t>COMPARACHILLE</t>
+  </si>
+  <si>
+    <t>HYPOREME</t>
+  </si>
+  <si>
+    <t>PRE-TRANS</t>
+  </si>
+  <si>
+    <t>ModIF</t>
+  </si>
+  <si>
+    <t>ImiReduc</t>
+  </si>
+  <si>
+    <t>VECTOR</t>
+  </si>
+  <si>
+    <t>EUTERPE</t>
+  </si>
+  <si>
+    <t>Peeling</t>
   </si>
   <si>
     <t>DA/IL-22BP</t>
   </si>
   <si>
-    <t>PRE-TRANS</t>
-  </si>
-  <si>
-    <t>COQ</t>
-  </si>
-  <si>
-    <t>EUTERPE</t>
-  </si>
-  <si>
-    <t>COMPARACHILLE</t>
-  </si>
-  <si>
-    <t>HYPOREME</t>
-  </si>
-  <si>
-    <t>ImiReduc</t>
+    <t>NEMOCARD</t>
   </si>
   <si>
     <t>ConstiCAPE</t>
   </si>
   <si>
-    <t>NEMOCARD</t>
-  </si>
-  <si>
-    <t>ModIF</t>
-  </si>
-  <si>
-    <t>VECTOR</t>
-  </si>
-  <si>
-    <t>Peeling</t>
+    <t>DeprescrIPPDAM</t>
+  </si>
+  <si>
+    <t>DEPIST2P</t>
+  </si>
+  <si>
+    <t>Tocilam</t>
+  </si>
+  <si>
+    <t>Dexhia</t>
+  </si>
+  <si>
+    <t>SPK-PK</t>
+  </si>
+  <si>
+    <t>HILDEGAZ</t>
+  </si>
+  <si>
+    <t>EPITUBE-HEART</t>
+  </si>
+  <si>
+    <t>RESYSTE</t>
+  </si>
+  <si>
+    <t>Achalaglie</t>
+  </si>
+  <si>
+    <t>SaPHIR</t>
   </si>
   <si>
     <t>RAI PAR BLOC</t>
   </si>
   <si>
-    <t>Tocilam</t>
+    <t>FASCE</t>
   </si>
   <si>
     <t>NaRacAS</t>
@@ -1818,42 +1848,27 @@
     <t>STIMCONE</t>
   </si>
   <si>
-    <t>HILDEGAZ</t>
-  </si>
-  <si>
-    <t>RESYSTE</t>
-  </si>
-  <si>
-    <t>SaPHIR</t>
-  </si>
-  <si>
-    <t>Dexhia</t>
-  </si>
-  <si>
-    <t>SPK-PK</t>
-  </si>
-  <si>
-    <t>Achalaglie</t>
-  </si>
-  <si>
-    <t>FASCE</t>
-  </si>
-  <si>
-    <t>DeprescrIPPDAM</t>
-  </si>
-  <si>
-    <t>DEPIST2P</t>
-  </si>
-  <si>
-    <t>EPITUBE-HEART</t>
+    <t>VIRTUOSO</t>
+  </si>
+  <si>
+    <t>STEATO-POMPE</t>
+  </si>
+  <si>
+    <t>FLUO-PARA</t>
   </si>
   <si>
     <t>CICAFAST</t>
   </si>
   <si>
+    <t>MELROSE</t>
+  </si>
+  <si>
     <t>THEIA</t>
   </si>
   <si>
+    <t>NEUROPSY-HEU</t>
+  </si>
+  <si>
     <t>REPLACE</t>
   </si>
   <si>
@@ -1866,31 +1881,16 @@
     <t>HBD-Fentes</t>
   </si>
   <si>
-    <t>FLUO-PARA</t>
-  </si>
-  <si>
-    <t>STEATO-POMPE</t>
-  </si>
-  <si>
-    <t>VIRTUOSO</t>
-  </si>
-  <si>
-    <t>NEUROPSY-HEU</t>
-  </si>
-  <si>
-    <t>MELROSE</t>
+    <t>DEXHIA</t>
   </si>
   <si>
     <t>AML2001</t>
   </si>
   <si>
-    <t>DEXHIA</t>
+    <t>DEVICE</t>
   </si>
   <si>
     <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -2317,9 +2317,6 @@
       <c r="F2" t="s">
         <v>237</v>
       </c>
-      <c r="G2" t="s">
-        <v>256</v>
-      </c>
       <c r="I2" t="s">
         <v>623</v>
       </c>
@@ -2337,6 +2334,9 @@
       <c r="F3" t="s">
         <v>237</v>
       </c>
+      <c r="G3" t="s">
+        <v>256</v>
+      </c>
       <c r="I3" t="s">
         <v>624</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>257</v>
       </c>
       <c r="I4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2418,7 +2418,7 @@
         <v>260</v>
       </c>
       <c r="I7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2438,7 +2438,7 @@
         <v>261</v>
       </c>
       <c r="I8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2478,7 +2478,7 @@
         <v>263</v>
       </c>
       <c r="I10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2498,7 +2498,7 @@
         <v>264</v>
       </c>
       <c r="I11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2517,9 +2517,6 @@
       <c r="G12" t="s">
         <v>265</v>
       </c>
-      <c r="H12" t="s">
-        <v>458</v>
-      </c>
       <c r="I12" t="s">
         <v>626</v>
       </c>
@@ -2540,19 +2537,16 @@
       <c r="G13" t="s">
         <v>266</v>
       </c>
-      <c r="H13" t="s">
-        <v>459</v>
-      </c>
       <c r="I13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2623,8 +2617,11 @@
       <c r="G17" t="s">
         <v>270</v>
       </c>
+      <c r="H17" t="s">
+        <v>458</v>
+      </c>
       <c r="I17" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2649,10 +2646,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -2663,16 +2660,19 @@
       <c r="G19" t="s">
         <v>272</v>
       </c>
+      <c r="H19" t="s">
+        <v>459</v>
+      </c>
       <c r="I19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2700,19 +2700,19 @@
       <c r="F21" t="s">
         <v>241</v>
       </c>
-      <c r="H21" t="s">
-        <v>460</v>
+      <c r="G21" t="s">
+        <v>274</v>
       </c>
       <c r="I21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -2721,18 +2721,18 @@
         <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I22" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -2740,8 +2740,8 @@
       <c r="F23" t="s">
         <v>241</v>
       </c>
-      <c r="G23" t="s">
-        <v>275</v>
+      <c r="H23" t="s">
+        <v>460</v>
       </c>
       <c r="I23" t="s">
         <v>626</v>
@@ -2767,7 +2767,7 @@
         <v>461</v>
       </c>
       <c r="I24" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2790,7 +2790,7 @@
         <v>462</v>
       </c>
       <c r="I25" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2813,7 +2813,7 @@
         <v>463</v>
       </c>
       <c r="I26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2829,8 +2829,8 @@
       <c r="F27" t="s">
         <v>242</v>
       </c>
-      <c r="G27" t="s">
-        <v>279</v>
+      <c r="H27" t="s">
+        <v>464</v>
       </c>
       <c r="I27" t="s">
         <v>626</v>
@@ -2849,8 +2849,8 @@
       <c r="F28" t="s">
         <v>242</v>
       </c>
-      <c r="H28" t="s">
-        <v>464</v>
+      <c r="G28" t="s">
+        <v>279</v>
       </c>
       <c r="I28" t="s">
         <v>626</v>
@@ -2876,7 +2876,7 @@
         <v>465</v>
       </c>
       <c r="I29" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2904,14 +2904,17 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
       <c r="F31" t="s">
         <v>243</v>
       </c>
@@ -2945,22 +2948,19 @@
         <v>468</v>
       </c>
       <c r="I32" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
-        <v>218</v>
-      </c>
       <c r="F33" t="s">
         <v>243</v>
       </c>
@@ -2994,15 +2994,15 @@
         <v>470</v>
       </c>
       <c r="I34" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -3017,15 +3017,15 @@
         <v>471</v>
       </c>
       <c r="I35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -3036,16 +3036,19 @@
       <c r="G36" t="s">
         <v>287</v>
       </c>
+      <c r="H36" t="s">
+        <v>472</v>
+      </c>
       <c r="I36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -3056,11 +3059,8 @@
       <c r="G37" t="s">
         <v>288</v>
       </c>
-      <c r="H37" t="s">
-        <v>472</v>
-      </c>
       <c r="I37" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3083,15 +3083,15 @@
         <v>473</v>
       </c>
       <c r="I38" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -3102,19 +3102,16 @@
       <c r="G39" t="s">
         <v>290</v>
       </c>
-      <c r="H39" t="s">
-        <v>474</v>
-      </c>
       <c r="I39" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -3126,10 +3123,10 @@
         <v>291</v>
       </c>
       <c r="H40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3154,10 +3151,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -3168,23 +3165,23 @@
       <c r="G42" t="s">
         <v>293</v>
       </c>
+      <c r="H42" t="s">
+        <v>475</v>
+      </c>
       <c r="I42" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
-      <c r="D43" t="s">
-        <v>219</v>
-      </c>
       <c r="F43" t="s">
         <v>245</v>
       </c>
@@ -3195,15 +3192,15 @@
         <v>476</v>
       </c>
       <c r="I43" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -3218,7 +3215,7 @@
         <v>477</v>
       </c>
       <c r="I44" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3241,7 +3238,7 @@
         <v>478</v>
       </c>
       <c r="I45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3260,6 +3257,9 @@
       <c r="G46" t="s">
         <v>297</v>
       </c>
+      <c r="H46" t="s">
+        <v>479</v>
+      </c>
       <c r="I46" t="s">
         <v>625</v>
       </c>
@@ -3280,23 +3280,23 @@
       <c r="G47" t="s">
         <v>298</v>
       </c>
-      <c r="H47" t="s">
-        <v>479</v>
-      </c>
       <c r="I47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
       <c r="F48" t="s">
         <v>245</v>
       </c>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -3330,7 +3330,7 @@
         <v>481</v>
       </c>
       <c r="I49" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3376,15 +3376,15 @@
         <v>483</v>
       </c>
       <c r="I51" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -3399,15 +3399,15 @@
         <v>484</v>
       </c>
       <c r="I52" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -3422,7 +3422,7 @@
         <v>485</v>
       </c>
       <c r="I53" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3445,15 +3445,15 @@
         <v>486</v>
       </c>
       <c r="I54" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
@@ -3468,7 +3468,7 @@
         <v>487</v>
       </c>
       <c r="I55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3491,7 +3491,7 @@
         <v>488</v>
       </c>
       <c r="I56" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3507,22 +3507,19 @@
       <c r="F57" t="s">
         <v>246</v>
       </c>
-      <c r="G57" t="s">
-        <v>308</v>
-      </c>
       <c r="H57" t="s">
         <v>489</v>
       </c>
       <c r="I57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
@@ -3531,10 +3528,13 @@
         <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="H58" t="s">
+        <v>490</v>
       </c>
       <c r="I58" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3551,7 +3551,7 @@
         <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I59" t="s">
         <v>625</v>
@@ -3571,10 +3571,7 @@
         <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>311</v>
-      </c>
-      <c r="H60" t="s">
-        <v>490</v>
+        <v>310</v>
       </c>
       <c r="I60" t="s">
         <v>626</v>
@@ -3582,10 +3579,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
@@ -3594,7 +3591,7 @@
         <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H61" t="s">
         <v>491</v>
@@ -3613,14 +3610,11 @@
       <c r="C62" t="s">
         <v>77</v>
       </c>
-      <c r="D62" t="s">
-        <v>220</v>
-      </c>
       <c r="F62" t="s">
         <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H62" t="s">
         <v>492</v>
@@ -3643,13 +3637,13 @@
         <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H63" t="s">
         <v>493</v>
       </c>
       <c r="I63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3665,26 +3659,26 @@
       <c r="F64" t="s">
         <v>246</v>
       </c>
+      <c r="G64" t="s">
+        <v>314</v>
+      </c>
       <c r="H64" t="s">
         <v>494</v>
       </c>
       <c r="I64" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
-      <c r="D65" t="s">
-        <v>221</v>
-      </c>
       <c r="F65" t="s">
         <v>246</v>
       </c>
@@ -3700,14 +3694,17 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
       <c r="F66" t="s">
         <v>246</v>
       </c>
@@ -3718,19 +3715,22 @@
         <v>496</v>
       </c>
       <c r="I66" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
+      <c r="D67" t="s">
+        <v>221</v>
+      </c>
       <c r="F67" t="s">
         <v>246</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>497</v>
       </c>
       <c r="I67" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3769,10 +3769,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
@@ -3787,7 +3787,7 @@
         <v>499</v>
       </c>
       <c r="I69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3806,9 +3806,6 @@
       <c r="G70" t="s">
         <v>320</v>
       </c>
-      <c r="H70" t="s">
-        <v>500</v>
-      </c>
       <c r="I70" t="s">
         <v>625</v>
       </c>
@@ -3830,10 +3827,10 @@
         <v>321</v>
       </c>
       <c r="H71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I71" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3853,7 +3850,7 @@
         <v>322</v>
       </c>
       <c r="H72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I72" t="s">
         <v>626</v>
@@ -3876,10 +3873,10 @@
         <v>323</v>
       </c>
       <c r="H73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I73" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3898,16 +3895,19 @@
       <c r="G74" t="s">
         <v>324</v>
       </c>
+      <c r="H74" t="s">
+        <v>503</v>
+      </c>
       <c r="I74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
@@ -3918,26 +3918,20 @@
       <c r="G75" t="s">
         <v>325</v>
       </c>
-      <c r="H75" t="s">
-        <v>504</v>
-      </c>
       <c r="I75" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
-      <c r="D76" t="s">
-        <v>222</v>
-      </c>
       <c r="F76" t="s">
         <v>247</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>326</v>
       </c>
       <c r="H76" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I76" t="s">
         <v>626</v>
@@ -3968,22 +3962,25 @@
         <v>327</v>
       </c>
       <c r="H77" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I77" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
       <c r="F78" t="s">
         <v>247</v>
       </c>
@@ -3991,10 +3988,10 @@
         <v>328</v>
       </c>
       <c r="H78" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I78" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4014,10 +4011,10 @@
         <v>329</v>
       </c>
       <c r="H79" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I79" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4037,7 +4034,7 @@
         <v>330</v>
       </c>
       <c r="H80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I80" t="s">
         <v>626</v>
@@ -4045,10 +4042,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
@@ -4060,18 +4057,18 @@
         <v>331</v>
       </c>
       <c r="H81" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I81" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
@@ -4082,6 +4079,9 @@
       <c r="G82" t="s">
         <v>332</v>
       </c>
+      <c r="H82" t="s">
+        <v>510</v>
+      </c>
       <c r="I82" t="s">
         <v>625</v>
       </c>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
@@ -4125,19 +4125,16 @@
       <c r="G84" t="s">
         <v>334</v>
       </c>
-      <c r="H84" t="s">
-        <v>512</v>
-      </c>
       <c r="I84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
@@ -4149,18 +4146,18 @@
         <v>335</v>
       </c>
       <c r="H85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I85" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
@@ -4172,10 +4169,10 @@
         <v>336</v>
       </c>
       <c r="H86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I86" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4194,16 +4191,19 @@
       <c r="G87" t="s">
         <v>337</v>
       </c>
+      <c r="H87" t="s">
+        <v>514</v>
+      </c>
       <c r="I87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
@@ -4218,15 +4218,15 @@
         <v>515</v>
       </c>
       <c r="I88" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
@@ -4241,7 +4241,7 @@
         <v>516</v>
       </c>
       <c r="I89" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4269,10 +4269,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
@@ -4287,15 +4287,15 @@
         <v>518</v>
       </c>
       <c r="I91" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
@@ -4333,7 +4333,7 @@
         <v>520</v>
       </c>
       <c r="I93" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4356,7 +4356,7 @@
         <v>521</v>
       </c>
       <c r="I94" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4379,15 +4379,15 @@
         <v>522</v>
       </c>
       <c r="I95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
@@ -4402,15 +4402,15 @@
         <v>523</v>
       </c>
       <c r="I96" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
@@ -4425,15 +4425,15 @@
         <v>524</v>
       </c>
       <c r="I97" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
@@ -4448,15 +4448,15 @@
         <v>525</v>
       </c>
       <c r="I98" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
@@ -4471,7 +4471,7 @@
         <v>526</v>
       </c>
       <c r="I99" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4490,16 +4490,19 @@
       <c r="G100" t="s">
         <v>350</v>
       </c>
+      <c r="H100" t="s">
+        <v>527</v>
+      </c>
       <c r="I100" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
@@ -4511,7 +4514,7 @@
         <v>351</v>
       </c>
       <c r="I101" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4531,10 +4534,10 @@
         <v>352</v>
       </c>
       <c r="H102" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I102" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4554,18 +4557,18 @@
         <v>353</v>
       </c>
       <c r="H103" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I103" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>119</v>
@@ -4577,7 +4580,7 @@
         <v>354</v>
       </c>
       <c r="H104" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I104" t="s">
         <v>628</v>
@@ -4585,10 +4588,10 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>120</v>
@@ -4599,19 +4602,16 @@
       <c r="G105" t="s">
         <v>355</v>
       </c>
-      <c r="H105" t="s">
-        <v>530</v>
-      </c>
       <c r="I105" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>121</v>
@@ -4626,7 +4626,7 @@
         <v>531</v>
       </c>
       <c r="I106" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4649,15 +4649,15 @@
         <v>532</v>
       </c>
       <c r="I107" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>123</v>
@@ -4672,7 +4672,7 @@
         <v>533</v>
       </c>
       <c r="I108" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4695,7 +4695,7 @@
         <v>534</v>
       </c>
       <c r="I109" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4718,7 +4718,7 @@
         <v>535</v>
       </c>
       <c r="I110" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4741,7 +4741,7 @@
         <v>536</v>
       </c>
       <c r="I111" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4772,10 +4772,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>128</v>
@@ -4790,15 +4790,15 @@
         <v>538</v>
       </c>
       <c r="I113" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
         <v>129</v>
@@ -4813,15 +4813,15 @@
         <v>539</v>
       </c>
       <c r="I114" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>130</v>
@@ -4836,19 +4836,22 @@
         <v>540</v>
       </c>
       <c r="I115" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>131</v>
       </c>
+      <c r="D116" t="s">
+        <v>224</v>
+      </c>
       <c r="F116" t="s">
         <v>250</v>
       </c>
@@ -4859,15 +4862,15 @@
         <v>541</v>
       </c>
       <c r="I116" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
         <v>132</v>
@@ -4882,15 +4885,15 @@
         <v>542</v>
       </c>
       <c r="I117" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>133</v>
@@ -4905,22 +4908,19 @@
         <v>543</v>
       </c>
       <c r="I118" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>134</v>
       </c>
-      <c r="D119" t="s">
-        <v>224</v>
-      </c>
       <c r="F119" t="s">
         <v>250</v>
       </c>
@@ -4931,15 +4931,15 @@
         <v>544</v>
       </c>
       <c r="I119" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>135</v>
@@ -4954,7 +4954,7 @@
         <v>545</v>
       </c>
       <c r="I120" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5005,13 +5005,16 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
         <v>138</v>
+      </c>
+      <c r="D123" t="s">
+        <v>225</v>
       </c>
       <c r="F123" t="s">
         <v>250</v>
@@ -5036,9 +5039,6 @@
       <c r="C124" t="s">
         <v>139</v>
       </c>
-      <c r="D124" t="s">
-        <v>225</v>
-      </c>
       <c r="F124" t="s">
         <v>250</v>
       </c>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
         <v>140</v>
@@ -5072,15 +5072,15 @@
         <v>550</v>
       </c>
       <c r="I125" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>141</v>
@@ -5095,7 +5095,7 @@
         <v>551</v>
       </c>
       <c r="I126" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5118,18 +5118,21 @@
         <v>552</v>
       </c>
       <c r="I127" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>143</v>
+      </c>
+      <c r="D128" t="s">
+        <v>226</v>
       </c>
       <c r="F128" t="s">
         <v>250</v>
@@ -5164,22 +5167,19 @@
         <v>554</v>
       </c>
       <c r="I129" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>145</v>
       </c>
-      <c r="D130" t="s">
-        <v>226</v>
-      </c>
       <c r="F130" t="s">
         <v>250</v>
       </c>
@@ -5232,36 +5232,45 @@
       <c r="G132" t="s">
         <v>382</v>
       </c>
+      <c r="H132" t="s">
+        <v>557</v>
+      </c>
       <c r="I132" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
         <v>148</v>
       </c>
+      <c r="D133" t="s">
+        <v>227</v>
+      </c>
       <c r="F133" t="s">
         <v>251</v>
       </c>
       <c r="G133" t="s">
         <v>383</v>
       </c>
+      <c r="H133" t="s">
+        <v>558</v>
+      </c>
       <c r="I133" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s">
         <v>149</v>
@@ -5272,23 +5281,23 @@
       <c r="G134" t="s">
         <v>384</v>
       </c>
+      <c r="H134" t="s">
+        <v>559</v>
+      </c>
       <c r="I134" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>150</v>
       </c>
-      <c r="D135" t="s">
-        <v>227</v>
-      </c>
       <c r="F135" t="s">
         <v>251</v>
       </c>
@@ -5296,10 +5305,10 @@
         <v>385</v>
       </c>
       <c r="H135" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I135" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5319,10 +5328,10 @@
         <v>386</v>
       </c>
       <c r="H136" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I136" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5342,10 +5351,10 @@
         <v>387</v>
       </c>
       <c r="H137" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="I137" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5355,8 +5364,8 @@
       <c r="B138" t="s">
         <v>13</v>
       </c>
-      <c r="C138" t="s">
-        <v>153</v>
+      <c r="D138" t="s">
+        <v>228</v>
       </c>
       <c r="F138" t="s">
         <v>251</v>
@@ -5365,10 +5374,7 @@
         <v>388</v>
       </c>
       <c r="H138" t="s">
-        <v>560</v>
-      </c>
-      <c r="I138" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5378,8 +5384,8 @@
       <c r="B139" t="s">
         <v>13</v>
       </c>
-      <c r="D139" t="s">
-        <v>228</v>
+      <c r="C139" t="s">
+        <v>153</v>
       </c>
       <c r="F139" t="s">
         <v>251</v>
@@ -5388,19 +5394,25 @@
         <v>389</v>
       </c>
       <c r="H139" t="s">
-        <v>558</v>
+        <v>563</v>
+      </c>
+      <c r="I139" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
         <v>154</v>
       </c>
+      <c r="D140" t="s">
+        <v>229</v>
+      </c>
       <c r="F140" t="s">
         <v>251</v>
       </c>
@@ -5408,10 +5420,10 @@
         <v>390</v>
       </c>
       <c r="H140" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="I140" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5431,10 +5443,10 @@
         <v>391</v>
       </c>
       <c r="H141" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="I141" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5454,10 +5466,10 @@
         <v>392</v>
       </c>
       <c r="H142" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I142" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5476,9 +5488,6 @@
       <c r="G143" t="s">
         <v>393</v>
       </c>
-      <c r="H143" t="s">
-        <v>564</v>
-      </c>
       <c r="I143" t="s">
         <v>625</v>
       </c>
@@ -5499,26 +5508,20 @@
       <c r="G144" t="s">
         <v>394</v>
       </c>
-      <c r="H144" t="s">
-        <v>565</v>
-      </c>
       <c r="I144" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>159</v>
       </c>
-      <c r="D145" t="s">
-        <v>229</v>
-      </c>
       <c r="F145" t="s">
         <v>251</v>
       </c>
@@ -5526,18 +5529,18 @@
         <v>395</v>
       </c>
       <c r="H145" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I145" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
         <v>160</v>
@@ -5548,22 +5551,19 @@
       <c r="G146" t="s">
         <v>396</v>
       </c>
-      <c r="H146" t="s">
-        <v>567</v>
-      </c>
       <c r="I146" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" t="s">
-        <v>161</v>
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>230</v>
       </c>
       <c r="F147" t="s">
         <v>252</v>
@@ -5573,9 +5573,6 @@
       </c>
       <c r="H147" t="s">
         <v>568</v>
-      </c>
-      <c r="I147" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5586,10 +5583,10 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F148" t="s">
         <v>252</v>
@@ -5612,7 +5609,7 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F149" t="s">
         <v>252</v>
@@ -5624,18 +5621,18 @@
         <v>570</v>
       </c>
       <c r="I149" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F150" t="s">
         <v>252</v>
@@ -5647,7 +5644,7 @@
         <v>571</v>
       </c>
       <c r="I150" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5658,7 +5655,10 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="D151" t="s">
+        <v>232</v>
       </c>
       <c r="F151" t="s">
         <v>252</v>
@@ -5670,7 +5670,7 @@
         <v>572</v>
       </c>
       <c r="I151" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5681,7 +5681,7 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F152" t="s">
         <v>252</v>
@@ -5693,7 +5693,7 @@
         <v>573</v>
       </c>
       <c r="I152" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5704,7 +5704,7 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F153" t="s">
         <v>252</v>
@@ -5713,10 +5713,10 @@
         <v>403</v>
       </c>
       <c r="H153" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="I153" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5727,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F154" t="s">
         <v>252</v>
@@ -5736,21 +5736,21 @@
         <v>404</v>
       </c>
       <c r="H154" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I154" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F155" t="s">
         <v>252</v>
@@ -5759,10 +5759,10 @@
         <v>405</v>
       </c>
       <c r="H155" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I155" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5773,7 +5773,7 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F156" t="s">
         <v>252</v>
@@ -5781,11 +5781,8 @@
       <c r="G156" t="s">
         <v>406</v>
       </c>
-      <c r="H156" t="s">
-        <v>577</v>
-      </c>
       <c r="I156" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5796,7 +5793,7 @@
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F157" t="s">
         <v>252</v>
@@ -5804,8 +5801,11 @@
       <c r="G157" t="s">
         <v>407</v>
       </c>
+      <c r="H157" t="s">
+        <v>576</v>
+      </c>
       <c r="I157" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5816,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F158" t="s">
         <v>252</v>
@@ -5825,10 +5825,10 @@
         <v>408</v>
       </c>
       <c r="H158" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I158" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5839,7 +5839,7 @@
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F159" t="s">
         <v>252</v>
@@ -5848,24 +5848,21 @@
         <v>409</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I159" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
-      </c>
-      <c r="D160" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="F160" t="s">
         <v>252</v>
@@ -5874,10 +5871,10 @@
         <v>410</v>
       </c>
       <c r="H160" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I160" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5888,7 +5885,7 @@
         <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F161" t="s">
         <v>252</v>
@@ -5897,10 +5894,10 @@
         <v>411</v>
       </c>
       <c r="H161" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I161" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5911,7 +5908,7 @@
         <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F162" t="s">
         <v>252</v>
@@ -5920,21 +5917,21 @@
         <v>412</v>
       </c>
       <c r="H162" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I162" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" t="s">
-        <v>232</v>
+        <v>16</v>
+      </c>
+      <c r="C163" t="s">
+        <v>176</v>
       </c>
       <c r="F163" t="s">
         <v>252</v>
@@ -5943,15 +5940,18 @@
         <v>413</v>
       </c>
       <c r="H163" t="s">
-        <v>583</v>
+        <v>582</v>
+      </c>
+      <c r="I163" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
         <v>177</v>
@@ -5966,7 +5966,7 @@
         <v>583</v>
       </c>
       <c r="I164" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6008,11 +6008,8 @@
       <c r="G166" t="s">
         <v>416</v>
       </c>
-      <c r="H166" t="s">
-        <v>585</v>
-      </c>
       <c r="I166" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6032,18 +6029,18 @@
         <v>417</v>
       </c>
       <c r="H167" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I167" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
         <v>181</v>
@@ -6055,10 +6052,10 @@
         <v>418</v>
       </c>
       <c r="H168" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I168" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6078,10 +6075,10 @@
         <v>419</v>
       </c>
       <c r="H169" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I169" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6101,10 +6098,10 @@
         <v>420</v>
       </c>
       <c r="H170" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I170" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6124,7 +6121,7 @@
         <v>421</v>
       </c>
       <c r="H171" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I171" t="s">
         <v>626</v>
@@ -6143,8 +6140,11 @@
       <c r="F172" t="s">
         <v>253</v>
       </c>
+      <c r="G172" t="s">
+        <v>422</v>
+      </c>
       <c r="H172" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I172" t="s">
         <v>624</v>
@@ -6164,13 +6164,13 @@
         <v>253</v>
       </c>
       <c r="G173" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H173" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I173" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6187,13 +6187,13 @@
         <v>253</v>
       </c>
       <c r="G174" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H174" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I174" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6210,13 +6210,13 @@
         <v>253</v>
       </c>
       <c r="G175" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H175" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I175" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6233,18 +6233,21 @@
         <v>253</v>
       </c>
       <c r="G176" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="H176" t="s">
+        <v>594</v>
       </c>
       <c r="I176" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>190</v>
@@ -6252,9 +6255,6 @@
       <c r="F177" t="s">
         <v>253</v>
       </c>
-      <c r="G177" t="s">
-        <v>426</v>
-      </c>
       <c r="H177" t="s">
         <v>595</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>597</v>
       </c>
       <c r="I179" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6328,7 +6328,7 @@
         <v>598</v>
       </c>
       <c r="I180" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6351,7 +6351,7 @@
         <v>599</v>
       </c>
       <c r="I181" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6397,7 +6397,7 @@
         <v>601</v>
       </c>
       <c r="I183" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6420,7 +6420,7 @@
         <v>602</v>
       </c>
       <c r="I184" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6443,15 +6443,15 @@
         <v>603</v>
       </c>
       <c r="I185" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
         <v>199</v>
@@ -6466,15 +6466,15 @@
         <v>604</v>
       </c>
       <c r="I186" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>200</v>
@@ -6489,15 +6489,15 @@
         <v>605</v>
       </c>
       <c r="I187" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>201</v>
@@ -6512,15 +6512,15 @@
         <v>606</v>
       </c>
       <c r="I188" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
         <v>202</v>
@@ -6535,7 +6535,7 @@
         <v>607</v>
       </c>
       <c r="I189" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6558,7 +6558,7 @@
         <v>608</v>
       </c>
       <c r="I190" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6581,7 +6581,7 @@
         <v>609</v>
       </c>
       <c r="I191" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6591,8 +6591,8 @@
       <c r="B192" t="s">
         <v>13</v>
       </c>
-      <c r="D192" t="s">
-        <v>233</v>
+      <c r="C192" t="s">
+        <v>205</v>
       </c>
       <c r="F192" t="s">
         <v>255</v>
@@ -6603,6 +6603,9 @@
       <c r="H192" t="s">
         <v>610</v>
       </c>
+      <c r="I192" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
@@ -6611,8 +6614,8 @@
       <c r="B193" t="s">
         <v>13</v>
       </c>
-      <c r="D193" t="s">
-        <v>234</v>
+      <c r="C193" t="s">
+        <v>206</v>
       </c>
       <c r="F193" t="s">
         <v>255</v>
@@ -6623,6 +6626,9 @@
       <c r="H193" t="s">
         <v>611</v>
       </c>
+      <c r="I193" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
@@ -6632,7 +6638,7 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F194" t="s">
         <v>255</v>
@@ -6654,8 +6660,8 @@
       <c r="B195" t="s">
         <v>13</v>
       </c>
-      <c r="C195" t="s">
-        <v>206</v>
+      <c r="D195" t="s">
+        <v>233</v>
       </c>
       <c r="F195" t="s">
         <v>255</v>
@@ -6666,9 +6672,6 @@
       <c r="H195" t="s">
         <v>613</v>
       </c>
-      <c r="I195" t="s">
-        <v>625</v>
-      </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
@@ -6677,8 +6680,8 @@
       <c r="B196" t="s">
         <v>13</v>
       </c>
-      <c r="C196" t="s">
-        <v>207</v>
+      <c r="D196" t="s">
+        <v>234</v>
       </c>
       <c r="F196" t="s">
         <v>255</v>
@@ -6689,9 +6692,6 @@
       <c r="H196" t="s">
         <v>614</v>
       </c>
-      <c r="I196" t="s">
-        <v>625</v>
-      </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
@@ -6700,8 +6700,8 @@
       <c r="B197" t="s">
         <v>13</v>
       </c>
-      <c r="C197" t="s">
-        <v>208</v>
+      <c r="D197" t="s">
+        <v>235</v>
       </c>
       <c r="F197" t="s">
         <v>255</v>
@@ -6712,9 +6712,6 @@
       <c r="H197" t="s">
         <v>615</v>
       </c>
-      <c r="I197" t="s">
-        <v>625</v>
-      </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
@@ -6724,7 +6721,7 @@
         <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F198" t="s">
         <v>255</v>
@@ -6736,7 +6733,7 @@
         <v>616</v>
       </c>
       <c r="I198" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6747,7 +6744,7 @@
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F199" t="s">
         <v>255</v>
@@ -6756,10 +6753,10 @@
         <v>448</v>
       </c>
       <c r="H199" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I199" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6770,7 +6767,7 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F200" t="s">
         <v>255</v>
@@ -6779,10 +6776,10 @@
         <v>449</v>
       </c>
       <c r="H200" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I200" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6793,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F201" t="s">
         <v>255</v>
@@ -6802,10 +6799,10 @@
         <v>450</v>
       </c>
       <c r="H201" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="I201" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6816,7 +6813,7 @@
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F202" t="s">
         <v>255</v>
@@ -6828,7 +6825,7 @@
         <v>619</v>
       </c>
       <c r="I202" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6838,8 +6835,8 @@
       <c r="B203" t="s">
         <v>13</v>
       </c>
-      <c r="D203" t="s">
-        <v>235</v>
+      <c r="C203" t="s">
+        <v>213</v>
       </c>
       <c r="F203" t="s">
         <v>255</v>
@@ -6850,6 +6847,9 @@
       <c r="H203" t="s">
         <v>620</v>
       </c>
+      <c r="I203" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
@@ -6858,14 +6858,14 @@
       <c r="B204" t="s">
         <v>13</v>
       </c>
-      <c r="C204" t="s">
-        <v>214</v>
+      <c r="D204" t="s">
+        <v>236</v>
       </c>
       <c r="G204" t="s">
         <v>453</v>
       </c>
-      <c r="I204" t="s">
-        <v>623</v>
+      <c r="H204" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6876,24 +6876,24 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G205" t="s">
         <v>454</v>
       </c>
       <c r="I205" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G206" t="s">
         <v>455</v>
@@ -6910,33 +6910,33 @@
         <v>14</v>
       </c>
       <c r="C207" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G207" t="s">
         <v>456</v>
       </c>
-      <c r="H207" t="s">
-        <v>621</v>
-      </c>
       <c r="I207" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" t="s">
-        <v>236</v>
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>217</v>
       </c>
       <c r="G208" t="s">
         <v>457</v>
       </c>
       <c r="H208" t="s">
         <v>622</v>
+      </c>
+      <c r="I208" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage2/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="652">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00217347</t>
@@ -73,13 +73,16 @@
     <t>NCT00200616</t>
   </si>
   <si>
+    <t>NCT00200655</t>
+  </si>
+  <si>
+    <t>NCT00337597</t>
+  </si>
+  <si>
     <t>NCT00200642</t>
   </si>
   <si>
-    <t>NCT00337597</t>
-  </si>
-  <si>
-    <t>NCT00200655</t>
+    <t>NCT00720031</t>
   </si>
   <si>
     <t>NCT00291538</t>
@@ -94,43 +97,49 @@
     <t>NCT00290576</t>
   </si>
   <si>
-    <t>NCT00720031</t>
-  </si>
-  <si>
     <t>NCT00621400</t>
   </si>
   <si>
+    <t>NCT00965289</t>
+  </si>
+  <si>
+    <t>NCT00707408</t>
+  </si>
+  <si>
+    <t>NCT00491062</t>
+  </si>
+  <si>
     <t>NCT00200707</t>
   </si>
   <si>
+    <t>NCT00563303</t>
+  </si>
+  <si>
+    <t>NCT00436514</t>
+  </si>
+  <si>
     <t>NCT00756080</t>
   </si>
   <si>
-    <t>NCT00707408</t>
-  </si>
-  <si>
-    <t>NCT00436514</t>
-  </si>
-  <si>
-    <t>NCT00563303</t>
-  </si>
-  <si>
-    <t>NCT00965289</t>
-  </si>
-  <si>
-    <t>NCT00491062</t>
+    <t>NCT00200551</t>
+  </si>
+  <si>
+    <t>NCT01136317</t>
+  </si>
+  <si>
+    <t>NCT01061255</t>
   </si>
   <si>
     <t>NCT00385710</t>
   </si>
   <si>
-    <t>NCT01061255</t>
-  </si>
-  <si>
-    <t>NCT00200551</t>
-  </si>
-  <si>
-    <t>NCT01136317</t>
+    <t>NCT01067937</t>
+  </si>
+  <si>
+    <t>NCT00851513</t>
+  </si>
+  <si>
+    <t>NCT01497990</t>
   </si>
   <si>
     <t>NCT00467506</t>
@@ -139,91 +148,97 @@
     <t>NCT01206673</t>
   </si>
   <si>
-    <t>NCT01067937</t>
-  </si>
-  <si>
-    <t>NCT00851513</t>
-  </si>
-  <si>
-    <t>NCT01497990</t>
+    <t>NCT01353183</t>
   </si>
   <si>
     <t>NCT00836732</t>
   </si>
   <si>
+    <t>NCT01331356</t>
+  </si>
+  <si>
+    <t>NCT01093261</t>
+  </si>
+  <si>
     <t>NCT00200577</t>
   </si>
   <si>
-    <t>NCT01093261</t>
-  </si>
-  <si>
-    <t>NCT01353183</t>
-  </si>
-  <si>
-    <t>NCT01331356</t>
-  </si>
-  <si>
     <t>NCT00841724</t>
   </si>
   <si>
+    <t>NCT00435864</t>
+  </si>
+  <si>
     <t>NCT01745653</t>
   </si>
   <si>
+    <t>NCT00863148</t>
+  </si>
+  <si>
+    <t>NCT01747109</t>
+  </si>
+  <si>
+    <t>NCT01785238</t>
+  </si>
+  <si>
+    <t>NCT00422006</t>
+  </si>
+  <si>
     <t>NCT01309334</t>
   </si>
   <si>
     <t>NCT00561379</t>
   </si>
   <si>
-    <t>NCT00863148</t>
-  </si>
-  <si>
-    <t>NCT00435864</t>
-  </si>
-  <si>
-    <t>NCT01747109</t>
-  </si>
-  <si>
-    <t>NCT00422006</t>
-  </si>
-  <si>
-    <t>NCT01785238</t>
+    <t>NCT01761357</t>
+  </si>
+  <si>
+    <t>NCT01426295</t>
+  </si>
+  <si>
+    <t>NCT01496040</t>
+  </si>
+  <si>
+    <t>NCT01485705</t>
+  </si>
+  <si>
+    <t>NCT01279694</t>
+  </si>
+  <si>
+    <t>NCT01810146</t>
+  </si>
+  <si>
+    <t>NCT01188174</t>
+  </si>
+  <si>
+    <t>NCT01135641</t>
+  </si>
+  <si>
+    <t>NCT01042301</t>
   </si>
   <si>
     <t>NCT01240772</t>
   </si>
   <si>
-    <t>NCT01135641</t>
-  </si>
-  <si>
     <t>NCT01832844</t>
   </si>
   <si>
-    <t>NCT01485705</t>
-  </si>
-  <si>
-    <t>NCT01810146</t>
-  </si>
-  <si>
-    <t>NCT01279694</t>
-  </si>
-  <si>
-    <t>NCT01761357</t>
-  </si>
-  <si>
-    <t>NCT01042301</t>
-  </si>
-  <si>
-    <t>NCT01496040</t>
-  </si>
-  <si>
-    <t>NCT01188174</t>
-  </si>
-  <si>
     <t>NCT01480856</t>
   </si>
   <si>
-    <t>NCT01426295</t>
+    <t>NCT02018952</t>
+  </si>
+  <si>
+    <t>NCT01353651</t>
+  </si>
+  <si>
+    <t>NCT02067767</t>
+  </si>
+  <si>
+    <t>NCT01541280</t>
+  </si>
+  <si>
+    <t>NCT01485679</t>
   </si>
   <si>
     <t>NCT01617252</t>
@@ -232,178 +247,178 @@
     <t>NCT01546272</t>
   </si>
   <si>
+    <t>NCT01971658</t>
+  </si>
+  <si>
+    <t>NCT01386034</t>
+  </si>
+  <si>
+    <t>NCT01948115</t>
+  </si>
+  <si>
+    <t>NCT01745679</t>
+  </si>
+  <si>
     <t>NCT02907450</t>
   </si>
   <si>
-    <t>NCT01353651</t>
-  </si>
-  <si>
-    <t>NCT01485679</t>
-  </si>
-  <si>
-    <t>NCT01745679</t>
-  </si>
-  <si>
-    <t>NCT01541280</t>
-  </si>
-  <si>
-    <t>NCT01386034</t>
+    <t>NCT01537380</t>
   </si>
   <si>
     <t>NCT02198612</t>
   </si>
   <si>
-    <t>NCT02018952</t>
-  </si>
-  <si>
-    <t>NCT01948115</t>
-  </si>
-  <si>
-    <t>NCT02067767</t>
-  </si>
-  <si>
-    <t>NCT01971658</t>
-  </si>
-  <si>
-    <t>NCT01537380</t>
+    <t>NCT01879046</t>
+  </si>
+  <si>
+    <t>NCT01967524</t>
+  </si>
+  <si>
+    <t>NCT02819258</t>
+  </si>
+  <si>
+    <t>NCT00860639</t>
   </si>
   <si>
     <t>NCT01890668</t>
   </si>
   <si>
-    <t>NCT02819258</t>
+    <t>NCT01888458</t>
+  </si>
+  <si>
+    <t>NCT01747096</t>
+  </si>
+  <si>
+    <t>NCT01730638</t>
+  </si>
+  <si>
+    <t>NCT01748409</t>
+  </si>
+  <si>
+    <t>NCT01566656</t>
   </si>
   <si>
     <t>NCT01219816</t>
   </si>
   <si>
-    <t>NCT01888458</t>
+    <t>NCT02262182</t>
+  </si>
+  <si>
+    <t>NCT01147315</t>
   </si>
   <si>
     <t>NCT01851135</t>
   </si>
   <si>
-    <t>NCT01147315</t>
-  </si>
-  <si>
     <t>NCT01207674</t>
   </si>
   <si>
-    <t>NCT01747096</t>
-  </si>
-  <si>
-    <t>NCT01566656</t>
-  </si>
-  <si>
-    <t>NCT00860639</t>
-  </si>
-  <si>
-    <t>NCT02262182</t>
-  </si>
-  <si>
-    <t>NCT01967524</t>
-  </si>
-  <si>
-    <t>NCT01879046</t>
-  </si>
-  <si>
-    <t>NCT01748409</t>
-  </si>
-  <si>
-    <t>NCT01730638</t>
+    <t>NCT01572181</t>
+  </si>
+  <si>
+    <t>NCT01733199</t>
+  </si>
+  <si>
+    <t>NCT02403856</t>
+  </si>
+  <si>
+    <t>NCT01432509</t>
+  </si>
+  <si>
+    <t>NCT02236260</t>
+  </si>
+  <si>
+    <t>NCT02581150</t>
+  </si>
+  <si>
+    <t>NCT02381639</t>
+  </si>
+  <si>
+    <t>NCT01730612</t>
+  </si>
+  <si>
+    <t>NCT02538939</t>
+  </si>
+  <si>
+    <t>NCT01723644</t>
+  </si>
+  <si>
+    <t>NCT02700321</t>
+  </si>
+  <si>
+    <t>NCT03210857</t>
   </si>
   <si>
     <t>NCT01710930</t>
   </si>
   <si>
-    <t>NCT01572181</t>
-  </si>
-  <si>
-    <t>NCT01432509</t>
-  </si>
-  <si>
-    <t>NCT02581150</t>
-  </si>
-  <si>
     <t>NCT02587247</t>
   </si>
   <si>
-    <t>NCT02403856</t>
-  </si>
-  <si>
-    <t>NCT01733199</t>
-  </si>
-  <si>
-    <t>NCT02381639</t>
-  </si>
-  <si>
-    <t>NCT01730612</t>
-  </si>
-  <si>
-    <t>NCT02538939</t>
-  </si>
-  <si>
-    <t>NCT03210857</t>
-  </si>
-  <si>
-    <t>NCT01723644</t>
-  </si>
-  <si>
-    <t>NCT02236260</t>
-  </si>
-  <si>
-    <t>NCT02700321</t>
+    <t>NCT02244450</t>
+  </si>
+  <si>
+    <t>NCT01541176</t>
   </si>
   <si>
     <t>NCT03106441</t>
   </si>
   <si>
-    <t>NCT02244450</t>
+    <t>NCT02181439</t>
+  </si>
+  <si>
+    <t>NCT02719496</t>
   </si>
   <si>
     <t>NCT03220555</t>
   </si>
   <si>
+    <t>NCT02707354</t>
+  </si>
+  <si>
     <t>NCT02078141</t>
   </si>
   <si>
+    <t>NCT02023970</t>
+  </si>
+  <si>
+    <t>NCT02911207</t>
+  </si>
+  <si>
+    <t>NCT03387254</t>
+  </si>
+  <si>
+    <t>NCT01964911</t>
+  </si>
+  <si>
+    <t>NCT03137511</t>
+  </si>
+  <si>
+    <t>NCT01682265</t>
+  </si>
+  <si>
+    <t>NCT02252055</t>
+  </si>
+  <si>
     <t>NCT01300143</t>
   </si>
   <si>
-    <t>NCT02252055</t>
-  </si>
-  <si>
-    <t>NCT02023970</t>
-  </si>
-  <si>
     <t>NCT01610531</t>
   </si>
   <si>
-    <t>NCT02181439</t>
-  </si>
-  <si>
-    <t>NCT01541176</t>
-  </si>
-  <si>
-    <t>NCT02719496</t>
-  </si>
-  <si>
-    <t>NCT02911207</t>
-  </si>
-  <si>
-    <t>NCT03387254</t>
-  </si>
-  <si>
-    <t>NCT02707354</t>
-  </si>
-  <si>
-    <t>NCT01964911</t>
-  </si>
-  <si>
-    <t>NCT03137511</t>
-  </si>
-  <si>
-    <t>NCT01682265</t>
+    <t>NCT03020277</t>
+  </si>
+  <si>
+    <t>NCT03099993</t>
+  </si>
+  <si>
+    <t>NCT02574403</t>
+  </si>
+  <si>
+    <t>NCT02859233</t>
+  </si>
+  <si>
+    <t>NCT02723383</t>
   </si>
   <si>
     <t>NCT02624271</t>
@@ -412,223 +427,223 @@
     <t>NCT01630278</t>
   </si>
   <si>
+    <t>NCT03015818</t>
+  </si>
+  <si>
+    <t>NCT02424916</t>
+  </si>
+  <si>
+    <t>NCT03330379</t>
+  </si>
+  <si>
+    <t>NCT03185052</t>
+  </si>
+  <si>
     <t>NCT03192033</t>
   </si>
   <si>
-    <t>NCT02574403</t>
+    <t>NCT03218553</t>
+  </si>
+  <si>
+    <t>NCT02345681</t>
   </si>
   <si>
     <t>NCT02376491</t>
   </si>
   <si>
-    <t>NCT03099993</t>
-  </si>
-  <si>
-    <t>NCT02859233</t>
-  </si>
-  <si>
-    <t>NCT03020277</t>
-  </si>
-  <si>
-    <t>NCT03218553</t>
-  </si>
-  <si>
-    <t>NCT02723383</t>
-  </si>
-  <si>
-    <t>NCT02345681</t>
-  </si>
-  <si>
-    <t>NCT03185052</t>
-  </si>
-  <si>
-    <t>NCT02424916</t>
-  </si>
-  <si>
-    <t>NCT03015818</t>
-  </si>
-  <si>
-    <t>NCT03330379</t>
-  </si>
-  <si>
     <t>NCT03337412</t>
   </si>
   <si>
+    <t>NCT03369171</t>
+  </si>
+  <si>
+    <t>NCT02801695</t>
+  </si>
+  <si>
+    <t>NCT03195452</t>
+  </si>
+  <si>
+    <t>NCT03307135</t>
+  </si>
+  <si>
+    <t>NCT02972684</t>
+  </si>
+  <si>
+    <t>NCT04005560</t>
+  </si>
+  <si>
+    <t>NCT02988557</t>
+  </si>
+  <si>
     <t>NCT02202291</t>
   </si>
   <si>
+    <t>NCT01936532</t>
+  </si>
+  <si>
     <t>NCT02748590</t>
   </si>
   <si>
+    <t>NCT01615900</t>
+  </si>
+  <si>
     <t>NCT03143751</t>
   </si>
   <si>
-    <t>NCT03195452</t>
-  </si>
-  <si>
-    <t>NCT01615900</t>
-  </si>
-  <si>
-    <t>NCT02972684</t>
-  </si>
-  <si>
-    <t>NCT03369171</t>
-  </si>
-  <si>
-    <t>NCT02801695</t>
-  </si>
-  <si>
-    <t>NCT01936532</t>
-  </si>
-  <si>
     <t>NCT03915041</t>
   </si>
   <si>
-    <t>NCT03307135</t>
-  </si>
-  <si>
-    <t>NCT04005560</t>
-  </si>
-  <si>
-    <t>NCT02988557</t>
-  </si>
-  <si>
     <t>NCT01834417</t>
   </si>
   <si>
     <t>NCT04024176</t>
   </si>
   <si>
+    <t>NCT03607162</t>
+  </si>
+  <si>
+    <t>NCT04247048</t>
+  </si>
+  <si>
+    <t>NCT03573739</t>
+  </si>
+  <si>
+    <t>NCT03960801</t>
+  </si>
+  <si>
+    <t>NCT04255823</t>
+  </si>
+  <si>
+    <t>NCT02544711</t>
+  </si>
+  <si>
+    <t>NCT04453384</t>
+  </si>
+  <si>
+    <t>NCT03889353</t>
+  </si>
+  <si>
+    <t>NCT02590211</t>
+  </si>
+  <si>
+    <t>NCT04028830</t>
+  </si>
+  <si>
+    <t>NCT03925571</t>
+  </si>
+  <si>
+    <t>NCT03604120</t>
+  </si>
+  <si>
+    <t>NCT04536883</t>
+  </si>
+  <si>
     <t>NCT04611425</t>
   </si>
   <si>
-    <t>NCT03604120</t>
-  </si>
-  <si>
-    <t>NCT03607162</t>
-  </si>
-  <si>
-    <t>NCT03960801</t>
-  </si>
-  <si>
-    <t>NCT04028830</t>
+    <t>NCT03549637</t>
+  </si>
+  <si>
+    <t>NCT03234127</t>
   </si>
   <si>
     <t>NCT02556424</t>
   </si>
   <si>
-    <t>NCT04255823</t>
-  </si>
-  <si>
-    <t>NCT04453384</t>
-  </si>
-  <si>
-    <t>NCT03549637</t>
-  </si>
-  <si>
-    <t>NCT02590211</t>
-  </si>
-  <si>
-    <t>NCT03889353</t>
-  </si>
-  <si>
-    <t>NCT02544711</t>
-  </si>
-  <si>
-    <t>NCT04536883</t>
-  </si>
-  <si>
-    <t>NCT03925571</t>
-  </si>
-  <si>
-    <t>NCT04247048</t>
-  </si>
-  <si>
-    <t>NCT03573739</t>
-  </si>
-  <si>
-    <t>NCT03234127</t>
+    <t>NCT02566746</t>
+  </si>
+  <si>
+    <t>NCT04310189</t>
+  </si>
+  <si>
+    <t>NCT04295239</t>
+  </si>
+  <si>
+    <t>NCT03344692</t>
+  </si>
+  <si>
+    <t>NCT05185102</t>
+  </si>
+  <si>
+    <t>NCT04572009</t>
+  </si>
+  <si>
+    <t>NCT04139486</t>
+  </si>
+  <si>
+    <t>NCT02146144</t>
+  </si>
+  <si>
+    <t>NCT04046120</t>
+  </si>
+  <si>
+    <t>NCT01720407</t>
+  </si>
+  <si>
+    <t>NCT03098706</t>
   </si>
   <si>
     <t>NCT03802305</t>
   </si>
   <si>
-    <t>NCT05185102</t>
-  </si>
-  <si>
-    <t>NCT04046120</t>
-  </si>
-  <si>
-    <t>NCT03098706</t>
-  </si>
-  <si>
     <t>NCT03190577</t>
   </si>
   <si>
-    <t>NCT04572009</t>
-  </si>
-  <si>
-    <t>NCT01720407</t>
-  </si>
-  <si>
-    <t>NCT04139486</t>
-  </si>
-  <si>
-    <t>NCT03344692</t>
-  </si>
-  <si>
-    <t>NCT02146144</t>
-  </si>
-  <si>
-    <t>NCT04310189</t>
-  </si>
-  <si>
-    <t>NCT04295239</t>
-  </si>
-  <si>
-    <t>NCT02566746</t>
+    <t>NCT03325088</t>
+  </si>
+  <si>
+    <t>NCT03862833</t>
+  </si>
+  <si>
+    <t>NCT05335954</t>
+  </si>
+  <si>
+    <t>NCT03961802</t>
+  </si>
+  <si>
+    <t>NCT04600479</t>
+  </si>
+  <si>
+    <t>NCT04547062</t>
+  </si>
+  <si>
+    <t>NCT04717141</t>
+  </si>
+  <si>
+    <t>NCT04496401</t>
+  </si>
+  <si>
+    <t>NCT04112693</t>
+  </si>
+  <si>
+    <t>NCT05005169</t>
+  </si>
+  <si>
+    <t>NCT02564172</t>
+  </si>
+  <si>
+    <t>NCT03397303</t>
+  </si>
+  <si>
+    <t>NCT03334682</t>
   </si>
   <si>
     <t>NCT04513834</t>
   </si>
   <si>
-    <t>NCT05005169</t>
-  </si>
-  <si>
-    <t>NCT04547062</t>
-  </si>
-  <si>
     <t>NCT05000658</t>
   </si>
   <si>
-    <t>NCT04496401</t>
-  </si>
-  <si>
-    <t>NCT03862833</t>
-  </si>
-  <si>
-    <t>NCT05335954</t>
-  </si>
-  <si>
-    <t>NCT03961802</t>
-  </si>
-  <si>
-    <t>NCT04112693</t>
-  </si>
-  <si>
-    <t>NCT04600479</t>
-  </si>
-  <si>
-    <t>NCT04717141</t>
-  </si>
-  <si>
-    <t>NCT03334682</t>
-  </si>
-  <si>
-    <t>NCT03325088</t>
-  </si>
-  <si>
-    <t>NCT02564172</t>
+    <t>NCT03430076</t>
+  </si>
+  <si>
+    <t>NCT03643081</t>
+  </si>
+  <si>
+    <t>NCT04108728</t>
+  </si>
+  <si>
+    <t>NCT04148495</t>
   </si>
   <si>
     <t>NCT05042479</t>
@@ -637,45 +652,42 @@
     <t>NCT04270656</t>
   </si>
   <si>
-    <t>NCT03643081</t>
-  </si>
-  <si>
-    <t>NCT04108728</t>
+    <t>NCT05415514</t>
+  </si>
+  <si>
+    <t>NCT05117996</t>
   </si>
   <si>
     <t>NCT03197194</t>
   </si>
   <si>
-    <t>NCT03430076</t>
-  </si>
-  <si>
-    <t>NCT05415514</t>
-  </si>
-  <si>
-    <t>NCT05117996</t>
-  </si>
-  <si>
     <t>NCT05867862</t>
   </si>
   <si>
+    <t>NCT00200538</t>
+  </si>
+  <si>
     <t>NCT00422721</t>
   </si>
   <si>
     <t>NCT00238056</t>
   </si>
   <si>
-    <t>NCT00200538</t>
-  </si>
-  <si>
     <t>NCT01015196</t>
   </si>
   <si>
     <t>2010-019178-33</t>
   </si>
   <si>
+    <t>2011-000418-21</t>
+  </si>
+  <si>
     <t>2010-019462-92</t>
   </si>
   <si>
+    <t>2009-016898-14</t>
+  </si>
+  <si>
     <t>2013-003197-27</t>
   </si>
   <si>
@@ -685,25 +697,34 @@
     <t>2007-001209-64</t>
   </si>
   <si>
+    <t>2011-004764-30</t>
+  </si>
+  <si>
     <t>2013-002727-42</t>
   </si>
   <si>
+    <t>2014-003004-69</t>
+  </si>
+  <si>
     <t>2011-003063-30</t>
   </si>
   <si>
+    <t>2016-002886-77</t>
+  </si>
+  <si>
     <t>2017-000442-21</t>
   </si>
   <si>
-    <t>2016-002886-77</t>
+    <t>2013-001443-31</t>
+  </si>
+  <si>
+    <t>2016-000419-34</t>
   </si>
   <si>
     <t>2017-000073-36</t>
   </si>
   <si>
-    <t>2016-000419-34</t>
-  </si>
-  <si>
-    <t>2013-001443-31</t>
+    <t>2019-000753-31</t>
   </si>
   <si>
     <t>2015-000468-33</t>
@@ -712,18 +733,24 @@
     <t>2020-003689-37</t>
   </si>
   <si>
-    <t>2019-000753-31</t>
+    <t>2019-003602-27</t>
+  </si>
+  <si>
+    <t>2020-003209-77</t>
+  </si>
+  <si>
+    <t>2018-003218-42</t>
   </si>
   <si>
     <t>2016-003997-41</t>
   </si>
   <si>
-    <t>2018-003218-42</t>
-  </si>
-  <si>
     <t>2017-002061-22</t>
   </si>
   <si>
+    <t>2020-002029-28</t>
+  </si>
+  <si>
     <t>2021-001571-17</t>
   </si>
   <si>
@@ -787,13 +814,16 @@
     <t>Antimicrobial Prophylaxis in Children With Isolated Vesico-Ureteral Reflux. A Randomised Prospective Study of Continuous Low Dose of Trimethoprim-Sulfamethoxazole Versus Surveillance.</t>
   </si>
   <si>
+    <t>Safety and Efficacy of Pravastatin in Relapsing-remitting MS: a Double Blind Placebo Controlled Study</t>
+  </si>
+  <si>
+    <t>Continuous Regional Analgesia After Total Knee Arthroplasty. Normal Saline or Dextrose 5% in Water as Fluid Medium for Pre-Placement Expansion in Order to Facilitate the Catheter Passing</t>
+  </si>
+  <si>
     <t>Evaluation of the Efficiency of Radiofrequency in the Treatment of Gastroesophageal Reflux Disease</t>
   </si>
   <si>
-    <t>Continuous Regional Analgesia After Total Knee Arthroplasty. Normal Saline or Dextrose 5% in Water as Fluid Medium for Pre-Placement Expansion in Order to Facilitate the Catheter Passing</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of Pravastatin in Relapsing-remitting MS: a Double Blind Placebo Controlled Study</t>
+    <t>Treatment of Metastatic Melanoma With Autologous Melan-A/MART-1 Specific CTL Clones</t>
   </si>
   <si>
     <t>Comparison of Pharmacokinetics and Pharmacodynamics of Subcutaneous Versus Intravenous Administration of Bortezomib in Patients With Multiple Myeloma</t>
@@ -808,40 +838,43 @@
     <t>Digestive and Nutritional Effects of Probiotics (Bifidobacterium Longum and Lactobacillus GG) Supplementation in Premature Newborns</t>
   </si>
   <si>
-    <t>Treatment of Metastatic Melanoma With Autologous Melan-A/MART-1 Specific CTL Clones</t>
-  </si>
-  <si>
     <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Combination With Melphalan and Dexamethasone in Subjects With Newly-diagnosed Light-chain (AL)-Amyloidosis</t>
   </si>
   <si>
+    <t>Front-line High-dose Chemotherapy (HDT) Combined With Rituximab for Adults With Aggressive Large B-cell Lymphoma (DLBCL) : Goelams 074 Trial.</t>
+  </si>
+  <si>
+    <t>A Phase II Trial Evaluating the Safety and the Efficacy of High-Dose Imatinib in Relapsed/Refractory c-Kit Positive and BCR-Abl Negative AML Patients</t>
+  </si>
+  <si>
+    <t>Analysis of Dopamine Neuronal Cell Loss Within the Enteric Nervous System in Parkinson's Disease</t>
+  </si>
+  <si>
     <t>Intracoronary Injection of Autologous Bone Marrow Mononuclear Cells for Severe Myocardial Infarction</t>
   </si>
   <si>
+    <t>Interest of Treatment of Polytraumatisms With Corticoids (Hydrocortisone) for Patient With Relative Adrenocortical Insufficiency</t>
+  </si>
+  <si>
+    <t>Colonoscopy by Videocapsuls Versus Standard Colonoscopy. Intra-individual Comparison for the Subject With a Medium or High Risk of Colorectal Cancer.</t>
+  </si>
+  <si>
     <t>"Effects of Oral Citrulline on Protein Metabolism in Healthy Humans: a Prospective, Randomized, Double-blind , Cross-over Study"</t>
   </si>
   <si>
-    <t>A Phase II Trial Evaluating the Safety and the Efficacy of High-Dose Imatinib in Relapsed/Refractory c-Kit Positive and BCR-Abl Negative AML Patients</t>
-  </si>
-  <si>
-    <t>Colonoscopy by Videocapsuls Versus Standard Colonoscopy. Intra-individual Comparison for the Subject With a Medium or High Risk of Colorectal Cancer.</t>
-  </si>
-  <si>
-    <t>Interest of Treatment of Polytraumatisms With Corticoids (Hydrocortisone) for Patient With Relative Adrenocortical Insufficiency</t>
-  </si>
-  <si>
-    <t>Front-line High-dose Chemotherapy (HDT) Combined With Rituximab for Adults With Aggressive Large B-cell Lymphoma (DLBCL) : Goelams 074 Trial.</t>
-  </si>
-  <si>
-    <t>Analysis of Dopamine Neuronal Cell Loss Within the Enteric Nervous System in Parkinson's Disease</t>
+    <t>A Prospective, Randomized, Open, Multicentric Study Intended to Evaluate the Efficacy and Tolerability of Sequential Treatment Based on Rabbit Anti-T-lymphocyte Serum, of Mycophenolate Mofetil and of Cyclosporin, Without Concomitant Corticosteroids, After a First Cadaveric Renal Transplant</t>
+  </si>
+  <si>
+    <t>Physiological and Psychological Responses to Stress in Year 6 Medical Students Faced to Ambulatory Symptomatic Patients</t>
   </si>
   <si>
     <t>Randomized Placebo-controlled Trial of Valproic Acid in Patients With Progressive Supranuclear Palsy</t>
   </si>
   <si>
-    <t>Physiological and Psychological Responses to Stress in Year 6 Medical Students Faced to Ambulatory Symptomatic Patients</t>
-  </si>
-  <si>
-    <t>A Prospective, Randomized, Open, Multicentric Study Intended to Evaluate the Efficacy and Tolerability of Sequential Treatment Based on Rabbit Anti-T-lymphocyte Serum, of Mycophenolate Mofetil and of Cyclosporin, Without Concomitant Corticosteroids, After a First Cadaveric Renal Transplant</t>
+    <t>Multicenter Prospective Study for a Rational Management of Appendicitis in Children</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics of Ertapenem When Used in Empiric Treatment in Burn Patients. Prospective Open Label Study.</t>
   </si>
   <si>
     <t>Phase II Two-step Radioimmunotherapy Clinical Study in Medullary Thyroid Carcinoma</t>
@@ -850,88 +883,97 @@
     <t>Evaluation of Macrophagic Activation and Immunophenotypic Profile of Patients With Gaucher's Disease.</t>
   </si>
   <si>
-    <t>Multicenter Prospective Study for a Rational Management of Appendicitis in Children</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics of Ertapenem When Used in Empiric Treatment in Burn Patients. Prospective Open Label Study.</t>
+    <t>Analysis of the Enteric Nervous System Using Colonic Biopsies: a Useful Biomarker for the Differential Diagnosis of Parkinsonian Syndromes?</t>
   </si>
   <si>
     <t>MESenchymal Stem Cells: Alterations in GEnome</t>
   </si>
   <si>
+    <t>Prospective Multicenter Pilot Study Evaluating the Analgesic Effect of an Injection of Botulinum Toxin Type A in the Ganglion Impar in Patients With Chronic Proctalgia According to the Criteria of Rome III</t>
+  </si>
+  <si>
+    <t>Phase 3 Study of Hydrocortisone and Fludrocortisone in Glucocorticoid Insufficiency Related to Traumatic Brain Injury</t>
+  </si>
+  <si>
     <t>TIL (Tumor Infiltrating Lymphocytes) and IL2 (Interleukin 2) Versus Abstention as Adjuvant Treatment in Melanoma With Only One Invaded Lymphnode After Lymphnodes Excision</t>
   </si>
   <si>
-    <t>Phase 3 Study of Hydrocortisone and Fludrocortisone in Glucocorticoid Insufficiency Related to Traumatic Brain Injury</t>
-  </si>
-  <si>
-    <t>Analysis of the Enteric Nervous System Using Colonic Biopsies: a Useful Biomarker for the Differential Diagnosis of Parkinsonian Syndromes?</t>
-  </si>
-  <si>
-    <t>Prospective Multicenter Pilot Study Evaluating the Analgesic Effect of an Injection of Botulinum Toxin Type A in the Ganglion Impar in Patients With Chronic Proctalgia According to the Criteria of Rome III</t>
-  </si>
-  <si>
     <t>Phase II Study of a Reduced-toxicity " Submyeloablative " Conditioning Regimen Prior to Allogeneic Stem Cell Transplantation in Patients With Hematological Malignancies</t>
   </si>
   <si>
+    <t>Pilot, Multicenter and Prospective Study of the Natural Killer Index From Hematopoietic Stem Cell Graft at a Genotypic, Phenotypic and Functional Level</t>
+  </si>
+  <si>
     <t>Monocentric, Randomized, Single Blinded Study Designed to Evaluate the Effect of Low Level Laser Therapy on Pain Occurring After Insertion of an Orthodontic Device : the "Quadhelix"</t>
   </si>
   <si>
+    <t>A Phase II Open-label, Multicenter, Non Randomized Study Evaluating the Efficacy and the Safety of Clofarabine in Combination With IV Busulfan and Thymoglobulin (CBT) as a Reduced Intensity Conditioning Regimen Prior to Allogeneic Stem Cell Transplantation in Adult Patients With High-risk AML, MDS or ALL.</t>
+  </si>
+  <si>
+    <t>A Prospective, Multicenter, Randomized, Controlled, Parallel-group, Open Label Trial Evaluating Benefits of Nasal High Flow Therapy (HFT) in Preoxygenation Before Tracheal Intubation in Acute Hypoxemic Respiratory Failure</t>
+  </si>
+  <si>
+    <t>Renal Prognosis of Former Preterm Infants 3 to 10 Years After Neonatal Acute Renal Failure</t>
+  </si>
+  <si>
+    <t>Study of the Role of PCSK9 and FXR in the Physiopathology of the Joint Dyslipidemia Associated to the Human Immunoresistance</t>
+  </si>
+  <si>
     <t>Pharmacoeconomic and Clinical Prospective Comparison of PET-scan and MRI in Patients With de Novo Multiple Myeloma Less Than 65 Years of Age Treated According to IFM/DFCI 2009 Clinical Trial.</t>
   </si>
   <si>
     <t>Frontline Therapy of Diffuse Large B Cell Lymphoma of the Adult ( 18 to 60 Years Old): Randomization Between High Dose Chemotherapy With Rituximab and CHOP 14 -Rituximab. Multicentric Randomized Prospective Trial.</t>
   </si>
   <si>
-    <t>A Phase II Open-label, Multicenter, Non Randomized Study Evaluating the Efficacy and the Safety of Clofarabine in Combination With IV Busulfan and Thymoglobulin (CBT) as a Reduced Intensity Conditioning Regimen Prior to Allogeneic Stem Cell Transplantation in Adult Patients With High-risk AML, MDS or ALL.</t>
-  </si>
-  <si>
-    <t>Pilot, Multicenter and Prospective Study of the Natural Killer Index From Hematopoietic Stem Cell Graft at a Genotypic, Phenotypic and Functional Level</t>
-  </si>
-  <si>
-    <t>A Prospective, Multicenter, Randomized, Controlled, Parallel-group, Open Label Trial Evaluating Benefits of Nasal High Flow Therapy (HFT) in Preoxygenation Before Tracheal Intubation in Acute Hypoxemic Respiratory Failure</t>
-  </si>
-  <si>
-    <t>Study of the Role of PCSK9 and FXR in the Physiopathology of the Joint Dyslipidemia Associated to the Human Immunoresistance</t>
-  </si>
-  <si>
-    <t>Renal Prognosis of Former Preterm Infants 3 to 10 Years After Neonatal Acute Renal Failure</t>
+    <t>Impact of Burden of Comorbidities on Health Related Quality of Life Six Months After Transcatheter Aortic Valve Implantation in Patients Aged 75 Years and Older.</t>
+  </si>
+  <si>
+    <t>Pharmaco-economic Cost-effective Prospective Randomized Trial Evaluating the Open Interest Caphosol ® Mouthwashes in the Prevention and Treatment of Severe Oral Mucositis in Patients Receiving High-dose Chemotherapy in Hematology</t>
+  </si>
+  <si>
+    <t>Prospective Monocentric Open Label Non Randomized Uncontrolled Phase I/II Clinical Gene Therapy Protocol for the Treatment of Retinal Dystrophy Caused by Defects in RPE65</t>
+  </si>
+  <si>
+    <t>Frequency, Consequences and Determinants of Sub-optimal Care in the Initial Care of Severe Bacterial Infections of the Child</t>
+  </si>
+  <si>
+    <t>Phase I/II Trial of Carfilzomib Plus Melphalan and Prednisone in Elderly Untreated Patients With Multiple Myeloma.</t>
+  </si>
+  <si>
+    <t>Characterization of the Digestive Functions and the Enteric Nervous System in Obesity. Investigations of Relationships With Metabolism Disorders(EnteroNeurObesity)</t>
+  </si>
+  <si>
+    <t>Clofarabine/Ara-C Treatment Combined With Reduced-intensity Conditioning Allogeneic Stem Cell Transplantation for Acute Myeloid Leukemia in Primary Treatment Failure</t>
+  </si>
+  <si>
+    <t>Phase II Study of First Line Treatment of Chronic Graft Versus Host Disease With the Association of Ciclosporine, Corticosteroids and Rituximab</t>
+  </si>
+  <si>
+    <t>Profiling of Original Cellular and Humoral Biomarkers of Type 1 Diabetes</t>
   </si>
   <si>
     <t>Cost-effectiveness of New Surgical Treatments for Haemorrhoidal Disease - Randomized Controlled Trial Comparing Transanal Doppler-guided Arterial Ligation With Mucopexy and Stapled Haemorrhoidopexy (Longo's Technique)</t>
   </si>
   <si>
-    <t>Phase II Study of First Line Treatment of Chronic Graft Versus Host Disease With the Association of Ciclosporine, Corticosteroids and Rituximab</t>
-  </si>
-  <si>
     <t>Effects of Scan Control for Presumed Difficult Epidural Infiltrations: a Monocentric, Prospective, Randomized, Controlled, Simple Blind Trial</t>
   </si>
   <si>
-    <t>Frequency, Consequences and Determinants of Sub-optimal Care in the Initial Care of Severe Bacterial Infections of the Child</t>
-  </si>
-  <si>
-    <t>Characterization of the Digestive Functions and the Enteric Nervous System in Obesity. Investigations of Relationships With Metabolism Disorders(EnteroNeurObesity)</t>
-  </si>
-  <si>
-    <t>Phase I/II Trial of Carfilzomib Plus Melphalan and Prednisone in Elderly Untreated Patients With Multiple Myeloma.</t>
-  </si>
-  <si>
-    <t>Impact of Burden of Comorbidities on Health Related Quality of Life Six Months After Transcatheter Aortic Valve Implantation in Patients Aged 75 Years and Older.</t>
-  </si>
-  <si>
-    <t>Profiling of Original Cellular and Humoral Biomarkers of Type 1 Diabetes</t>
-  </si>
-  <si>
-    <t>Prospective Monocentric Open Label Non Randomized Uncontrolled Phase I/II Clinical Gene Therapy Protocol for the Treatment of Retinal Dystrophy Caused by Defects in RPE65</t>
-  </si>
-  <si>
-    <t>Clofarabine/Ara-C Treatment Combined With Reduced-intensity Conditioning Allogeneic Stem Cell Transplantation for Acute Myeloid Leukemia in Primary Treatment Failure</t>
-  </si>
-  <si>
     <t>Evaluation of the Efficacy of Cobedding in Daily Weight Gain of Neonate Twins</t>
   </si>
   <si>
-    <t>Pharmaco-economic Cost-effective Prospective Randomized Trial Evaluating the Open Interest Caphosol ® Mouthwashes in the Prevention and Treatment of Severe Oral Mucositis in Patients Receiving High-dose Chemotherapy in Hematology</t>
+    <t>Ultrasonography Assessment of Septic Arthritis on Native Joint: a Descriptive, Exploratory, Prospective, Multicentric Trial</t>
+  </si>
+  <si>
+    <t>Endovascular Versus Open Repair of the Common Femoral Artery: a Randomized Trial (TECCO)</t>
+  </si>
+  <si>
+    <t>Phase 2 Multicentric Open-label Study of Switch From Abacavir/Lamivudine Fixed Dose Combination Plus Nevirapine to Abacavir/Lamivudine/Dolutegravir in Virologically Suppressed HIV-1 Infected Adults</t>
+  </si>
+  <si>
+    <t>Pre-emptive Azacitidine and Donor Lymphocyte Infusions Following Allogeneic Hematopoietic Stem Cell Transplantation for High Risk Acute Myeloid Leukemia and Myelodysplastic Syndrome</t>
+  </si>
+  <si>
+    <t>Evaluation of 18 Fluoro-deoxy-glucose Positrons Emission Tomography Combined With Computed Tomography (18-FDG TEP-CT ) in the Diagnosis of the Degeneration of Intraductal Papillary Mucinous Tumor of the Pancreas</t>
   </si>
   <si>
     <t>High Flow Nasal Oxygen Therapy for Hypoxemy After Cardiac Surgery</t>
@@ -940,175 +982,182 @@
     <t>Medico-economic Evaluation of Subcutaneous Automatic Resorbable Staples Device</t>
   </si>
   <si>
-    <t>Endovascular Versus Open Repair of the Common Femoral Artery: a Randomized Trial (TECCO)</t>
-  </si>
-  <si>
-    <t>Evaluation of 18 Fluoro-deoxy-glucose Positrons Emission Tomography Combined With Computed Tomography (18-FDG TEP-CT ) in the Diagnosis of the Degeneration of Intraductal Papillary Mucinous Tumor of the Pancreas</t>
+    <t>A PHASE III STUDY OF VELCADE (BORTEZOMIB) THALIDOMIDE DEXAMETHASONE (VTD) VERSUS VELCADE (BORTEZOMIB) CYCLOPHOSPHAMIDE DEXAMETHASONE (VCD) AS AN INDUCTION TREATMENT PRIOR TO AUTOLOGOUS STEM CELL TRANSPLANTATION IN PATIENTS WITH NEWLY DIAGNOSED MULTIPLE MYELOMA."</t>
+  </si>
+  <si>
+    <t>Effects of Oral Citrulline on Protein Metabolism in Patients With Intestinal Failure : a Prospective, Randomized, Double-blind, Cross-over Study</t>
+  </si>
+  <si>
+    <t>Prospective Randomized Controlled Trial to Evaluate the Efficacy and Safety of an Equimolar Mixture of Oxygen and Nitrous Oxide in External Cephalic Version (ECV) in Singleton Pregnancy in Breech Presentation at Term</t>
   </si>
   <si>
     <t>Therapeutic Monitoring of Ceftriaxone, Prescribed at High Doses, in the Treatment of Meningitis and Others Neurological Infections.</t>
   </si>
   <si>
-    <t>Pre-emptive Azacitidine and Donor Lymphocyte Infusions Following Allogeneic Hematopoietic Stem Cell Transplantation for High Risk Acute Myeloid Leukemia and Myelodysplastic Syndrome</t>
-  </si>
-  <si>
-    <t>Effects of Oral Citrulline on Protein Metabolism in Patients With Intestinal Failure : a Prospective, Randomized, Double-blind, Cross-over Study</t>
+    <t>Tissue and Plasma Pharmacokinetics of Cefazolin in Antibiotic Prophylaxis in Bariatric Surgery, an Open Label, Prospective, Single Center Trial</t>
   </si>
   <si>
     <t>FREEDOM: "Pilot Study of the Feasibility and Safety of Resuming Early Walking After Manual Compression in Patients Treated for Peripheral Artery Disease by Endovascular Technique Involving Retrograde Femoral Puncture"</t>
   </si>
   <si>
-    <t>Ultrasonography Assessment of Septic Arthritis on Native Joint: a Descriptive, Exploratory, Prospective, Multicentric Trial</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Controlled Trial to Evaluate the Efficacy and Safety of an Equimolar Mixture of Oxygen and Nitrous Oxide in External Cephalic Version (ECV) in Singleton Pregnancy in Breech Presentation at Term</t>
-  </si>
-  <si>
-    <t>Phase 2 Multicentric Open-label Study of Switch From Abacavir/Lamivudine Fixed Dose Combination Plus Nevirapine to Abacavir/Lamivudine/Dolutegravir in Virologically Suppressed HIV-1 Infected Adults</t>
-  </si>
-  <si>
-    <t>A PHASE III STUDY OF VELCADE (BORTEZOMIB) THALIDOMIDE DEXAMETHASONE (VTD) VERSUS VELCADE (BORTEZOMIB) CYCLOPHOSPHAMIDE DEXAMETHASONE (VCD) AS AN INDUCTION TREATMENT PRIOR TO AUTOLOGOUS STEM CELL TRANSPLANTATION IN PATIENTS WITH NEWLY DIAGNOSED MULTIPLE MYELOMA."</t>
-  </si>
-  <si>
-    <t>Tissue and Plasma Pharmacokinetics of Cefazolin in Antibiotic Prophylaxis in Bariatric Surgery, an Open Label, Prospective, Single Center Trial</t>
+    <t>Regenerative Medicine of Articular Cartilage: Characterization and Comparison of Chondrogenic Potential and Immunomodulatory Adult Mesenchymal Stem Cells</t>
+  </si>
+  <si>
+    <t>Multicenter Randomized Double-blind Study Evaluating the Effects of Botulinum Toxin A Associated With ropivacaïne Versus ropivacaïne Alone in the Treatment of the Myofascial Pelviperineal Pain</t>
+  </si>
+  <si>
+    <t>Monocentric Study and Prognostic of Treatments Endodontics of Teeth With Periapical Pathology Realized CSERD (Nantes University Hospital)</t>
+  </si>
+  <si>
+    <t>Randomized Open Phase III Trial Testing Efficacy of Gemtuzumab Ozogamycin (MYLOTARG) Associated to Intensive Chemotherapy for Patients Aged Between 18-60 Years and Presenting an Acute Myeloid Leukemia (AML) With Intermediate Risk</t>
   </si>
   <si>
     <t>Efficacy Assessment of Early Osteopathic Manipulative Treatment (OMT) in the Management of Suboptimal Breastfeeding Behaviour in Healthy Newborns. A Prospective Monocentric Randomized Double-blinded Study.</t>
   </si>
   <si>
-    <t>Monocentric Study and Prognostic of Treatments Endodontics of Teeth With Periapical Pathology Realized CSERD (Nantes University Hospital)</t>
+    <t>Antifungal Prophylaxis With Micafungin After Cord Blood Allogeneic Stem Cell Transplantation</t>
+  </si>
+  <si>
+    <t>Diagnostic, Prospective, Comparative, Multicentric Study of the PET / CT With 68Ga-DOTANOC Versus Conventional Imaging Procedures (octréoscan ® Scintigraphy and CT / MRI) in the Assessment of in Gastroenteropancreatic Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic and Imaging Optimization Study of Pretargeted Immuno-PET Using the Anti-CEA x Anti-HSG TF2 Bispecific Antibody and 68Ga-IMP-288 Peptide in Patients With Recurrences of Medullary Thyroid Carcinoma.</t>
+  </si>
+  <si>
+    <t>Physiopathological Study of Autonomic Failure in Parkinson's Disease : a Monocentric Study</t>
+  </si>
+  <si>
+    <t>Allogeneic Hematopoietic Stem Cell Transplantation Using a Non-myeloablative Preparative Regimen of Total Lymphoid Irradiation and Anti-thymocyte Globulin for Older Patients With Relapsed Lymphoid Malignancies</t>
   </si>
   <si>
     <t>Phase II, Multicenter, Open Label, Prospective to Evaluate Efficacy and Tolerance of a Chemoimmunotherapy With HyperCVAD or Vincristine/Dexamethasone Plus the Anti-CD22 Monovlonal Antobody Epratuzumab for the Treatment of Adult Relapsed/Refractory CD22+ B-Acute Lymphoblastic Leukaemia Patients : CHEPRALL Study, a GRAALL Study.</t>
   </si>
   <si>
-    <t>Antifungal Prophylaxis With Micafungin After Cord Blood Allogeneic Stem Cell Transplantation</t>
+    <t>Evaluation of the Interest of Positive Expiratory Pressure (PEP) Delivery by EzPAP® Device Associated With Respiratory Physiotherapy in the Treatment of Postoperative Pulmonary Atelectasis in Patients After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>10 Patients Bicentric Prospective Study of Hybrid Bone Substitution With Calcium-phosphate Ceramic Biomaterial and Autologous Bone Marrow for Mandibular Osteoradionecrosis (ORN) Treatment</t>
   </si>
   <si>
     <t>Neuropsychological Impairment and Quality of Life in Neurofibromatosis Type 1</t>
   </si>
   <si>
-    <t>10 Patients Bicentric Prospective Study of Hybrid Bone Substitution With Calcium-phosphate Ceramic Biomaterial and Autologous Bone Marrow for Mandibular Osteoradionecrosis (ORN) Treatment</t>
-  </si>
-  <si>
     <t>Transversal Multiaxial Evaluation and 5-year Follow-up of a Cohort of French Gamblers.</t>
   </si>
   <si>
-    <t>Diagnostic, Prospective, Comparative, Multicentric Study of the PET / CT With 68Ga-DOTANOC Versus Conventional Imaging Procedures (octréoscan ® Scintigraphy and CT / MRI) in the Assessment of in Gastroenteropancreatic Neuroendocrine Tumors</t>
-  </si>
-  <si>
-    <t>Allogeneic Hematopoietic Stem Cell Transplantation Using a Non-myeloablative Preparative Regimen of Total Lymphoid Irradiation and Anti-thymocyte Globulin for Older Patients With Relapsed Lymphoid Malignancies</t>
-  </si>
-  <si>
-    <t>Randomized Open Phase III Trial Testing Efficacy of Gemtuzumab Ozogamycin (MYLOTARG) Associated to Intensive Chemotherapy for Patients Aged Between 18-60 Years and Presenting an Acute Myeloid Leukemia (AML) With Intermediate Risk</t>
-  </si>
-  <si>
-    <t>Evaluation of the Interest of Positive Expiratory Pressure (PEP) Delivery by EzPAP® Device Associated With Respiratory Physiotherapy in the Treatment of Postoperative Pulmonary Atelectasis in Patients After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Multicenter Randomized Double-blind Study Evaluating the Effects of Botulinum Toxin A Associated With ropivacaïne Versus ropivacaïne Alone in the Treatment of the Myofascial Pelviperineal Pain</t>
-  </si>
-  <si>
-    <t>Regenerative Medicine of Articular Cartilage: Characterization and Comparison of Chondrogenic Potential and Immunomodulatory Adult Mesenchymal Stem Cells</t>
-  </si>
-  <si>
-    <t>Physiopathological Study of Autonomic Failure in Parkinson's Disease : a Monocentric Study</t>
-  </si>
-  <si>
-    <t>Pharmacokinetic and Imaging Optimization Study of Pretargeted Immuno-PET Using the Anti-CEA x Anti-HSG TF2 Bispecific Antibody and 68Ga-IMP-288 Peptide in Patients With Recurrences of Medullary Thyroid Carcinoma.</t>
+    <t>Phase 2 Study of a Reduced-toxicity Myeloablative Conditionning Regimen Using Fludarabine and Full Doses of iv Busulfan in Pediatric Patients Not Eligible for Standard Myeloablative Conditioning Regimens</t>
+  </si>
+  <si>
+    <t>Phase 2 study of a reduced-toxicity myeloablative conditionning regimen using  fludarabine and full doses of IV busulfan in pediatric patients not eligible for standard myeloablative conditioning regimens. 
+ Etude de phase 2 d’un conditionnement myéloablatif à toxicité réduite de type Fludarabine et Busulfan intra-veineux à pleine dose dans certaines catégories d’enfants et d’adolescents non éligibles à une approche d’allogreffe standard</t>
+  </si>
+  <si>
+    <t>Behavioural Addictions Occurring During a Dopaminergic Treatment Prescribe Under Parkinson's Disease: Study of the Psychopathological, Neurological, Pharmacokinetic and Genetic Profiles.</t>
+  </si>
+  <si>
+    <t>Efficacy and Tolerance of Ultrasound-guided Needling and Lavage of Calcific Tendinitis of the Rotator Cuff Performed With or Without Subacromial Corticosteroid Injection: A Double Blind Controlled Study</t>
+  </si>
+  <si>
+    <t>DiabeNord: A 5-year Prospective Follow-up Cohort Study in Pre-diabetic Subjects for the Identification of New Biomarkers</t>
+  </si>
+  <si>
+    <t>Evaluation of the Benefit Provided by the Addition of Acupunctural Analgesia With Electrostimulation to Conventional Local Anesthesia Compared to Conventional Local Anesthesia Alone in Surgery of Deep Brain Stimulation for Movement Disorders.</t>
+  </si>
+  <si>
+    <t>Cost-utility Analysis of the Outpatient Hospitalization Versus Conventional Hospitalization in Endovascular Treatment of Occlusive Arterial Disease</t>
+  </si>
+  <si>
+    <t>Impairment of Central Coherence in Restrictive Anorexia Nervosa: Single-center and Case-control Study</t>
+  </si>
+  <si>
+    <t>Pilot Study for Optimization of Immuno-PET Pretargeted With Anti-CEA Bispecific Antibody X Anti-HSG TF2 and the Peptide IMP-288 Radiolabeled With Gallium-68 -Pharmacokinetic and Imaging for Patients With a Recurrence of HER2 Negative Breast Carcinoma Expressing CEA</t>
+  </si>
+  <si>
+    <t>Efficacy and Tolerance of Sodium Thiosulfate Injection After Ultrasound-guided Percutaneous Irrigation of Calcific Tendinopathy of the Rotator Cuff</t>
+  </si>
+  <si>
+    <t>CLINPCT Study: Clinical Reassessment Versus Procalcitonin-guided Algorithm in Order to Reduce Antibiotic Consumption in Community-acquired Pneumonia</t>
+  </si>
+  <si>
+    <t>A Prospective , Multicenter , Randomized, Controlled, Parallel-group , Open-label Trial Evaluating Benefits of High Flow Nasal Cannula (HFNC) Oxygen for Preoxygenation During Intubation in Non Severely Hypoxemic Patients</t>
+  </si>
+  <si>
+    <t>Effect of Voluntary Neck Extension in the Occurrence of an Increase in the Pulsatility Index of Right Internal Carotid Artery in the Amateur Diver, Performing an Apnoea of Two Minutes or More: a Prospective, Monocentric, Open Interventional Study</t>
   </si>
   <si>
     <t>Interest of TARC Serum Marker for Follow-up of Patients With Allergic Broncho-Pulmonary Aspergillosis (ABPA), Excluding Cystic Fibrosis</t>
   </si>
   <si>
-    <t>Phase 2 Study of a Reduced-toxicity Myeloablative Conditionning Regimen Using Fludarabine and Full Doses of iv Busulfan in Pediatric Patients Not Eligible for Standard Myeloablative Conditioning Regimens</t>
-  </si>
-  <si>
-    <t>DiabeNord: A 5-year Prospective Follow-up Cohort Study in Pre-diabetic Subjects for the Identification of New Biomarkers</t>
-  </si>
-  <si>
-    <t>Cost-utility Analysis of the Outpatient Hospitalization Versus Conventional Hospitalization in Endovascular Treatment of Occlusive Arterial Disease</t>
-  </si>
-  <si>
     <t>Apport de l'Immuno-TEP préciblée Avec l'Anticorps bispécifique Anti-ACE x Anti-HSG TF2 et le Peptide IMP-288 marqué au Gallium-68 Pour l'Imagerie Des Patients Potentiellement Candidats à Une Chirurgie d'exérèse et/ou Thermoablation Locale d'Une ou Plusieurs métastases, au Diagnostic ou Lors de la Rechute de Cancers Colo-rectaux (CCR) Exprimant l'antigène Carcino-embryonnaire (ACE): Comparaison au Bilan Conventionnel</t>
   </si>
   <si>
-    <t>Efficacy and Tolerance of Ultrasound-guided Needling and Lavage of Calcific Tendinitis of the Rotator Cuff Performed With or Without Subacromial Corticosteroid Injection: A Double Blind Controlled Study</t>
-  </si>
-  <si>
-    <t>Behavioural Addictions Occurring During a Dopaminergic Treatment Prescribe Under Parkinson's Disease: Study of the Psychopathological, Neurological, Pharmacokinetic and Genetic Profiles.</t>
-  </si>
-  <si>
-    <t>Impairment of Central Coherence in Restrictive Anorexia Nervosa: Single-center and Case-control Study</t>
-  </si>
-  <si>
-    <t>Pilot Study for Optimization of Immuno-PET Pretargeted With Anti-CEA Bispecific Antibody X Anti-HSG TF2 and the Peptide IMP-288 Radiolabeled With Gallium-68 -Pharmacokinetic and Imaging for Patients With a Recurrence of HER2 Negative Breast Carcinoma Expressing CEA</t>
-  </si>
-  <si>
-    <t>Efficacy and Tolerance of Sodium Thiosulfate Injection After Ultrasound-guided Percutaneous Irrigation of Calcific Tendinopathy of the Rotator Cuff</t>
-  </si>
-  <si>
-    <t>Effect of Voluntary Neck Extension in the Occurrence of an Increase in the Pulsatility Index of Right Internal Carotid Artery in the Amateur Diver, Performing an Apnoea of Two Minutes or More: a Prospective, Monocentric, Open Interventional Study</t>
-  </si>
-  <si>
-    <t>CLINPCT Study: Clinical Reassessment Versus Procalcitonin-guided Algorithm in Order to Reduce Antibiotic Consumption in Community-acquired Pneumonia</t>
-  </si>
-  <si>
-    <t>Evaluation of the Benefit Provided by the Addition of Acupunctural Analgesia With Electrostimulation to Conventional Local Anesthesia Compared to Conventional Local Anesthesia Alone in Surgery of Deep Brain Stimulation for Movement Disorders.</t>
-  </si>
-  <si>
-    <t>A Prospective , Multicenter , Randomized, Controlled, Parallel-group , Open-label Trial Evaluating Benefits of High Flow Nasal Cannula (HFNC) Oxygen for Preoxygenation During Intubation in Non Severely Hypoxemic Patients</t>
+    <t>Evaluation of the Clinical Utility and Cost Effectiveness Ratio of Generalized Neonatal Screening for Severe Combined Immunodeficiencies (SCID) by Quantification of TRECs on Guthrie Cards</t>
+  </si>
+  <si>
+    <t>Impact of the Absence of Steroids on the Evolution of Renal Function and on the Progression of Graft Fibrosis, Quantified by Numerical Method, in Patients With Renal Transplant</t>
   </si>
   <si>
     <t>PREOPTI-POOP: Preoxygenation Optimisation in Obese Patients: High-flow Nasal Cannula Oxygen Versus Non-invasive Ventilation : A Single-centre Randomized Controlled Study. "</t>
   </si>
   <si>
-    <t>Evaluation of the Clinical Utility and Cost Effectiveness Ratio of Generalized Neonatal Screening for Severe Combined Immunodeficiencies (SCID) by Quantification of TRECs on Guthrie Cards</t>
+    <t>Single-center, Controlled, Randomized and Double-blind Study Evaluating the Laser Diode Effect on the Kinetics of Orthodontic Tooth Movement.</t>
+  </si>
+  <si>
+    <t>Prove of Concept Study, to Evaluate the Efficacy, Safety, and Tolerability of IBEROGAST in the Treatment of Bowel Troubles in Patients With Parkinson's Disease</t>
   </si>
   <si>
     <t>Efficacy of a Cold, Vibration, and Distraction Based Medical Device on the Prevention of Health Care Induced Pediatric Pain: a Comparative, Controlled, Randomized and Multicentric Study</t>
   </si>
   <si>
+    <t>Early Detection of Mucosal Abnormalities in Graft-versus-host Disease</t>
+  </si>
+  <si>
     <t>Monocentric, Prospective, Uncontrolled Pilot Study of Extra Cardiomyocytary Fixation Profile in 18F-fluorodeoxyglucose (FDG) Positron Emission Tomography in Patients With Dilated Cardiomyopathy.</t>
   </si>
   <si>
+    <t>TRANSLINK: A Prospective, Multi-center, Multi-national, Non Randomized, Open, Study to Defining the Role of Xeno-directed and Immune Events (SVD) in Patients Receiving Animal-derived Bioprosthetic Heart Valves.</t>
+  </si>
+  <si>
+    <t>Evaluation of Emotion Management Skill Strengthening in Chronically Ill Patients, Benefiting From Creative and Physical Activities</t>
+  </si>
+  <si>
+    <t>Virtual Reality and Brain Stimulation, an Experiential Approach</t>
+  </si>
+  <si>
+    <t>Monocentric Prospective Study, in Order to Assess Analgesia Provided by Continuous Sciatic Nerve Block, in Patients With Hypertensive Leg Ulcer.</t>
+  </si>
+  <si>
+    <t>Optimizing Access to Care Through New Technologies: a Randomized Study Evaluating the Impact of Telephone Contact and the Sending by the General Practitioner of Suspicious Lesions Melanoma Photographs Taken With a Smartphone, on the Time Limit to the Consultation With a Dermatologist</t>
+  </si>
+  <si>
+    <t>Stretta In Reflux Uncontrolled by Intake of Inhibitors of Protons Pump (IPP).- The SIRUP Trial- Multicentric, Randomized, Double Blind, Prospective Study</t>
+  </si>
+  <si>
+    <t>A Phase I/II Monocentric Trial of Cellular Immunotherapy Based on Autologous Tolerogenic Dendritic Cells (ATDCs) Administration in Patients With Renal Insufficiency Receiving as First Transplantation a Kidney Transplant From a Living-donor.</t>
+  </si>
+  <si>
     <t>Association of Conformational High-dose Radiotherapy and of Hyperselective Transarterial Chemoembolization in the Treatment of Hepatocellular Carcinoma</t>
   </si>
   <si>
-    <t>A Phase I/II Monocentric Trial of Cellular Immunotherapy Based on Autologous Tolerogenic Dendritic Cells (ATDCs) Administration in Patients With Renal Insufficiency Receiving as First Transplantation a Kidney Transplant From a Living-donor.</t>
-  </si>
-  <si>
-    <t>TRANSLINK: A Prospective, Multi-center, Multi-national, Non Randomized, Open, Study to Defining the Role of Xeno-directed and Immune Events (SVD) in Patients Receiving Animal-derived Bioprosthetic Heart Valves.</t>
-  </si>
-  <si>
     <t>COPARIME: Pilot Study of a Target Detection of Malignant Melanoma</t>
   </si>
   <si>
-    <t>Single-center, Controlled, Randomized and Double-blind Study Evaluating the Laser Diode Effect on the Kinetics of Orthodontic Tooth Movement.</t>
-  </si>
-  <si>
-    <t>Impact of the Absence of Steroids on the Evolution of Renal Function and on the Progression of Graft Fibrosis, Quantified by Numerical Method, in Patients With Renal Transplant</t>
-  </si>
-  <si>
-    <t>Prove of Concept Study, to Evaluate the Efficacy, Safety, and Tolerability of IBEROGAST in the Treatment of Bowel Troubles in Patients With Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>Evaluation of Emotion Management Skill Strengthening in Chronically Ill Patients, Benefiting From Creative and Physical Activities</t>
-  </si>
-  <si>
-    <t>Virtual Reality and Brain Stimulation, an Experiential Approach</t>
-  </si>
-  <si>
-    <t>Early Detection of Mucosal Abnormalities in Graft-versus-host Disease</t>
-  </si>
-  <si>
-    <t>Monocentric Prospective Study, in Order to Assess Analgesia Provided by Continuous Sciatic Nerve Block, in Patients With Hypertensive Leg Ulcer.</t>
-  </si>
-  <si>
-    <t>Optimizing Access to Care Through New Technologies: a Randomized Study Evaluating the Impact of Telephone Contact and the Sending by the General Practitioner of Suspicious Lesions Melanoma Photographs Taken With a Smartphone, on the Time Limit to the Consultation With a Dermatologist</t>
-  </si>
-  <si>
-    <t>Stretta In Reflux Uncontrolled by Intake of Inhibitors of Protons Pump (IPP).- The SIRUP Trial- Multicentric, Randomized, Double Blind, Prospective Study</t>
+    <t>Intérêt du contrôle Raisonné de l’Inflation Hydro-Sodée en Réanimation– protocole IRIHS-RÉA.  Etude multicentrique randomisée.</t>
+  </si>
+  <si>
+    <t>Use of a Smartphone© Application to Study Autism Spectrum Disorders (ASD)</t>
+  </si>
+  <si>
+    <t>Quantified Analysis of the Movements of the Upper Limb of Children With Hemiparesis Participating in the Stress Induced Therapy Program</t>
+  </si>
+  <si>
+    <t>Multicentric, Prospective Open-label Study Assessing an Algorithm-based Strategy of Eculizumab Discontinuation in Children and Adults With Atypical Hemolytic Uremic Syndrome (aHUS)</t>
+  </si>
+  <si>
+    <t>Role of Prophylaxis by Oral Fluid Supplementation in Prevention of Postdural Puncture Headache: A Non-inferiority Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Baclofen to Prevent Agitation in Alcohol Addicted Patients in ICU: Study Protocol for a Randomised Controlled Against Placebo Trial</t>
   </si>
   <si>
     <t>Non Invasive Diagnosis of Gastric Precancerous Lesions by GastroPanel Blood Test in Patients With Increased Gastric Cancer Risk : a French Multicenter Study</t>
@@ -1117,366 +1166,377 @@
     <t>Impact of Early Targeted Ibuprofene Treatment of Patent Ductus Arteriosus (PDA) on Long Term Neurodevelopmental Outcome in Very Premature Infants (TRIOCAPI)</t>
   </si>
   <si>
+    <t>Assessment of Osteoblastic Activity With 18F-Fluoride in Aortic Bioprosthesis Structural Valve Dysfunction (SVD)</t>
+  </si>
+  <si>
+    <t>Adoptive Transfer of CD8+ T Cells, Sorted With HLA-peptide Multimers and Specific for Melan-A and MELOE-1 Melanoma Antigens, to Metastatic Melanoma Patients. A Phase I/II, Non-randomized, Open Monocentric Study</t>
+  </si>
+  <si>
+    <t>Comparison of Two Strategies for the Prevention of Endotracheal Tube Cuff Underinflation During Invasive Mechanical Ventilation: Intermittent Versus Continuous Cuff Pressure Control - A Randomised Controlled Study</t>
+  </si>
+  <si>
+    <t>Feasibility of Outpatient Care After Manual Compression in Patients Treated for Peripheral Arterial Disease by Endovascular Technique With 5F Sheath Femoral Approach</t>
+  </si>
+  <si>
     <t>STEP: Proglide® Versus Femoseal®: A Randomized Controlled Trial to Compare the Efficacy of Arterial Closure Devices Following Endovascular Peripheral Arterial Procedures</t>
   </si>
   <si>
-    <t>Multicentric, Prospective Open-label Study Assessing an Algorithm-based Strategy of Eculizumab Discontinuation in Children and Adults With Atypical Hemolytic Uremic Syndrome (aHUS)</t>
+    <t>Effects of Perioperative Administration of Dexamethasone on Postoperative Complications and Mortality After Non-cardiac Major Surgery : a Randomized, Multicentre, Double Blind, Study</t>
+  </si>
+  <si>
+    <t>Impact of Rational Control of Fluid Balance in the Intensive Care Unit.IRIHS-REA</t>
   </si>
   <si>
     <t>Efficacy of Intermittent ThetaBurst Stimulation Compared to 10 Hz Stimulation on Dorsolateral Prefrontal Cortex in Treatment Resistant Major Depressive Disorder: a Double-blind Randomized Study</t>
   </si>
   <si>
-    <t>Quantified Analysis of the Movements of the Upper Limb of Children With Hemiparesis Participating in the Stress Induced Therapy Program</t>
-  </si>
-  <si>
-    <t>Role of Prophylaxis by Oral Fluid Supplementation in Prevention of Postdural Puncture Headache: A Non-inferiority Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Use of a Smartphone© Application to Study Autism Spectrum Disorders (ASD)</t>
-  </si>
-  <si>
-    <t>Effects of Perioperative Administration of Dexamethasone on Postoperative Complications and Mortality After Non-cardiac Major Surgery : a Randomized, Multicentre, Double Blind, Study</t>
-  </si>
-  <si>
-    <t>Baclofen to Prevent Agitation in Alcohol Addicted Patients in ICU: Study Protocol for a Randomised Controlled Against Placebo Trial</t>
-  </si>
-  <si>
-    <t>Impact of Rational Control of Fluid Balance in the Intensive Care Unit.IRIHS-REA</t>
-  </si>
-  <si>
-    <t>Feasibility of Outpatient Care After Manual Compression in Patients Treated for Peripheral Arterial Disease by Endovascular Technique With 5F Sheath Femoral Approach</t>
-  </si>
-  <si>
-    <t>Adoptive Transfer of CD8+ T Cells, Sorted With HLA-peptide Multimers and Specific for Melan-A and MELOE-1 Melanoma Antigens, to Metastatic Melanoma Patients. A Phase I/II, Non-randomized, Open Monocentric Study</t>
-  </si>
-  <si>
-    <t>Assessment of Osteoblastic Activity With 18F-Fluoride in Aortic Bioprosthesis Structural Valve Dysfunction (SVD)</t>
-  </si>
-  <si>
-    <t>Comparison of Two Strategies for the Prevention of Endotracheal Tube Cuff Underinflation During Invasive Mechanical Ventilation: Intermittent Versus Continuous Cuff Pressure Control - A Randomised Controlled Study</t>
-  </si>
-  <si>
     <t>Therapeutic Care and Education in Endocrinology-Diabetes-Nutrition: Evaluation of the Interest of the APA Educator (Adapted Physical Activity Educator) for the Establishment of Physical Activities in the Management and Prevention of Overweight and Obesity</t>
   </si>
   <si>
+    <t>Wearable Biosensor to Track and Quantify Limb Dysfunction in Multiple Sclerosis Patients</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Citrulline Supplementation on the Delay of Delivery for Women Hospitalized for Pre-eclampsia (CITRUPE)</t>
+  </si>
+  <si>
+    <t>QD Isentress as Switch Strategy in Virologically Suppressed HIV-1 Infected-Patient</t>
+  </si>
+  <si>
+    <t>Medical Spastic Patient Machine Interface MSPMI : Biomechanical and Electrophysiological Assessment of the Triceps Surae Spasticity</t>
+  </si>
+  <si>
+    <t>Cost-Utility Analysis of Management of Peri Operative Haemorrhage Following Cardiac Surgery Using Conventional Blood Coagulation Tests or Thrombo-elastographic Point of Care Test - IMOTEC</t>
+  </si>
+  <si>
+    <t>Patient's Quality of Life Assessment 5 to 10 Years After Hospitalization in Intensive Care Unit for a Severe Bacterial Infection</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of an Inclined Plane on the Walking of Children With Cerebral Palsy: What Are the Paths for Rehabilitation?</t>
+  </si>
+  <si>
     <t>Prospective Multicenter Study on the Identification of Genetic Abnormalities Predisposing to Vasospasm From a Privileged Model: the Primary Raynaud's Phenomenon</t>
   </si>
   <si>
+    <t>Phase II Trial Studying the Efficacy of a Triplet Combination of MLN9708, Lenalidomide and Dexamethasone as Induction Prior to, and as Consolidation After High-dose Therapy With Peripheral Stem Cell Transplantation Followed by MLN9708 Maintenance in the Initial Management of Multiple Myeloma in Patients Younger Than 66 Years</t>
+  </si>
+  <si>
     <t>Evaluation of Sacral Neuromodulation (SNM) in the Treatment of Active Ulcerative Colitis</t>
   </si>
   <si>
+    <t>Evaluation de l’efficacité d’une supplémentation en Citrulline sur le délai d’accouchement de femmes hospitalisées dans le cadre de pré-éclampsies modérées ou sévères</t>
+  </si>
+  <si>
+    <t>Randomized Open Label Study Evaluating the Coverage by Teleconsultation Versus Standard Follow-up of Renal Transplant Patients According to a Risk Score of Early Graft Failure (KTFS)</t>
+  </si>
+  <si>
     <t>Continuous Hyperosomolar Therapy for Traumatic Brain-injured Patients Study Protocol for a Multicenter Randomized Open-label Trial With Blinded Adjudication of Primary Outcome</t>
   </si>
   <si>
-    <t>QD Isentress as Switch Strategy in Virologically Suppressed HIV-1 Infected-Patient</t>
-  </si>
-  <si>
-    <t>Randomized Open Label Study Evaluating the Coverage by Teleconsultation Versus Standard Follow-up of Renal Transplant Patients According to a Risk Score of Early Graft Failure (KTFS)</t>
-  </si>
-  <si>
-    <t>Cost-Utility Analysis of Management of Peri Operative Haemorrhage Following Cardiac Surgery Using Conventional Blood Coagulation Tests or Thrombo-elastographic Point of Care Test - IMOTEC</t>
-  </si>
-  <si>
-    <t>Wearable Biosensor to Track and Quantify Limb Dysfunction in Multiple Sclerosis Patients</t>
-  </si>
-  <si>
-    <t>Evaluation de l’efficacité d’une supplémentation en Citrulline sur le délai d’accouchement de femmes hospitalisées dans le cadre de pré-éclampsies modérées ou sévères</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of Citrulline Supplementation on the Delay of Delivery for Women Hospitalized for Pre-eclampsia (CITRUPE)</t>
-  </si>
-  <si>
-    <t>Phase II Trial Studying the Efficacy of a Triplet Combination of MLN9708, Lenalidomide and Dexamethasone as Induction Prior to, and as Consolidation After High-dose Therapy With Peripheral Stem Cell Transplantation Followed by MLN9708 Maintenance in the Initial Management of Multiple Myeloma in Patients Younger Than 66 Years</t>
-  </si>
-  <si>
     <t>Effects of tDCS Combined With Virtual Reality on Anxious Ruminations in Healthy Subjects With a Vulnerability to Rumination</t>
   </si>
   <si>
-    <t>Medical Spastic Patient Machine Interface MSPMI : Biomechanical and Electrophysiological Assessment of the Triceps Surae Spasticity</t>
-  </si>
-  <si>
-    <t>Patient's Quality of Life Assessment 5 to 10 Years After Hospitalization in Intensive Care Unit for a Severe Bacterial Infection</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of an Inclined Plane on the Walking of Children With Cerebral Palsy: What Are the Paths for Rehabilitation?</t>
-  </si>
-  <si>
     <t>Preliminary Study Leading to Prevention of Pressure Ulcers by the Use of an On-board Device : Ergonomic Assessment of Wheelchair-seat Pressures in Spinal Cord Injured (SCI) Patients</t>
   </si>
   <si>
     <t>Study of the Parameters of Quantified Gait Analysis in Moderate Hemophiliac Patients (AQM-Hemophile)</t>
   </si>
   <si>
+    <t>Impact of a New Sequential Approach on Antimicrobial Use in Young Children With Fever Without Source in Emergency Department</t>
+  </si>
+  <si>
+    <t>A Kinetic Study of Lipoprotein in Humans for a Better Understanding of Lipoprotein(a) Metabolism Under PCSK9 Variations (Hu-La-u-P Study)</t>
+  </si>
+  <si>
+    <t>Impact of Early Low-Calorie Low-Protein Versus Standard-Calorie Standard-Protein Feeding on Outcomes of Ventilated Adults With Shock: a Randomised, Controlled, Multicentre, Open-label, Parallel-group Study (NUTRIREA-3)</t>
+  </si>
+  <si>
+    <t>Assessment of Remifentanil for Rapid Sequence Induction and Intubation in Full Stomach Patient Compared to Muscle Relaxant. A Non-inferiority Simple Blind Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Efficacy of a Multi-faceted Intervention to Deprescribe Proton Pump Inhibitors (PPI) in Primary Care: a Population-based, Pragmatic, Cluster-randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness Evaluation of the Use of a Patient Specific Instrument for Surgical Resection of Malignant Bone Tumor Within the Pelvis Versus the Conventional Surgical Treatment</t>
+  </si>
+  <si>
+    <t>A Randomized, Double-blind, Placebo-controlled Phase 2 (2a and 2b) Study to Evaluate the Safety and Efficacy of XAV-19 in Patients With COVID-19 Induced Moderate Pneumonia</t>
+  </si>
+  <si>
+    <t>Is Mental Motor Imagery Training Using "GHOST", a Novel BCI-VR Feedback System (Brain Computer Interface and Virtual Reality) Efficient and Safe for Pain Relief in Phantom Limb Pain After Upper Limb Amputation or Brachial Plexus Lesion</t>
+  </si>
+  <si>
     <t>Comparaison de l’efficacité et de la tolérance d’une injection sous-conjonctivale de triamcinolone et d’un implant intravitréen de dexaméthasone sur l’œdème maculaire inflammatoire</t>
   </si>
   <si>
+    <t>Poker, Skills and Associated Problems (PERHAPS). Controlled Experimental Single Centre Study of Poker Players: Study of the Cognitive Mechanisms Underlying Poker Skills and of the Specificity of Poker-related Problems</t>
+  </si>
+  <si>
+    <t>Impact on Antibiotic Prescriptions of a Bundle Intervention Conducted by Medical Representatives in General Practitioner Facilities, Based on Operational Demonstration of an Internet Decision Support Tool: Antibioclic</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of Musicotherapy in Reducing Peroperative Anxiety and Post-surgical Pain in Dental Care</t>
+  </si>
+  <si>
+    <t>PREOPTI-DAM: High-flow Nasal Cannula Oxygen Versus Standard Oxygenation During Intubation for Patient at Risk of Difficult Intubation: A Randomized Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Contribution of Confocal Microscopy in the Diagnosis of Acute Cell Rejection ACR in Lung Transplantation: Pilot Study</t>
+  </si>
+  <si>
     <t>REmimazolam Infusion in the Context of Hypnotic Shortage in the Critical Care Unit During the Pandemic of COVID-19. The Non-randomized, Non-controlled, Pilot, Open, Mono-centric REHSCU Study</t>
   </si>
   <si>
-    <t>PREOPTI-DAM: High-flow Nasal Cannula Oxygen Versus Standard Oxygenation During Intubation for Patient at Risk of Difficult Intubation: A Randomized Controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Impact of a New Sequential Approach on Antimicrobial Use in Young Children With Fever Without Source in Emergency Department</t>
-  </si>
-  <si>
-    <t>Assessment of Remifentanil for Rapid Sequence Induction and Intubation in Full Stomach Patient Compared to Muscle Relaxant. A Non-inferiority Simple Blind Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Impact on Antibiotic Prescriptions of a Bundle Intervention Conducted by Medical Representatives in General Practitioner Facilities, Based on Operational Demonstration of an Internet Decision Support Tool: Antibioclic</t>
+    <t>Prevalence of fAmilial hypobetalipopRoTeinemIa in psychiaTrIc pOpulatioN</t>
+  </si>
+  <si>
+    <t>Study of cardiovAscular Contrasted Phenotypes in Patients With FamIliaI hypercholesteRolemia</t>
   </si>
   <si>
     <t>Efficacy and Tolerance Comparison Between Subconjunctival Injection of Triamcinolone and Intravitreal Implant of Dexamethasone for the Treatment of Inflammatory Macular Edema</t>
   </si>
   <si>
-    <t>Efficacy of a Multi-faceted Intervention to Deprescribe Proton Pump Inhibitors (PPI) in Primary Care: a Population-based, Pragmatic, Cluster-randomized Controlled Trial.</t>
-  </si>
-  <si>
-    <t>A Randomized, Double-blind, Placebo-controlled Phase 2 (2a and 2b) Study to Evaluate the Safety and Efficacy of XAV-19 in Patients With COVID-19 Induced Moderate Pneumonia</t>
-  </si>
-  <si>
-    <t>Prevalence of fAmilial hypobetalipopRoTeinemIa in psychiaTrIc pOpulatioN</t>
-  </si>
-  <si>
-    <t>Poker, Skills and Associated Problems (PERHAPS). Controlled Experimental Single Centre Study of Poker Players: Study of the Cognitive Mechanisms Underlying Poker Skills and of the Specificity of Poker-related Problems</t>
-  </si>
-  <si>
-    <t>Is Mental Motor Imagery Training Using "GHOST", a Novel BCI-VR Feedback System (Brain Computer Interface and Virtual Reality) Efficient and Safe for Pain Relief in Phantom Limb Pain After Upper Limb Amputation or Brachial Plexus Lesion</t>
-  </si>
-  <si>
-    <t>Cost-effectiveness Evaluation of the Use of a Patient Specific Instrument for Surgical Resection of Malignant Bone Tumor Within the Pelvis Versus the Conventional Surgical Treatment</t>
-  </si>
-  <si>
-    <t>Contribution of Confocal Microscopy in the Diagnosis of Acute Cell Rejection ACR in Lung Transplantation: Pilot Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of Musicotherapy in Reducing Peroperative Anxiety and Post-surgical Pain in Dental Care</t>
-  </si>
-  <si>
-    <t>A Kinetic Study of Lipoprotein in Humans for a Better Understanding of Lipoprotein(a) Metabolism Under PCSK9 Variations (Hu-La-u-P Study)</t>
-  </si>
-  <si>
-    <t>Impact of Early Low-Calorie Low-Protein Versus Standard-Calorie Standard-Protein Feeding on Outcomes of Ventilated Adults With Shock: a Randomised, Controlled, Multicentre, Open-label, Parallel-group Study (NUTRIREA-3)</t>
-  </si>
-  <si>
-    <t>Study of cardiovAscular Contrasted Phenotypes in Patients With FamIliaI hypercholesteRolemia</t>
+    <t>The Role of IL-22/IL-22BP Axis in Atopic Dermatitis. A Cross Sectional Monocentric Pilot Study</t>
+  </si>
+  <si>
+    <t>Non-invasive Monitoring of Cerebral Autoregulation in Perioperative Neonatal Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Effect of Alirocumab on Postprandial Hyperlipemia in Patients With Type 2 Diabetes : a Randomized, Double-blind, Placebo-controlled, Cross-over Trial"</t>
+  </si>
+  <si>
+    <t>Modeling Variation of the Objective Mental Workload for Tasks Requiring Different Cognitive Functions.</t>
+  </si>
+  <si>
+    <t>Validation of a Biomathematical Model to Help Identify the Parameters of Flexible Insulin Therapy: Monocentric, Controlled, Randomized and Prospective Pilot Clinical Study in Patients With Type 1 Diabetes.</t>
+  </si>
+  <si>
+    <t>adaptatiVe Endovascular Strategy to the CloT MRI in Large Intracranial Vessel Occlusion</t>
+  </si>
+  <si>
+    <t>Prospective, Randomized, Controlled and Single-blind Study Assessing the Benefit/Risk Ratio of Internal Limiting Membrane (ILM) Peeling During Epimacular Membrane (EMM) Surgery</t>
+  </si>
+  <si>
+    <t>Comparison of the Effectiveness of Two Medical Compression Bandage Application Techniques by Measuring Interface Pressures Depending on Whether or Not the Heel is Included in Patients With Open Venous Ulcers: Non-inferiority, Controlled, Randomized Trial</t>
+  </si>
+  <si>
+    <t>Relevance of Imiquimod as Neo-adjuvant Treatment to Reduce Excision Size and the Risk of Intralesional Excision in Lentigo Malignant of the Face</t>
+  </si>
+  <si>
+    <t>Impact of Therapeutic Hypothermia in Expanded Criteria Brain-dead Donors on Kidney-graft Function in the Kidney-transplant Recipients: Multicenter Randomized Controlled Trial" HYPOREME</t>
   </si>
   <si>
     <t>Comparison of the Variations of the Cardiovascular Parameters and the Efficiency of the Osteocentral Anesthesia (Quicksleeper™) and the Locoregional Anesthesia in the Case of Mandibular Pulpitis</t>
   </si>
   <si>
-    <t>Modeling Variation of the Objective Mental Workload for Tasks Requiring Different Cognitive Functions.</t>
-  </si>
-  <si>
-    <t>Comparison of the Effectiveness of Two Medical Compression Bandage Application Techniques by Measuring Interface Pressures Depending on Whether or Not the Heel is Included in Patients With Open Venous Ulcers: Non-inferiority, Controlled, Randomized Trial</t>
-  </si>
-  <si>
-    <t>Impact of Therapeutic Hypothermia in Expanded Criteria Brain-dead Donors on Kidney-graft Function in the Kidney-transplant Recipients: Multicenter Randomized Controlled Trial" HYPOREME</t>
-  </si>
-  <si>
     <t>Assessment of the Prevalence of TTR Amyloid Neuropathy in a Population of Patients With Neuropathy of Unknown Aetiology</t>
   </si>
   <si>
-    <t>Validation of a Biomathematical Model to Help Identify the Parameters of Flexible Insulin Therapy: Monocentric, Controlled, Randomized and Prospective Pilot Clinical Study in Patients With Type 1 Diabetes.</t>
-  </si>
-  <si>
-    <t>Relevance of Imiquimod as Neo-adjuvant Treatment to Reduce Excision Size and the Risk of Intralesional Excision in Lentigo Malignant of the Face</t>
-  </si>
-  <si>
-    <t>adaptatiVe Endovascular Strategy to the CloT MRI in Large Intracranial Vessel Occlusion</t>
-  </si>
-  <si>
-    <t>Effect of Alirocumab on Postprandial Hyperlipemia in Patients With Type 2 Diabetes : a Randomized, Double-blind, Placebo-controlled, Cross-over Trial"</t>
-  </si>
-  <si>
-    <t>Prospective, Randomized, Controlled and Single-blind Study Assessing the Benefit/Risk Ratio of Internal Limiting Membrane (ILM) Peeling During Epimacular Membrane (EMM) Surgery</t>
-  </si>
-  <si>
-    <t>The Role of IL-22/IL-22BP Axis in Atopic Dermatitis. A Cross Sectional Monocentric Pilot Study</t>
-  </si>
-  <si>
-    <t>Non-invasive Monitoring of Cerebral Autoregulation in Perioperative Neonatal Cardiac Surgery</t>
+    <t>Assessing the Expression and the Activity of Rac1 Protein in the Airway Smooth Muscle of</t>
+  </si>
+  <si>
+    <t>Phase 1 Dose Escalation of Early Infusion of Zoledronic Acid in Combination With Increasing Low-dose of Interleukin-2 in Order to Expand Vγ9Vδ2 T Cells After T-replete Haplo-identical Allogeneic Stem Cell Transplantation (SCT)</t>
+  </si>
+  <si>
+    <t>Comparison of pharmacokinetic (PK) levels before and after conversion from twice-daily tacrolimus to once-daily extended-release tacrolimus (LCPT) in diabetic transplant recipients 
+ Comparaison de la pharmacocinétique avant et après la conversion du tacrolimus en 2 prises à l’ENVARSUS® (tacrolimus en 1 prise à libération prolongée) après une greffe Rein- Pancréas simultanée</t>
+  </si>
+  <si>
+    <t>Phase 3 Therapeutic Interventional Study Evaluating the Efficacy of Noradrenaline in the Prevention of Hypotension Related to Intubation for Cardiac or Thoracic Surgery - Single-centre Prospective Randomised Controlled Study With Blinded Assessment of the Primary Endpoint</t>
+  </si>
+  <si>
+    <t>Early and Systematic Shoulder Rehabilitation Following Cervical Lymph Node Dissection</t>
+  </si>
+  <si>
+    <t>Study on the Prevalence of Hepatitis C In a psychiatRic Population</t>
+  </si>
+  <si>
+    <t>Monocentric Phase 1 Study With Escalation of Doses of Tocilizumab in Combination With Chemotherapy (Idarubicin and Cytarabine) in Patients With Acute Myeloblastic Leukemia (AML) With Poor Prognosis: TOCILAM"</t>
+  </si>
+  <si>
+    <t>Biomechanical and Neurophysiological Evaluation of the Effect of a Motor Block and an Injection of Botulinum Toxin on the Stiffness of the Paretic Sural Triceps Muscle</t>
+  </si>
+  <si>
+    <t>Comparison of Pharmacokinetic (PK) Levels Before and After Conversion From Twice-daily Tacrolimus to Once-daily Extended-release Tacrolimus (LCPT) in Diabetic Transplant récipients</t>
+  </si>
+  <si>
+    <t>Assessment of the Neuro-glio-epithelial Unit (NGEU) in Biopsies Taken During Peroral Endoscopic Myotomy (POEM) for Achalasia: a Feasibility and Safety Study.</t>
+  </si>
+  <si>
+    <t>Cost-consequence Analysis of Intrapartum Streptococcal B Detection by PCR Versus Antenatal Culture at 35-38 SA in the Optimization of Intrapartum Antibiotic Prophylaxis</t>
+  </si>
+  <si>
+    <t>Conus Medullaris Stimulation With 5 Columns Lead Versus Medical Treatment in Refractory Pudendal Neuralgia: a Randomized, Open, Controlled, Multicenter Trial.</t>
+  </si>
+  <si>
+    <t>Quantification of Nerve Stiffness in Patients with Peripheral Neuropathies</t>
+  </si>
+  <si>
+    <t>Randomized Double-blind Study on the Benefit of Spironolactone for Treating Acne of Adult Woman.</t>
   </si>
   <si>
     <t>Efficacy of a Multi-faceted Intervention Combining an Educational Outreach Visit to General Practitioners and Patient Education Material to Deprescribe Proton Pump Inhibitors (PPI): a Population-based, Pragmatic, Cluster-randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Cost-consequence Analysis of Intrapartum Streptococcal B Detection by PCR Versus Antenatal Culture at 35-38 SA in the Optimization of Intrapartum Antibiotic Prophylaxis</t>
-  </si>
-  <si>
-    <t>Monocentric Phase 1 Study With Escalation of Doses of Tocilizumab in Combination With Chemotherapy (Idarubicin and Cytarabine) in Patients With Acute Myeloblastic Leukemia (AML) With Poor Prognosis: TOCILAM"</t>
-  </si>
-  <si>
     <t>Efficacy of Soluble Dexamethasone by Echo-guided Infiltration Through the Sacrococcygeal Hiatus in Refractory Sciatica: a Prospective Randomised Double-blind Study Versus Placebo</t>
   </si>
   <si>
-    <t>Comparison of Pharmacokinetic (PK) Levels Before and After Conversion From Twice-daily Tacrolimus to Once-daily Extended-release Tacrolimus (LCPT) in Diabetic Transplant récipients</t>
-  </si>
-  <si>
-    <t>Phase 1 Dose Escalation of Early Infusion of Zoledronic Acid in Combination With Increasing Low-dose of Interleukin-2 in Order to Expand Vγ9Vδ2 T Cells After T-replete Haplo-identical Allogeneic Stem Cell Transplantation (SCT)</t>
-  </si>
-  <si>
-    <t>Phase 3 Therapeutic Interventional Study Evaluating the Efficacy of Noradrenaline in the Prevention of Hypotension Related to Intubation for Cardiac or Thoracic Surgery - Single-centre Prospective Randomised Controlled Study With Blinded Assessment of the Primary Endpoint</t>
-  </si>
-  <si>
-    <t>Early and Systematic Shoulder Rehabilitation Following Cervical Lymph Node Dissection</t>
-  </si>
-  <si>
-    <t>Assessment of the Neuro-glio-epithelial Unit (NGEU) in Biopsies Taken During Peroral Endoscopic Myotomy (POEM) for Achalasia: a Feasibility and Safety Study.</t>
-  </si>
-  <si>
-    <t>Study on the Prevalence of Hepatitis C In a psychiatRic Population</t>
-  </si>
-  <si>
-    <t>Biomechanical and Neurophysiological Evaluation of the Effect of a Motor Block and an Injection of Botulinum Toxin on the Stiffness of the Paretic Sural Triceps Muscle</t>
-  </si>
-  <si>
-    <t>Randomized Double-blind Study on the Benefit of Spironolactone for Treating Acne of Adult Woman.</t>
-  </si>
-  <si>
-    <t>Assessing the Expression and the Activity of Rac1 Protein in the Airway Smooth Muscle of</t>
-  </si>
-  <si>
-    <t>Conus Medullaris Stimulation With 5 Columns Lead Versus Medical Treatment in Refractory Pudendal Neuralgia: a Randomized, Open, Controlled, Multicenter Trial.</t>
-  </si>
-  <si>
-    <t>Using of Virtual Reality to Relieve Procedural Pain in Pediatric Oncology.</t>
-  </si>
-  <si>
-    <t>Liver and Metabolic Effects of Insulin Pump Therapy in a Population of Type 2 Diabetics with Non-alcoholic Hepatic Steatosis</t>
+    <t>Polytetrafluoroethylen (PTFE) Vascular Prostheses With Heparin Bonded Luminal Surfaces vs Crude ePTFE in the Treatment of Critical Limb Ischemia Lesions in the Absence of a Suitable Autologous Vein</t>
   </si>
   <si>
     <t>Evaluation of the Interest of the Medical Device Called "Fluobeam" in the Localization, Visualization of the Parathyroid Glands for Patients With Mild Primary Hyperparathyroidism. A Randomized Controled Prospective Open -Labeled Monocentric Study.</t>
+  </si>
+  <si>
+    <t>Phase 2 study evaluating MEchanisms of resistance on tumor tissue and Liquid biopsy in patients with EGFR mutated nonpretreated advanced Lung cancer Receiving OSimErtinib until and beyond radiological progression : the MELROSE trial 
+ Étude de phase 2 évaluant les mécanismes de résistance sur le tissu tumoral et sur les biopsies liquides chez des patients avec un cancer du poumon avancé non prétraité, EGFR muté, recevant un traitement par OSIMERTINIB jusqu'à et au-delà de la progression radiologique</t>
   </si>
   <si>
     <t>Controlled and double blind comparison of a traditional dressing versus a biologic dressing composed of fetal fibroblasts and keratinocytes in association with a collagen matrix on skin donor sites 
  Pansement biologique composé de fibroblastes et de kératinocytes fœtaux en association avec une matrice de collagène</t>
   </si>
   <si>
-    <t>Phase 2 study evaluating MEchanisms of resistance on tumor tissue and Liquid biopsy in patients with EGFR mutated nonpretreated advanced Lung cancer Receiving OSimErtinib until and beyond radiological progression : the MELROSE trial 
- Étude de phase 2 évaluant les mécanismes de résistance sur le tissu tumoral et sur les biopsies liquides chez des patients avec un cancer du poumon avancé non prétraité, EGFR muté, recevant un traitement par OSIMERTINIB jusqu'à et au-delà de la progression radiologique</t>
+    <t>Neuropsychological Development and Executive Functioning of Children Born to HIV- Infected Mothers</t>
+  </si>
+  <si>
+    <t>Intravenous Acetaminophen and Morphine Versus Intravenous Morphine Alone for Acute Pain in the Emergency Department: a Multicenter Randomized Controlled Double-blind Non-inferiority Trial</t>
   </si>
   <si>
     <t>A phase III randomized, blind, double dummy, multicenter study assessing the efficacy and safety of IV thrombolysis (alteplase) in patients with acute central retinal artery occlusion</t>
   </si>
   <si>
-    <t>Neuropsychological Development and Executive Functioning of Children Born to HIV- Infected Mothers</t>
+    <t>Using of Virtual Reality to Relieve Procedural Pain in Pediatric Oncology.</t>
+  </si>
+  <si>
+    <t>Liver and Metabolic Effects of Insulin Pump Therapy in a Population of Type 2 Diabetics with Non-alcoholic Hepatic Steatosis</t>
+  </si>
+  <si>
+    <t>Feasibility Study of the Instrumented Evaluation of Eccentric Strengthening in Paresis Patients</t>
+  </si>
+  <si>
+    <t>Simplified Bowel Preparation Versus Standard Bowel Preparation Before Capsule Endoscopy in Patients With Crohn's Disease: a Prospective Randomized Controlled Multicenter Study</t>
   </si>
   <si>
     <t>A Phase III Randomized, Blind, Double Dummy, Multicenter Study Assessing the Efficacy and Safety of IV THrombolysis (Alteplase) in Patients With acutE Central retInal Artery Occlusion</t>
   </si>
   <si>
-    <t>Polytetrafluoroethylen (PTFE) Vascular Prostheses With Heparin Bonded Luminal Surfaces vs Crude ePTFE in the Treatment of Critical Limb Ischemia Lesions in the Absence of a Suitable Autologous Vein</t>
-  </si>
-  <si>
-    <t>Feasibility Study of the Instrumented Evaluation of Eccentric Strengthening in Paresis Patients</t>
-  </si>
-  <si>
-    <t>Simplified Bowel Preparation Versus Standard Bowel Preparation Before Capsule Endoscopy in Patients With Crohn's Disease: a Prospective Randomized Controlled Multicenter Study</t>
-  </si>
-  <si>
     <t>Implementation of a Program to Strengthen Oral Hygiene in Patient With Cleft Deformities : HBD-Fentes</t>
   </si>
   <si>
+    <t>Doxycycline Versus Placebo in COVID-19 + Patients without hospitalization criteria: Prospective, multicenter, randomized, double-blind, prospective study. 
+ Doxycycline Versus Placebo chez des Patients COVID-19 + sans critère d’hospitalisation : Etude prospective, multicentrique, randomisée en double aveugle</t>
+  </si>
+  <si>
     <t>Efficacité de la Dexaméthasone soluble par infiltrations échoguidées par le hiatus sacro-coccygien dans les sciatiques rebelles : étude prospective randomisée en double aveugle versus placebo</t>
   </si>
   <si>
+    <t>Double-blind, Parallel Group, Placebo-controlled Trial of the Efficacy and Tolerability of Memantine (20 mg) in Frontotemporal Dementia (FTD) Patients</t>
+  </si>
+  <si>
     <t>Genetical, Multi-center, Prospective Study of Phenotyping and Genotyping of Patients Suffering From Congenital Amaurosis of Leber or From an Early Severe Retinal Dystrophy in the Aim of the Realisation of a Clinical Trial of Gene Therapy</t>
   </si>
   <si>
     <t>Effect of Domperidone on QT Interval in Premature Infants</t>
   </si>
   <si>
-    <t>Double-blind, Parallel Group, Placebo-controlled Trial of the Efficacy and Tolerability of Memantine (20 mg) in Frontotemporal Dementia (FTD) Patients</t>
-  </si>
-  <si>
     <t>AML 2001: a Phase III Prospective Randomized Study Comparing One or Two High Dose Chemotherapy Regimen Followed by Autologous Stem Cell Transplantation (ASCT) as Consolidation Strategy for Adults Aged 15 to 60 With Acute Myeloid Leukemia (AML) in First Complete Remission (CR).rémission complète d'Une Leucémie Aiguë Myéloblastique</t>
   </si>
   <si>
+    <t>ENTEROPARK</t>
+  </si>
+  <si>
     <t>Hypolyte</t>
   </si>
   <si>
-    <t>ENTEROPARK</t>
-  </si>
-  <si>
     <t>Oberab</t>
   </si>
   <si>
+    <t>ALGAP</t>
+  </si>
+  <si>
+    <t>INFILTHERA</t>
+  </si>
+  <si>
     <t>RIT in MTC</t>
   </si>
   <si>
     <t>Gaucher</t>
   </si>
   <si>
-    <t>ALGAP</t>
-  </si>
-  <si>
-    <t>INFILTHERA</t>
+    <t>ColoBioParker</t>
   </si>
   <si>
     <t>MESSAGE</t>
   </si>
   <si>
+    <t>Impartox</t>
+  </si>
+  <si>
+    <t>Corti-TC</t>
+  </si>
+  <si>
     <t>TIL</t>
   </si>
   <si>
-    <t>Corti-TC</t>
-  </si>
-  <si>
-    <t>ColoBioParker</t>
-  </si>
-  <si>
-    <t>Impartox</t>
-  </si>
-  <si>
     <t>ITT 08-01</t>
   </si>
   <si>
     <t>Ortholaser</t>
   </si>
   <si>
+    <t>Cloric</t>
+  </si>
+  <si>
+    <t>PREOXYFLOW</t>
+  </si>
+  <si>
+    <t>IRENEO</t>
+  </si>
+  <si>
     <t>IMAJEM</t>
   </si>
   <si>
-    <t>Cloric</t>
-  </si>
-  <si>
-    <t>PREOXYFLOW</t>
-  </si>
-  <si>
-    <t>IRENEO</t>
+    <t>TAVIQUAL</t>
+  </si>
+  <si>
+    <t>Caphosol</t>
+  </si>
+  <si>
+    <t>RPE65</t>
+  </si>
+  <si>
+    <t>Diabact</t>
+  </si>
+  <si>
+    <t>CARMYSAP</t>
+  </si>
+  <si>
+    <t>setric</t>
+  </si>
+  <si>
+    <t>R-GVHD</t>
+  </si>
+  <si>
+    <t>Lymphoscreen</t>
   </si>
   <si>
     <t>LIGALONGO</t>
   </si>
   <si>
-    <t>R-GVHD</t>
-  </si>
-  <si>
     <t>ECHORACHIS</t>
   </si>
   <si>
-    <t>Diabact</t>
-  </si>
-  <si>
-    <t>CARMYSAP</t>
-  </si>
-  <si>
-    <t>TAVIQUAL</t>
-  </si>
-  <si>
-    <t>Lymphoscreen</t>
-  </si>
-  <si>
-    <t>RPE65</t>
-  </si>
-  <si>
-    <t>setric</t>
-  </si>
-  <si>
     <t>Cobedding</t>
   </si>
   <si>
-    <t>Caphosol</t>
+    <t>SEPT'ECHO</t>
+  </si>
+  <si>
+    <t>TECCO</t>
+  </si>
+  <si>
+    <t>SWAD</t>
+  </si>
+  <si>
+    <t>VIDAZA-DLI</t>
   </si>
   <si>
     <t>Optiflow</t>
@@ -1485,157 +1545,163 @@
     <t>S2CARA</t>
   </si>
   <si>
+    <t>IFM2013-04</t>
+  </si>
+  <si>
+    <t>CITRUGRELE 2</t>
+  </si>
+  <si>
+    <t>MEOREV</t>
+  </si>
+  <si>
     <t>TolTwiCare</t>
   </si>
   <si>
-    <t>TECCO</t>
-  </si>
-  <si>
-    <t>VIDAZA-DLI</t>
-  </si>
-  <si>
-    <t>CITRUGRELE 2</t>
+    <t>Cefasleeve</t>
   </si>
   <si>
     <t>FREEDOM</t>
   </si>
   <si>
-    <t>SEPT'ECHO</t>
-  </si>
-  <si>
-    <t>MEOREV</t>
-  </si>
-  <si>
-    <t>SWAD</t>
-  </si>
-  <si>
-    <t>IFM2013-04</t>
-  </si>
-  <si>
-    <t>Cefasleeve</t>
+    <t>ARTHROSTEM</t>
+  </si>
+  <si>
+    <t>MYOTOX</t>
+  </si>
+  <si>
+    <t>LAM2006IR</t>
   </si>
   <si>
     <t>NEOSTEO</t>
   </si>
   <si>
+    <t>MycaCOORD</t>
+  </si>
+  <si>
+    <t>68-DOTANOC-GEP</t>
+  </si>
+  <si>
+    <t>iTEP-CMT</t>
+  </si>
+  <si>
+    <t>SYNAPark</t>
+  </si>
+  <si>
+    <t>TLI-ATG</t>
+  </si>
+  <si>
     <t>CHEPRALL</t>
   </si>
   <si>
-    <t>MycaCOORD</t>
+    <t>PEPKIN</t>
+  </si>
+  <si>
+    <t>ORN</t>
   </si>
   <si>
     <t>NF1-QDV</t>
   </si>
   <si>
-    <t>ORN</t>
-  </si>
-  <si>
-    <t>68-DOTANOC-GEP</t>
-  </si>
-  <si>
-    <t>TLI-ATG</t>
-  </si>
-  <si>
-    <t>LAM2006IR</t>
-  </si>
-  <si>
-    <t>PEPKIN</t>
-  </si>
-  <si>
-    <t>MYOTOX</t>
-  </si>
-  <si>
-    <t>ARTHROSTEM</t>
-  </si>
-  <si>
-    <t>SYNAPark</t>
-  </si>
-  <si>
-    <t>iTEP-CMT</t>
-  </si>
-  <si>
     <t>FB4-PEDIA</t>
   </si>
   <si>
+    <t>PARKADD</t>
+  </si>
+  <si>
+    <t>CALCECHO</t>
+  </si>
+  <si>
     <t>DiabeNord</t>
   </si>
   <si>
+    <t>ACUplus</t>
+  </si>
+  <si>
     <t>AMBUVASC</t>
   </si>
   <si>
+    <t>CoCA</t>
+  </si>
+  <si>
+    <t>iTEPsein</t>
+  </si>
+  <si>
+    <t>THIOCAL</t>
+  </si>
+  <si>
+    <t>CLINPCT</t>
+  </si>
+  <si>
+    <t>PROTRACH</t>
+  </si>
+  <si>
+    <t>APNECK</t>
+  </si>
+  <si>
     <t>iTEP Colon</t>
   </si>
   <si>
-    <t>CALCECHO</t>
-  </si>
-  <si>
-    <t>PARKADD</t>
-  </si>
-  <si>
-    <t>CoCA</t>
-  </si>
-  <si>
-    <t>iTEPsein</t>
-  </si>
-  <si>
-    <t>THIOCAL</t>
-  </si>
-  <si>
-    <t>APNECK</t>
-  </si>
-  <si>
-    <t>CLINPCT</t>
-  </si>
-  <si>
-    <t>ACUplus</t>
-  </si>
-  <si>
-    <t>PROTRACH</t>
+    <t>DEPISTREC</t>
+  </si>
+  <si>
+    <t>Astronef</t>
   </si>
   <si>
     <t>PREOPTI-POOP</t>
   </si>
   <si>
-    <t>DEPISTREC</t>
+    <t>CINELASER</t>
+  </si>
+  <si>
+    <t>PHYTOPARK</t>
   </si>
   <si>
     <t>DOLVAX</t>
   </si>
   <si>
+    <t>E-mage</t>
+  </si>
+  <si>
+    <t>TRANSLINK</t>
+  </si>
+  <si>
+    <t>EvAd</t>
+  </si>
+  <si>
+    <t>REVISTIM-X</t>
+  </si>
+  <si>
+    <t>ANGIOCATH</t>
+  </si>
+  <si>
+    <t>OASE Melanome</t>
+  </si>
+  <si>
+    <t>SIRUP</t>
+  </si>
+  <si>
+    <t>ONEatDC</t>
+  </si>
+  <si>
     <t>TACERTE</t>
   </si>
   <si>
-    <t>ONEatDC</t>
-  </si>
-  <si>
-    <t>TRANSLINK</t>
-  </si>
-  <si>
-    <t>CINELASER</t>
-  </si>
-  <si>
-    <t>Astronef</t>
-  </si>
-  <si>
-    <t>PHYTOPARK</t>
-  </si>
-  <si>
-    <t>EvAd</t>
-  </si>
-  <si>
-    <t>REVISTIM-X</t>
-  </si>
-  <si>
-    <t>E-mage</t>
-  </si>
-  <si>
-    <t>ANGIOCATH</t>
-  </si>
-  <si>
-    <t>OASE Melanome</t>
-  </si>
-  <si>
-    <t>SIRUP</t>
+    <t>IRIHS-RÉA</t>
+  </si>
+  <si>
+    <t>SMARTAUTISM</t>
+  </si>
+  <si>
+    <t>MouvsupTCIHemi</t>
+  </si>
+  <si>
+    <t>STOPECU</t>
+  </si>
+  <si>
+    <t>PROPHYDRA</t>
+  </si>
+  <si>
+    <t>BACLOREA</t>
   </si>
   <si>
     <t>GASTRO-PRA</t>
@@ -1644,208 +1710,217 @@
     <t>TRIOCAPI</t>
   </si>
   <si>
+    <t>TEP-SVD</t>
+  </si>
+  <si>
+    <t>MelSort</t>
+  </si>
+  <si>
+    <t>CONTIPRESS</t>
+  </si>
+  <si>
+    <t>FREEDOM OP</t>
+  </si>
+  <si>
     <t>STEP</t>
   </si>
   <si>
-    <t>STOPECU</t>
+    <t>PACMAN</t>
+  </si>
+  <si>
+    <t>IRIHS-REA</t>
   </si>
   <si>
     <t>THETA-DEP</t>
   </si>
   <si>
-    <t>MouvsupTCIHemi</t>
-  </si>
-  <si>
-    <t>PROPHYDRA</t>
-  </si>
-  <si>
-    <t>SMARTAUTISM</t>
-  </si>
-  <si>
-    <t>PACMAN</t>
-  </si>
-  <si>
-    <t>BACLOREA</t>
-  </si>
-  <si>
-    <t>IRIHS-REA</t>
-  </si>
-  <si>
-    <t>FREEDOM OP</t>
-  </si>
-  <si>
-    <t>MelSort</t>
-  </si>
-  <si>
-    <t>TEP-SVD</t>
-  </si>
-  <si>
-    <t>CONTIPRESS</t>
-  </si>
-  <si>
     <t>APA</t>
   </si>
   <si>
+    <t>MYO</t>
+  </si>
+  <si>
+    <t>CITRUPE</t>
+  </si>
+  <si>
+    <t>QDISS</t>
+  </si>
+  <si>
+    <t>MSPMI</t>
+  </si>
+  <si>
+    <t>IMOTEC</t>
+  </si>
+  <si>
     <t>RAY-GENE</t>
   </si>
   <si>
+    <t>IFM2013-06</t>
+  </si>
+  <si>
     <t>PRIMICISTIM</t>
   </si>
   <si>
+    <t>TELEGRAFT</t>
+  </si>
+  <si>
     <t>COBI</t>
   </si>
   <si>
-    <t>QDISS</t>
-  </si>
-  <si>
-    <t>TELEGRAFT</t>
-  </si>
-  <si>
-    <t>IMOTEC</t>
-  </si>
-  <si>
-    <t>MYO</t>
-  </si>
-  <si>
-    <t>CITRUPE</t>
-  </si>
-  <si>
-    <t>IFM2013-06</t>
-  </si>
-  <si>
     <t>REVISTIM-XX</t>
   </si>
   <si>
-    <t>MSPMI</t>
-  </si>
-  <si>
     <t>PRESDIE</t>
   </si>
   <si>
+    <t>DIAFEVER</t>
+  </si>
+  <si>
+    <t>HuLaUP</t>
+  </si>
+  <si>
+    <t>NUTRIREA3</t>
+  </si>
+  <si>
+    <t>REMICRUSH</t>
+  </si>
+  <si>
+    <t>DeprescrIPP</t>
+  </si>
+  <si>
+    <t>MARGIC</t>
+  </si>
+  <si>
+    <t>POLYCOR</t>
+  </si>
+  <si>
+    <t>GHOST</t>
+  </si>
+  <si>
     <t>TRIOZ</t>
   </si>
   <si>
+    <t>PERHAPS</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>MUSANX</t>
+  </si>
+  <si>
+    <t>PREOPTI-DAM</t>
+  </si>
+  <si>
+    <t>MICRA</t>
+  </si>
+  <si>
     <t>REHSCU</t>
   </si>
   <si>
-    <t>PREOPTI-DAM</t>
-  </si>
-  <si>
-    <t>DIAFEVER</t>
-  </si>
-  <si>
-    <t>REMICRUSH</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>DeprescrIPP</t>
-  </si>
-  <si>
-    <t>POLYCOR</t>
-  </si>
-  <si>
-    <t>PERHAPS</t>
-  </si>
-  <si>
-    <t>GHOST</t>
-  </si>
-  <si>
-    <t>MARGIC</t>
-  </si>
-  <si>
-    <t>MICRA</t>
-  </si>
-  <si>
-    <t>MUSANX</t>
-  </si>
-  <si>
-    <t>HuLaUP</t>
-  </si>
-  <si>
-    <t>NUTRIREA3</t>
-  </si>
-  <si>
     <t>SAFIR</t>
   </si>
   <si>
+    <t>ConstiCAPE</t>
+  </si>
+  <si>
+    <t>DA/IL-22BP</t>
+  </si>
+  <si>
+    <t>NEMOCARD</t>
+  </si>
+  <si>
+    <t>EUTERPE</t>
+  </si>
+  <si>
+    <t>ModIF</t>
+  </si>
+  <si>
+    <t>VECTOR</t>
+  </si>
+  <si>
+    <t>Peeling</t>
+  </si>
+  <si>
+    <t>COMPARACHILLE</t>
+  </si>
+  <si>
+    <t>ImiReduc</t>
+  </si>
+  <si>
+    <t>HYPOREME</t>
+  </si>
+  <si>
     <t>COQ</t>
   </si>
   <si>
-    <t>COMPARACHILLE</t>
-  </si>
-  <si>
-    <t>HYPOREME</t>
-  </si>
-  <si>
     <t>PRE-TRANS</t>
   </si>
   <si>
-    <t>ModIF</t>
-  </si>
-  <si>
-    <t>ImiReduc</t>
-  </si>
-  <si>
-    <t>VECTOR</t>
-  </si>
-  <si>
-    <t>EUTERPE</t>
-  </si>
-  <si>
-    <t>Peeling</t>
-  </si>
-  <si>
-    <t>DA/IL-22BP</t>
-  </si>
-  <si>
-    <t>NEMOCARD</t>
-  </si>
-  <si>
-    <t>ConstiCAPE</t>
+    <t>NaRacAS</t>
+  </si>
+  <si>
+    <t>HILDEGAZ</t>
+  </si>
+  <si>
+    <t>SPK-PK</t>
+  </si>
+  <si>
+    <t>EPITUBE-HEART</t>
+  </si>
+  <si>
+    <t>RESYSTE</t>
+  </si>
+  <si>
+    <t>SaPHIR</t>
+  </si>
+  <si>
+    <t>Tocilam</t>
+  </si>
+  <si>
+    <t>RAI PAR BLOC</t>
+  </si>
+  <si>
+    <t>Achalaglie</t>
+  </si>
+  <si>
+    <t>DEPIST2P</t>
+  </si>
+  <si>
+    <t>STIMCONE</t>
+  </si>
+  <si>
+    <t>Nerf_SSI</t>
+  </si>
+  <si>
+    <t>FASCE</t>
   </si>
   <si>
     <t>DeprescrIPPDAM</t>
   </si>
   <si>
-    <t>DEPIST2P</t>
-  </si>
-  <si>
-    <t>Tocilam</t>
-  </si>
-  <si>
     <t>Dexhia</t>
   </si>
   <si>
-    <t>SPK-PK</t>
-  </si>
-  <si>
-    <t>HILDEGAZ</t>
-  </si>
-  <si>
-    <t>EPITUBE-HEART</t>
-  </si>
-  <si>
-    <t>RESYSTE</t>
-  </si>
-  <si>
-    <t>Achalaglie</t>
-  </si>
-  <si>
-    <t>SaPHIR</t>
-  </si>
-  <si>
-    <t>RAI PAR BLOC</t>
-  </si>
-  <si>
-    <t>FASCE</t>
-  </si>
-  <si>
-    <t>NaRacAS</t>
-  </si>
-  <si>
-    <t>STIMCONE</t>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>FLUO-PARA</t>
+  </si>
+  <si>
+    <t>MELROSE</t>
+  </si>
+  <si>
+    <t>CICAFAST</t>
+  </si>
+  <si>
+    <t>NEUROPSY-HEU</t>
+  </si>
+  <si>
+    <t>ADAMOPA</t>
+  </si>
+  <si>
+    <t>THEIA</t>
   </si>
   <si>
     <t>VIRTUOSO</t>
@@ -1854,24 +1929,6 @@
     <t>STEATO-POMPE</t>
   </si>
   <si>
-    <t>FLUO-PARA</t>
-  </si>
-  <si>
-    <t>CICAFAST</t>
-  </si>
-  <si>
-    <t>MELROSE</t>
-  </si>
-  <si>
-    <t>THEIA</t>
-  </si>
-  <si>
-    <t>NEUROPSY-HEU</t>
-  </si>
-  <si>
-    <t>REPLACE</t>
-  </si>
-  <si>
     <t>RE PAR EX</t>
   </si>
   <si>
@@ -1881,6 +1938,9 @@
     <t>HBD-Fentes</t>
   </si>
   <si>
+    <t>DYNAMIC</t>
+  </si>
+  <si>
     <t>DEXHIA</t>
   </si>
   <si>
@@ -1893,16 +1953,19 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DRUG</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>DRUG</t>
+    <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
-    <t>BIOLOGICAL</t>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -2269,7 +2332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2315,10 +2378,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2332,13 +2395,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2352,13 +2415,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2372,13 +2435,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I5" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2392,13 +2455,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2412,53 +2475,53 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I7" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I8" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I9" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2472,13 +2535,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I10" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2492,13 +2555,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I11" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2512,33 +2575,33 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I12" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I13" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2552,33 +2615,36 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="H15" t="s">
+        <v>473</v>
       </c>
       <c r="I15" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2592,13 +2658,13 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G16" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I16" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2612,139 +2678,136 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H17" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="I17" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G18" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="I18" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H19" t="s">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="I19" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I20" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" t="s">
-        <v>274</v>
+        <v>250</v>
+      </c>
+      <c r="H21" t="s">
+        <v>475</v>
       </c>
       <c r="I21" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I22" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" t="s">
-        <v>460</v>
+        <v>250</v>
+      </c>
+      <c r="G23" t="s">
+        <v>284</v>
       </c>
       <c r="I23" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2758,16 +2821,16 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="I24" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2781,16 +2844,13 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="I25" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2804,16 +2864,13 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
-      </c>
-      <c r="H26" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="I26" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2827,13 +2884,16 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>287</v>
       </c>
       <c r="H27" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="I27" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2847,13 +2907,16 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>288</v>
+      </c>
+      <c r="H28" t="s">
+        <v>479</v>
       </c>
       <c r="I28" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2867,16 +2930,16 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H29" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="I29" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2890,65 +2953,65 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H30" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="I30" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="s">
-        <v>218</v>
-      </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H31" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="I31" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H32" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="I32" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2962,16 +3025,16 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H33" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="I33" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2985,16 +3048,16 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H34" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="I34" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3008,59 +3071,59 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" t="s">
-        <v>471</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H36" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="I36" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>297</v>
+      </c>
+      <c r="H37" t="s">
+        <v>487</v>
       </c>
       <c r="I37" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3074,59 +3137,59 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H38" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="I38" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
+        <v>299</v>
+      </c>
+      <c r="H39" t="s">
+        <v>489</v>
       </c>
       <c r="I39" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
-      </c>
-      <c r="H40" t="s">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="I40" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3140,82 +3203,82 @@
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="H41" t="s">
+        <v>490</v>
       </c>
       <c r="I41" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G42" t="s">
-        <v>293</v>
-      </c>
-      <c r="H42" t="s">
-        <v>475</v>
+        <v>302</v>
       </c>
       <c r="I42" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H43" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="I43" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H44" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="I44" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3228,17 +3291,20 @@
       <c r="C45" t="s">
         <v>60</v>
       </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H45" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="I45" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3252,108 +3318,111 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G46" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H46" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="I46" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>298</v>
+        <v>307</v>
+      </c>
+      <c r="H47" t="s">
+        <v>495</v>
       </c>
       <c r="I47" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="D48" t="s">
-        <v>219</v>
-      </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G48" t="s">
-        <v>299</v>
-      </c>
-      <c r="H48" t="s">
-        <v>480</v>
+        <v>308</v>
       </c>
       <c r="I48" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="H49" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="I49" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
+      <c r="D50" t="s">
+        <v>223</v>
+      </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G50" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H50" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="I50" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3367,39 +3436,39 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H51" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="I51" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G52" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H52" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="I52" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3413,16 +3482,16 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H53" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="I53" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3436,16 +3505,16 @@
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G54" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H54" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="I54" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3459,82 +3528,88 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G55" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H55" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="I55" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G56" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H56" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="I56" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="G57" t="s">
+        <v>317</v>
       </c>
       <c r="H57" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="I57" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H58" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="I58" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3548,33 +3623,36 @@
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I59" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>320</v>
+      </c>
+      <c r="H60" t="s">
+        <v>506</v>
       </c>
       <c r="I60" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3588,16 +3666,16 @@
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H61" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="I61" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3610,63 +3688,66 @@
       <c r="C62" t="s">
         <v>77</v>
       </c>
+      <c r="D62" t="s">
+        <v>225</v>
+      </c>
       <c r="F62" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G62" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H62" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="I62" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H63" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="I63" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H64" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="I64" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3680,42 +3761,33 @@
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>315</v>
-      </c>
-      <c r="H65" t="s">
-        <v>495</v>
+        <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
-      <c r="D66" t="s">
-        <v>220</v>
-      </c>
       <c r="F66" t="s">
-        <v>246</v>
-      </c>
-      <c r="G66" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="H66" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="I66" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3728,86 +3800,86 @@
       <c r="C67" t="s">
         <v>82</v>
       </c>
-      <c r="D67" t="s">
-        <v>221</v>
-      </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H67" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="I67" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G68" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H68" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="I68" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G69" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H69" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="I69" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G70" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="H70" t="s">
+        <v>515</v>
       </c>
       <c r="I70" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3821,62 +3893,62 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G71" t="s">
-        <v>321</v>
-      </c>
-      <c r="H71" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="I71" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
+      <c r="D72" t="s">
+        <v>226</v>
+      </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G72" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H72" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="I72" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H73" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="I73" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3890,36 +3962,39 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G74" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H74" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="I74" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G75" t="s">
-        <v>325</v>
+        <v>334</v>
+      </c>
+      <c r="H75" t="s">
+        <v>519</v>
       </c>
       <c r="I75" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3933,16 +4008,16 @@
         <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G76" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H76" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="I76" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3956,42 +4031,39 @@
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G77" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H77" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="I77" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
-      <c r="D78" t="s">
-        <v>222</v>
-      </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G78" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H78" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="I78" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4005,39 +4077,39 @@
         <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G79" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H79" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="I79" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G80" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="H80" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="I80" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4051,16 +4123,16 @@
         <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G81" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H81" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="I81" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4074,174 +4146,174 @@
         <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G82" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H82" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="I82" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G83" t="s">
-        <v>333</v>
-      </c>
-      <c r="H83" t="s">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="I83" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G84" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="H84" t="s">
+        <v>527</v>
       </c>
       <c r="I84" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>227</v>
       </c>
       <c r="F85" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G85" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H85" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="I85" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G86" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H86" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="I86" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G87" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H87" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="I87" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G88" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H88" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="I88" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G89" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H89" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="I89" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4252,19 +4324,19 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G90" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H90" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="I90" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4275,19 +4347,19 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G91" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H91" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="I91" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4298,19 +4370,19 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G92" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H92" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="I92" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4321,42 +4393,42 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F93" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G93" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H93" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="I93" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G94" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H94" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="I94" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4367,19 +4439,19 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G95" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H95" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="I95" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4390,65 +4462,62 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F96" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G96" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H96" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="I96" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G97" t="s">
-        <v>347</v>
-      </c>
-      <c r="H97" t="s">
-        <v>524</v>
+        <v>356</v>
       </c>
       <c r="I97" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G98" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H98" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="I98" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4459,19 +4528,19 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G99" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H99" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="I99" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4482,85 +4551,88 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G100" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H100" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="I100" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>351</v>
+        <v>360</v>
+      </c>
+      <c r="H101" t="s">
+        <v>542</v>
       </c>
       <c r="I101" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F102" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G102" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H102" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="I102" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G103" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H103" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="I103" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4571,62 +4643,62 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G104" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H104" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="I104" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F105" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G105" t="s">
-        <v>355</v>
+        <v>364</v>
+      </c>
+      <c r="H105" t="s">
+        <v>546</v>
       </c>
       <c r="I105" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G106" t="s">
-        <v>356</v>
-      </c>
-      <c r="H106" t="s">
-        <v>531</v>
+        <v>365</v>
       </c>
       <c r="I106" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4637,19 +4709,19 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G107" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H107" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="I107" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4660,19 +4732,19 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G108" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="H108" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="I108" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4683,42 +4755,45 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G109" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H109" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="I109" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="D110" t="s">
+        <v>228</v>
       </c>
       <c r="F110" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G110" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H110" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="I110" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4729,209 +4804,200 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G111" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H111" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="I111" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
-      </c>
-      <c r="D112" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="F112" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G112" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H112" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="I112" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F113" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G113" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H113" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="I113" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F114" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G114" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H114" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="I114" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F115" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G115" t="s">
-        <v>365</v>
-      </c>
-      <c r="H115" t="s">
-        <v>540</v>
+        <v>374</v>
       </c>
       <c r="I115" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G116" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H116" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="I116" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F117" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G117" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H117" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="I117" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G118" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H118" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="I118" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F119" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G119" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H119" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="I119" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4942,42 +5008,42 @@
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G120" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H120" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="I120" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F121" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G121" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H121" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="I121" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4988,114 +5054,117 @@
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G122" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H122" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="I122" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G123" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H123" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="I123" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G124" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H124" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="I124" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G125" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H125" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I125" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G126" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H126" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="I126" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5106,19 +5175,19 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G127" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H127" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="I127" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5129,22 +5198,19 @@
         <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>143</v>
-      </c>
-      <c r="D128" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G128" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H128" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="I128" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5155,65 +5221,68 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G129" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H129" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="I129" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G130" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H130" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="I130" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F131" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G131" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H131" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="I131" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5224,91 +5293,88 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F132" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G132" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H132" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="I132" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
-      </c>
-      <c r="D133" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="F133" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G133" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H133" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="I133" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F134" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G134" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H134" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="I134" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F135" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G135" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H135" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="I135" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5319,19 +5385,19 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F136" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G136" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H136" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="I136" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5342,19 +5408,19 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G137" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H137" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="I137" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5364,17 +5430,17 @@
       <c r="B138" t="s">
         <v>13</v>
       </c>
-      <c r="D138" t="s">
-        <v>228</v>
+      <c r="C138" t="s">
+        <v>151</v>
       </c>
       <c r="F138" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G138" t="s">
-        <v>388</v>
-      </c>
-      <c r="H138" t="s">
-        <v>563</v>
+        <v>397</v>
+      </c>
+      <c r="I138" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5385,68 +5451,65 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F139" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G139" t="s">
-        <v>389</v>
-      </c>
-      <c r="H139" t="s">
-        <v>563</v>
+        <v>398</v>
       </c>
       <c r="I139" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="F140" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G140" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H140" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="I140" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="D141" t="s">
+        <v>233</v>
       </c>
       <c r="F141" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G141" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H141" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="I141" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5457,19 +5520,19 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F142" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G142" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H142" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="I142" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5479,17 +5542,20 @@
       <c r="B143" t="s">
         <v>13</v>
       </c>
-      <c r="C143" t="s">
-        <v>157</v>
+      <c r="D143" t="s">
+        <v>234</v>
       </c>
       <c r="F143" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G143" t="s">
-        <v>393</v>
+        <v>402</v>
+      </c>
+      <c r="H143" t="s">
+        <v>573</v>
       </c>
       <c r="I143" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5500,39 +5566,45 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F144" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G144" t="s">
-        <v>394</v>
+        <v>403</v>
+      </c>
+      <c r="H144" t="s">
+        <v>580</v>
       </c>
       <c r="I144" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="D145" t="s">
+        <v>235</v>
       </c>
       <c r="F145" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G145" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H145" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="I145" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5543,16 +5615,19 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F146" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G146" t="s">
-        <v>396</v>
+        <v>405</v>
+      </c>
+      <c r="H146" t="s">
+        <v>582</v>
       </c>
       <c r="I146" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5562,43 +5637,40 @@
       <c r="B147" t="s">
         <v>13</v>
       </c>
-      <c r="D147" t="s">
-        <v>230</v>
+      <c r="C147" t="s">
+        <v>159</v>
       </c>
       <c r="F147" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G147" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H147" t="s">
-        <v>568</v>
+        <v>583</v>
+      </c>
+      <c r="I147" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
-      </c>
-      <c r="D148" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G148" t="s">
-        <v>398</v>
-      </c>
-      <c r="H148" t="s">
-        <v>569</v>
+        <v>407</v>
       </c>
       <c r="I148" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5609,42 +5681,42 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F149" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G149" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H149" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="I149" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G150" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H150" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="I150" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5655,45 +5727,45 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D151" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="F151" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G151" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H151" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="I151" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="D152" t="s">
+        <v>236</v>
       </c>
       <c r="F152" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G152" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="I152" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5704,42 +5776,42 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F153" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G153" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="H153" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="I153" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F154" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G154" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="H154" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="I154" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5750,19 +5822,19 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F155" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G155" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H155" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="I155" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5773,16 +5845,19 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F156" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G156" t="s">
-        <v>406</v>
+        <v>415</v>
+      </c>
+      <c r="H156" t="s">
+        <v>591</v>
       </c>
       <c r="I156" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5792,20 +5867,20 @@
       <c r="B157" t="s">
         <v>13</v>
       </c>
-      <c r="C157" t="s">
-        <v>170</v>
+      <c r="D157" t="s">
+        <v>237</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G157" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H157" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="I157" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5816,19 +5891,19 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G158" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H158" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="I158" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5839,19 +5914,19 @@
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F159" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G159" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="H159" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="I159" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5862,42 +5937,42 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F160" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G160" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="I160" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G161" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H161" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="I161" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5908,42 +5983,45 @@
         <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F162" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G162" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H162" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="I162" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D163" t="s">
+        <v>238</v>
       </c>
       <c r="F163" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G163" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H163" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="I163" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5954,19 +6032,16 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F164" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G164" t="s">
-        <v>414</v>
-      </c>
-      <c r="H164" t="s">
-        <v>583</v>
+        <v>423</v>
       </c>
       <c r="I164" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5977,39 +6052,42 @@
         <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F165" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G165" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H165" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="I165" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F166" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G166" t="s">
-        <v>416</v>
+        <v>425</v>
+      </c>
+      <c r="H166" t="s">
+        <v>592</v>
       </c>
       <c r="I166" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6020,42 +6098,39 @@
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F167" t="s">
-        <v>253</v>
-      </c>
-      <c r="G167" t="s">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="H167" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="I167" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F168" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G168" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H168" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="I168" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6066,42 +6141,42 @@
         <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F169" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G169" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H169" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="I169" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F170" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G170" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H170" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="I170" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6112,42 +6187,39 @@
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F171" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G171" t="s">
-        <v>421</v>
-      </c>
-      <c r="H171" t="s">
-        <v>589</v>
+        <v>429</v>
       </c>
       <c r="I171" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F172" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G172" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H172" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="I172" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6158,19 +6230,19 @@
         <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F173" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G173" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H173" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="I173" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6181,19 +6253,19 @@
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F174" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G174" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H174" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="I174" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6204,19 +6276,19 @@
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F175" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G175" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H175" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="I175" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6227,39 +6299,42 @@
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F176" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G176" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H176" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="I176" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F177" t="s">
-        <v>253</v>
+        <v>262</v>
+      </c>
+      <c r="G177" t="s">
+        <v>435</v>
       </c>
       <c r="H177" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="I177" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6270,19 +6345,19 @@
         <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F178" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G178" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H178" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="I178" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6293,19 +6368,19 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F179" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G179" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H179" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="I179" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6316,19 +6391,19 @@
         <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F180" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G180" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H180" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="I180" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6339,19 +6414,19 @@
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F181" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G181" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H181" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="I181" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6361,20 +6436,20 @@
       <c r="B182" t="s">
         <v>13</v>
       </c>
-      <c r="C182" t="s">
-        <v>195</v>
+      <c r="D182" t="s">
+        <v>239</v>
       </c>
       <c r="F182" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G182" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H182" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="I182" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6385,19 +6460,19 @@
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F183" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G183" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H183" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="I183" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6408,19 +6483,19 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F184" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G184" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H184" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="I184" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6431,42 +6506,45 @@
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F185" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G185" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H185" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="I185" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="D186" t="s">
+        <v>240</v>
       </c>
       <c r="F186" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G186" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H186" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="I186" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6477,19 +6555,19 @@
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F187" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G187" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H187" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="I187" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6500,19 +6578,19 @@
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F188" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G188" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H188" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="I188" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6523,19 +6601,19 @@
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F189" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G189" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H189" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="I189" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6546,19 +6624,19 @@
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F190" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G190" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H190" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="I190" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6569,19 +6647,19 @@
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F191" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G191" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H191" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="I191" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6592,42 +6670,42 @@
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F192" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G192" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H192" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="I192" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F193" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G193" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H193" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I193" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6638,19 +6716,19 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F194" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G194" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H194" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="I194" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6660,17 +6738,20 @@
       <c r="B195" t="s">
         <v>13</v>
       </c>
-      <c r="D195" t="s">
-        <v>233</v>
+      <c r="C195" t="s">
+        <v>205</v>
       </c>
       <c r="F195" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G195" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H195" t="s">
-        <v>613</v>
+        <v>626</v>
+      </c>
+      <c r="I195" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6680,17 +6761,20 @@
       <c r="B196" t="s">
         <v>13</v>
       </c>
-      <c r="D196" t="s">
-        <v>234</v>
+      <c r="C196" t="s">
+        <v>206</v>
       </c>
       <c r="F196" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G196" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H196" t="s">
-        <v>614</v>
+        <v>627</v>
+      </c>
+      <c r="I196" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6700,17 +6784,20 @@
       <c r="B197" t="s">
         <v>13</v>
       </c>
-      <c r="D197" t="s">
-        <v>235</v>
+      <c r="C197" t="s">
+        <v>207</v>
       </c>
       <c r="F197" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G197" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H197" t="s">
-        <v>615</v>
+        <v>628</v>
+      </c>
+      <c r="I197" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6720,20 +6807,20 @@
       <c r="B198" t="s">
         <v>13</v>
       </c>
-      <c r="C198" t="s">
-        <v>208</v>
+      <c r="D198" t="s">
+        <v>241</v>
       </c>
       <c r="F198" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G198" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H198" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="I198" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6743,20 +6830,20 @@
       <c r="B199" t="s">
         <v>13</v>
       </c>
-      <c r="C199" t="s">
-        <v>209</v>
+      <c r="D199" t="s">
+        <v>242</v>
       </c>
       <c r="F199" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G199" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H199" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="I199" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6767,19 +6854,19 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F200" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G200" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H200" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="I200" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6790,19 +6877,19 @@
         <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F201" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G201" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H201" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="I201" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6812,20 +6899,20 @@
       <c r="B202" t="s">
         <v>13</v>
       </c>
-      <c r="C202" t="s">
-        <v>212</v>
+      <c r="D202" t="s">
+        <v>243</v>
       </c>
       <c r="F202" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G202" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H202" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="I202" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6836,19 +6923,19 @@
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F203" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G203" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H203" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="I203" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6858,14 +6945,20 @@
       <c r="B204" t="s">
         <v>13</v>
       </c>
-      <c r="D204" t="s">
-        <v>236</v>
+      <c r="C204" t="s">
+        <v>211</v>
+      </c>
+      <c r="F204" t="s">
+        <v>264</v>
       </c>
       <c r="G204" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H204" t="s">
-        <v>621</v>
+        <v>635</v>
+      </c>
+      <c r="I204" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6876,13 +6969,19 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="F205" t="s">
+        <v>264</v>
       </c>
       <c r="G205" t="s">
-        <v>454</v>
+        <v>463</v>
+      </c>
+      <c r="H205" t="s">
+        <v>636</v>
       </c>
       <c r="I205" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6893,50 +6992,176 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="F206" t="s">
+        <v>264</v>
       </c>
       <c r="G206" t="s">
-        <v>455</v>
+        <v>464</v>
+      </c>
+      <c r="H206" t="s">
+        <v>637</v>
       </c>
       <c r="I206" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="F207" t="s">
+        <v>264</v>
       </c>
       <c r="G207" t="s">
-        <v>456</v>
+        <v>465</v>
+      </c>
+      <c r="H207" t="s">
+        <v>633</v>
       </c>
       <c r="I207" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>215</v>
+      </c>
+      <c r="F208" t="s">
+        <v>264</v>
+      </c>
+      <c r="G208" t="s">
+        <v>466</v>
+      </c>
+      <c r="H208" t="s">
+        <v>638</v>
+      </c>
+      <c r="I208" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>244</v>
+      </c>
+      <c r="G209" t="s">
+        <v>467</v>
+      </c>
+      <c r="H209" t="s">
+        <v>639</v>
+      </c>
+      <c r="I209" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>245</v>
+      </c>
+      <c r="G210" t="s">
+        <v>468</v>
+      </c>
+      <c r="H210" t="s">
+        <v>640</v>
+      </c>
+      <c r="I210" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
         <v>10</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B211" t="s">
         <v>14</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C211" t="s">
+        <v>216</v>
+      </c>
+      <c r="G211" t="s">
+        <v>469</v>
+      </c>
+      <c r="I211" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
         <v>217</v>
       </c>
-      <c r="G208" t="s">
-        <v>457</v>
-      </c>
-      <c r="H208" t="s">
-        <v>622</v>
-      </c>
-      <c r="I208" t="s">
-        <v>626</v>
+      <c r="G212" t="s">
+        <v>470</v>
+      </c>
+      <c r="I212" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>218</v>
+      </c>
+      <c r="G213" t="s">
+        <v>471</v>
+      </c>
+      <c r="I213" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" t="s">
+        <v>219</v>
+      </c>
+      <c r="G214" t="s">
+        <v>472</v>
+      </c>
+      <c r="H214" t="s">
+        <v>641</v>
+      </c>
+      <c r="I214" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
